--- a/Results/Baseline/Lifetime/Results_world_base_life_Max.xlsx
+++ b/Results/Baseline/Lifetime/Results_world_base_life_Max.xlsx
@@ -7,14 +7,15 @@
     <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
   </bookViews>
   <sheets>
-    <sheet name="Crit_met_world" sheetId="1" r:id="rId1"/>
+    <sheet name="Annual production" sheetId="1" r:id="rId1"/>
+    <sheet name="Cumulative" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="6">
   <si>
     <t>World</t>
   </si>
@@ -678,274 +679,274 @@
         <v>2</v>
       </c>
       <c r="D2">
-        <v>262.027438509405</v>
+        <v>262.0274379424926</v>
       </c>
       <c r="E2">
-        <v>302.6159376213466</v>
+        <v>302.6159365732591</v>
       </c>
       <c r="F2">
-        <v>500.2321545142109</v>
+        <v>500.2321524285682</v>
       </c>
       <c r="G2">
-        <v>370.6084120110489</v>
+        <v>370.6084081156198</v>
       </c>
       <c r="H2">
-        <v>949.0000113901518</v>
+        <v>949.0000054727121</v>
       </c>
       <c r="I2">
-        <v>545.2813554619738</v>
+        <v>545.2813449889029</v>
       </c>
       <c r="J2">
-        <v>608.4922620119863</v>
+        <v>608.4922434758764</v>
       </c>
       <c r="K2">
-        <v>699.8867176874309</v>
+        <v>699.8866845456396</v>
       </c>
       <c r="L2">
-        <v>557.8272814944046</v>
+        <v>557.8272273071105</v>
       </c>
       <c r="M2">
-        <v>684.401209353769</v>
+        <v>684.4011090925799</v>
       </c>
       <c r="N2">
-        <v>346.8629976738983</v>
+        <v>346.8627889481101</v>
       </c>
       <c r="O2">
-        <v>384.620636994277</v>
+        <v>384.6202105390444</v>
       </c>
       <c r="P2">
-        <v>771.7067967709971</v>
+        <v>771.7056794139156</v>
       </c>
       <c r="Q2">
-        <v>778.5653345674299</v>
+        <v>778.5623654404098</v>
       </c>
       <c r="R2">
-        <v>788.4756217680173</v>
+        <v>788.468019252529</v>
       </c>
       <c r="S2">
-        <v>1985.743142354367</v>
+        <v>1985.726120138952</v>
       </c>
       <c r="T2">
-        <v>2005.153259461964</v>
+        <v>2005.124318837226</v>
       </c>
       <c r="U2">
-        <v>2013.62526866231</v>
+        <v>2013.59399395472</v>
       </c>
       <c r="V2">
-        <v>2006.574305011411</v>
+        <v>2006.553681074182</v>
       </c>
       <c r="W2">
-        <v>2005.074388716268</v>
+        <v>2005.059623654594</v>
       </c>
       <c r="X2">
-        <v>1845.854594734272</v>
+        <v>1845.833130933129</v>
       </c>
       <c r="Y2">
-        <v>1862.892818532958</v>
+        <v>1862.861684983761</v>
       </c>
       <c r="Z2">
-        <v>1881.597962214962</v>
+        <v>1881.555775395324</v>
       </c>
       <c r="AA2">
-        <v>1905.695529904799</v>
+        <v>1905.637688592828</v>
       </c>
       <c r="AB2">
-        <v>1926.036372584028</v>
+        <v>1925.966092665765</v>
       </c>
       <c r="AC2">
-        <v>597.1081929659053</v>
+        <v>597.0276953763135</v>
       </c>
       <c r="AD2">
-        <v>645.8537921116537</v>
+        <v>645.7372535451541</v>
       </c>
       <c r="AE2">
-        <v>737.3336758529986</v>
+        <v>737.1453310447546</v>
       </c>
       <c r="AF2">
-        <v>844.2395500133058</v>
+        <v>843.9664103051248</v>
       </c>
       <c r="AG2">
-        <v>958.9916354074627</v>
+        <v>958.6270335234781</v>
       </c>
       <c r="AH2">
-        <v>798.2563442759518</v>
+        <v>797.8745015379509</v>
       </c>
       <c r="AI2">
-        <v>747.0950634722358</v>
+        <v>746.7608169167876</v>
       </c>
       <c r="AJ2">
-        <v>743.2063046954539</v>
+        <v>742.88001593416</v>
       </c>
       <c r="AK2">
-        <v>723.2353333795834</v>
+        <v>722.9300960897311</v>
       </c>
       <c r="AL2">
-        <v>690.7026791214084</v>
+        <v>690.4284663724055</v>
       </c>
       <c r="AM2">
-        <v>659.8082715795183</v>
+        <v>659.5630235231357</v>
       </c>
       <c r="AN2">
-        <v>707.4248484390954</v>
+        <v>707.1417384214523</v>
       </c>
       <c r="AO2">
-        <v>885.1604012142319</v>
+        <v>884.7294530107338</v>
       </c>
       <c r="AP2">
-        <v>1094.17343751716</v>
+        <v>1093.567844166172</v>
       </c>
       <c r="AQ2">
-        <v>1369.628816006833</v>
+        <v>1368.791626193098</v>
       </c>
       <c r="AR2">
-        <v>1773.693026527235</v>
+        <v>1772.51477247101</v>
       </c>
       <c r="AS2">
-        <v>2059.458084132857</v>
+        <v>2058.039680872019</v>
       </c>
       <c r="AT2">
-        <v>2105.054868640925</v>
+        <v>2103.601184758958</v>
       </c>
       <c r="AU2">
-        <v>2096.49686431824</v>
+        <v>2095.054289414777</v>
       </c>
       <c r="AV2">
-        <v>2076.725434039819</v>
+        <v>2075.312760435444</v>
       </c>
       <c r="AW2">
-        <v>2031.454910925051</v>
+        <v>2030.088518315758</v>
       </c>
       <c r="AX2">
-        <v>2210.088802833141</v>
+        <v>2208.759631106619</v>
       </c>
       <c r="AY2">
-        <v>2179.269136533627</v>
+        <v>2177.972537117187</v>
       </c>
       <c r="AZ2">
-        <v>2077.714482235487</v>
+        <v>2076.511254856354</v>
       </c>
       <c r="BA2">
-        <v>1822.135234632827</v>
+        <v>1821.157125792871</v>
       </c>
       <c r="BB2">
-        <v>1390.870268434868</v>
+        <v>1390.24526188424</v>
       </c>
       <c r="BC2">
-        <v>1135.788070799265</v>
+        <v>1135.389400388113</v>
       </c>
       <c r="BD2">
-        <v>1161.015283339461</v>
+        <v>1160.604547093035</v>
       </c>
       <c r="BE2">
-        <v>1226.017122438699</v>
+        <v>1225.560525292166</v>
       </c>
       <c r="BF2">
-        <v>1252.410801533215</v>
+        <v>1251.940852694335</v>
       </c>
       <c r="BG2">
-        <v>1190.392206416947</v>
+        <v>1189.961340021577</v>
       </c>
       <c r="BH2">
-        <v>1134.051081461515</v>
+        <v>1133.676113785982</v>
       </c>
       <c r="BI2">
-        <v>1105.369960336491</v>
+        <v>1105.026779114707</v>
       </c>
       <c r="BJ2">
-        <v>1088.437264524964</v>
+        <v>1088.11533245441</v>
       </c>
       <c r="BK2">
-        <v>1078.946517095641</v>
+        <v>1078.638809825485</v>
       </c>
       <c r="BL2">
-        <v>1079.777473626949</v>
+        <v>1079.458055680615</v>
       </c>
       <c r="BM2">
-        <v>1163.338129559951</v>
+        <v>1162.953345787412</v>
       </c>
       <c r="BN2">
-        <v>1327.260657446715</v>
+        <v>1326.742215809666</v>
       </c>
       <c r="BO2">
-        <v>1556.52541257227</v>
+        <v>1555.817690541774</v>
       </c>
       <c r="BP2">
-        <v>1828.760155948383</v>
+        <v>1827.826379718494</v>
       </c>
       <c r="BQ2">
-        <v>2097.821037714111</v>
+        <v>2096.652401954067</v>
       </c>
       <c r="BR2">
-        <v>2314.212004007783</v>
+        <v>2312.865192530914</v>
       </c>
       <c r="BS2">
-        <v>2410.098056128858</v>
+        <v>2408.675815733349</v>
       </c>
       <c r="BT2">
-        <v>2423.883713745618</v>
+        <v>2422.45609643599</v>
       </c>
       <c r="BU2">
-        <v>2418.401733357824</v>
+        <v>2416.985292373171</v>
       </c>
       <c r="BV2">
-        <v>2412.123551328883</v>
+        <v>2410.708033096643</v>
       </c>
       <c r="BW2">
-        <v>2433.539222953816</v>
+        <v>2432.112812653326</v>
       </c>
       <c r="BX2">
-        <v>2403.634179803636</v>
+        <v>2402.240900015071</v>
       </c>
       <c r="BY2">
-        <v>2265.303614604544</v>
+        <v>2264.036177924944</v>
       </c>
       <c r="BZ2">
-        <v>2038.063042247082</v>
+        <v>2036.997584557893</v>
       </c>
       <c r="CA2">
-        <v>1763.511948376691</v>
+        <v>1762.677560097338</v>
       </c>
       <c r="CB2">
-        <v>1579.88684809296</v>
+        <v>1579.218597577226</v>
       </c>
       <c r="CC2">
-        <v>1531.964514425958</v>
+        <v>1531.347134441686</v>
       </c>
       <c r="CD2">
-        <v>1554.794957419728</v>
+        <v>1554.168297583873</v>
       </c>
       <c r="CE2">
-        <v>1564.889973179399</v>
+        <v>1564.264725498243</v>
       </c>
       <c r="CF2">
-        <v>1524.627059092573</v>
+        <v>1524.032629514331</v>
       </c>
       <c r="CG2">
-        <v>1486.429267303481</v>
+        <v>1485.877091541773</v>
       </c>
       <c r="CH2">
-        <v>1460.062647990774</v>
+        <v>1459.542274068592</v>
       </c>
       <c r="CI2">
-        <v>1450.80204735067</v>
+        <v>1450.298581179072</v>
       </c>
       <c r="CJ2">
-        <v>1461.610555792671</v>
+        <v>1461.106586161183</v>
       </c>
       <c r="CK2">
-        <v>1485.622781589424</v>
+        <v>1485.088727083514</v>
       </c>
       <c r="CL2">
-        <v>1588.045130372277</v>
+        <v>1587.43276876658</v>
       </c>
       <c r="CM2">
-        <v>1755.995489620569</v>
+        <v>1755.24903888606</v>
       </c>
       <c r="CN2">
-        <v>1974.630131444828</v>
+        <v>1973.706416097938</v>
       </c>
       <c r="CO2">
-        <v>2215.723895821116</v>
+        <v>2214.60368883348</v>
       </c>
     </row>
     <row r="3" spans="1:93">
@@ -955,274 +956,274 @@
         <v>3</v>
       </c>
       <c r="D3">
-        <v>16.49064923571322</v>
+        <v>16.49064919837422</v>
       </c>
       <c r="E3">
-        <v>19.15930165815574</v>
+        <v>19.15930158912561</v>
       </c>
       <c r="F3">
-        <v>32.31295958553358</v>
+        <v>32.31295944817526</v>
       </c>
       <c r="G3">
-        <v>23.60785960385257</v>
+        <v>23.60785934736749</v>
       </c>
       <c r="H3">
-        <v>62.55387811519576</v>
+        <v>62.55387772592716</v>
       </c>
       <c r="I3">
-        <v>35.42701373551095</v>
+        <v>35.42701304856236</v>
       </c>
       <c r="J3">
-        <v>39.55998962957054</v>
+        <v>39.55998842413841</v>
       </c>
       <c r="K3">
-        <v>45.54519970046562</v>
+        <v>45.54519759462508</v>
       </c>
       <c r="L3">
-        <v>36.04889666501111</v>
+        <v>36.0488934134403</v>
       </c>
       <c r="M3">
-        <v>44.47697183880316</v>
+        <v>44.4769665308222</v>
       </c>
       <c r="N3">
-        <v>21.6578779976058</v>
+        <v>21.65786922911069</v>
       </c>
       <c r="O3">
-        <v>24.33729004009482</v>
+        <v>24.33727730879803</v>
       </c>
       <c r="P3">
-        <v>50.25008119707964</v>
+        <v>50.25005872001523</v>
       </c>
       <c r="Q3">
-        <v>50.67509068193505</v>
+        <v>50.67504931289155</v>
       </c>
       <c r="R3">
-        <v>51.30647039716409</v>
+        <v>51.30639220541914</v>
       </c>
       <c r="S3">
-        <v>131.6530483253596</v>
+        <v>131.652914697018</v>
       </c>
       <c r="T3">
-        <v>132.9176285966016</v>
+        <v>132.9174512784715</v>
       </c>
       <c r="U3">
-        <v>133.4422540768254</v>
+        <v>133.4420633482071</v>
       </c>
       <c r="V3">
-        <v>132.9164428667505</v>
+        <v>132.9162390382204</v>
       </c>
       <c r="W3">
-        <v>132.766157948345</v>
+        <v>132.7659274647432</v>
       </c>
       <c r="X3">
-        <v>122.0344578096499</v>
+        <v>122.0341934143827</v>
       </c>
       <c r="Y3">
-        <v>123.1403020208528</v>
+        <v>123.1400008017506</v>
       </c>
       <c r="Z3">
-        <v>124.3589270382524</v>
+        <v>124.3585874605833</v>
       </c>
       <c r="AA3">
-        <v>125.9423791436104</v>
+        <v>125.9419920984695</v>
       </c>
       <c r="AB3">
-        <v>127.2716387786278</v>
+        <v>127.2712081937467</v>
       </c>
       <c r="AC3">
-        <v>38.00632266905887</v>
+        <v>38.00585431445134</v>
       </c>
       <c r="AD3">
-        <v>41.25647635782306</v>
+        <v>41.25595435121271</v>
       </c>
       <c r="AE3">
-        <v>47.39833372062238</v>
+        <v>47.39774620456369</v>
       </c>
       <c r="AF3">
-        <v>54.5839310519584</v>
+        <v>54.58326372921748</v>
       </c>
       <c r="AG3">
-        <v>62.30031248455334</v>
+        <v>62.29954774956956</v>
       </c>
       <c r="AH3">
-        <v>51.47280675268298</v>
+        <v>51.47195168368621</v>
       </c>
       <c r="AI3">
-        <v>47.960339082815</v>
+        <v>47.95939197302695</v>
       </c>
       <c r="AJ3">
-        <v>47.64639735299166</v>
+        <v>47.64531932624278</v>
       </c>
       <c r="AK3">
-        <v>46.24366961308098</v>
+        <v>46.24240731638142</v>
       </c>
       <c r="AL3">
-        <v>43.99023249931227</v>
+        <v>43.9887144041378</v>
       </c>
       <c r="AM3">
-        <v>41.84639531323477</v>
+        <v>41.8445301534347</v>
       </c>
       <c r="AN3">
-        <v>45.01419706188005</v>
+        <v>45.01185049624898</v>
       </c>
       <c r="AO3">
-        <v>56.98589291194115</v>
+        <v>56.98292568767978</v>
       </c>
       <c r="AP3">
-        <v>71.07336972956037</v>
+        <v>71.06969816245029</v>
       </c>
       <c r="AQ3">
-        <v>89.65588992434101</v>
+        <v>89.65138283290912</v>
       </c>
       <c r="AR3">
-        <v>116.9381294844588</v>
+        <v>116.932608667209</v>
       </c>
       <c r="AS3">
-        <v>136.2163705205591</v>
+        <v>136.2099981100164</v>
       </c>
       <c r="AT3">
-        <v>139.2452174690892</v>
+        <v>139.2383353881769</v>
       </c>
       <c r="AU3">
-        <v>138.6105773041346</v>
+        <v>138.6033155119321</v>
       </c>
       <c r="AV3">
-        <v>137.2103093263307</v>
+        <v>137.2027821068037</v>
       </c>
       <c r="AW3">
-        <v>134.0867555738168</v>
+        <v>134.0791008588958</v>
       </c>
       <c r="AX3">
-        <v>146.007559045209</v>
+        <v>145.9998926333993</v>
       </c>
       <c r="AY3">
-        <v>143.8665913412664</v>
+        <v>143.8590381470811</v>
       </c>
       <c r="AZ3">
-        <v>136.940969075465</v>
+        <v>136.9337447400409</v>
       </c>
       <c r="BA3">
-        <v>119.5951859418127</v>
+        <v>119.5885983070919</v>
       </c>
       <c r="BB3">
-        <v>90.37218160509762</v>
+        <v>90.36651703067095</v>
       </c>
       <c r="BC3">
-        <v>73.0566087794207</v>
+        <v>73.05176013281175</v>
       </c>
       <c r="BD3">
-        <v>74.70723565263057</v>
+        <v>74.70290289794451</v>
       </c>
       <c r="BE3">
-        <v>79.04904235946988</v>
+        <v>79.0451802959782</v>
       </c>
       <c r="BF3">
-        <v>80.7781557071319</v>
+        <v>80.77476212823363</v>
       </c>
       <c r="BG3">
-        <v>76.53379521699259</v>
+        <v>76.53084953727691</v>
       </c>
       <c r="BH3">
-        <v>72.65882127396208</v>
+        <v>72.65623236117474</v>
       </c>
       <c r="BI3">
-        <v>70.65429485037255</v>
+        <v>70.65192301071221</v>
       </c>
       <c r="BJ3">
-        <v>69.4436027459669</v>
+        <v>69.4413254188446</v>
       </c>
       <c r="BK3">
-        <v>68.73530243566505</v>
+        <v>68.73299296941774</v>
       </c>
       <c r="BL3">
-        <v>68.73119191511974</v>
+        <v>68.72871525413814</v>
       </c>
       <c r="BM3">
-        <v>74.31364308845203</v>
+        <v>74.31085934345896</v>
       </c>
       <c r="BN3">
-        <v>85.33297907420268</v>
+        <v>85.3297554294282</v>
       </c>
       <c r="BO3">
-        <v>100.7730120856418</v>
+        <v>100.7692354270126</v>
       </c>
       <c r="BP3">
-        <v>119.1200282162269</v>
+        <v>119.1156079619554</v>
       </c>
       <c r="BQ3">
-        <v>137.2539571905808</v>
+        <v>137.2488560152092</v>
       </c>
       <c r="BR3">
-        <v>151.8169929406127</v>
+        <v>151.8112871607735</v>
       </c>
       <c r="BS3">
-        <v>158.2267229137041</v>
+        <v>158.2205704562485</v>
       </c>
       <c r="BT3">
-        <v>159.0817130697278</v>
+        <v>159.0752347666202</v>
       </c>
       <c r="BU3">
-        <v>158.6333469926779</v>
+        <v>158.6265964340283</v>
       </c>
       <c r="BV3">
-        <v>158.1339193239487</v>
+        <v>158.1269235377486</v>
       </c>
       <c r="BW3">
-        <v>159.5017970395466</v>
+        <v>159.4945921967439</v>
       </c>
       <c r="BX3">
-        <v>157.3979313802571</v>
+        <v>157.3906440814401</v>
       </c>
       <c r="BY3">
-        <v>147.9586746835403</v>
+        <v>147.9515096884858</v>
       </c>
       <c r="BZ3">
-        <v>132.5044957895824</v>
+        <v>132.4976389533182</v>
       </c>
       <c r="CA3">
-        <v>113.8525875724975</v>
+        <v>113.8461584410741</v>
       </c>
       <c r="CB3">
-        <v>101.3461070520253</v>
+        <v>101.3400840912899</v>
       </c>
       <c r="CC3">
-        <v>98.0218726777816</v>
+        <v>98.01614748247732</v>
       </c>
       <c r="CD3">
-        <v>99.48514591771502</v>
+        <v>99.47966651819769</v>
       </c>
       <c r="CE3">
-        <v>100.086836490741</v>
+        <v>100.0816239765231</v>
       </c>
       <c r="CF3">
-        <v>97.2840116885759</v>
+        <v>97.27908747457523</v>
       </c>
       <c r="CG3">
-        <v>94.61232556877877</v>
+        <v>94.60766946321377</v>
       </c>
       <c r="CH3">
-        <v>92.7407568720627</v>
+        <v>92.73631143722767</v>
       </c>
       <c r="CI3">
-        <v>92.026138256881</v>
+        <v>92.02183489151831</v>
       </c>
       <c r="CJ3">
-        <v>92.66888936796332</v>
+        <v>92.66465023671168</v>
       </c>
       <c r="CK3">
-        <v>94.2107508458447</v>
+        <v>94.20648252346948</v>
       </c>
       <c r="CL3">
-        <v>101.046097765571</v>
+        <v>101.0416896292934</v>
       </c>
       <c r="CM3">
-        <v>112.3147062299686</v>
+        <v>112.3100444028284</v>
       </c>
       <c r="CN3">
-        <v>127.0122553930268</v>
+        <v>127.0072442241485</v>
       </c>
       <c r="CO3">
-        <v>143.2290221097216</v>
+        <v>143.2235983068729</v>
       </c>
     </row>
     <row r="4" spans="1:93">
@@ -1232,274 +1233,274 @@
         <v>4</v>
       </c>
       <c r="D4">
-        <v>26474393.69659431</v>
+        <v>26474387.15107802</v>
       </c>
       <c r="E4">
-        <v>26777245.33048151</v>
+        <v>26777233.22951134</v>
       </c>
       <c r="F4">
-        <v>29376241.97772572</v>
+        <v>29376217.89879272</v>
       </c>
       <c r="G4">
-        <v>29467701.40552017</v>
+        <v>29467656.44331267</v>
       </c>
       <c r="H4">
-        <v>26832818.06188701</v>
+        <v>26832749.82087819</v>
       </c>
       <c r="I4">
-        <v>26319502.11082303</v>
+        <v>26319381.67613481</v>
       </c>
       <c r="J4">
-        <v>29027814.65902474</v>
+        <v>29027603.2828952</v>
       </c>
       <c r="K4">
-        <v>32848237.36919994</v>
+        <v>32847867.91636285</v>
       </c>
       <c r="L4">
-        <v>32625709.16558896</v>
+        <v>32625138.00333385</v>
       </c>
       <c r="M4">
-        <v>34706019.82690352</v>
+        <v>34705084.84108179</v>
       </c>
       <c r="N4">
-        <v>37559079.20801924</v>
+        <v>37557525.62608365</v>
       </c>
       <c r="O4">
-        <v>34842828.75980539</v>
+        <v>34840548.44552797</v>
       </c>
       <c r="P4">
-        <v>38689639.69739683</v>
+        <v>38685545.48552711</v>
       </c>
       <c r="Q4">
-        <v>40007657.48697991</v>
+        <v>39999968.63761436</v>
       </c>
       <c r="R4">
-        <v>41338131.82647179</v>
+        <v>41323343.15795719</v>
       </c>
       <c r="S4">
-        <v>47256014.56307469</v>
+        <v>47230494.37030071</v>
       </c>
       <c r="T4">
-        <v>48724816.30110991</v>
+        <v>48690949.7549556</v>
       </c>
       <c r="U4">
-        <v>50171883.2684169</v>
+        <v>50135723.29424098</v>
       </c>
       <c r="V4">
-        <v>51618780.40634058</v>
+        <v>51580448.72978631</v>
       </c>
       <c r="W4">
-        <v>53074743.07927324</v>
+        <v>53031629.97566075</v>
       </c>
       <c r="X4">
-        <v>54054702.71228097</v>
+        <v>54005450.57478896</v>
       </c>
       <c r="Y4">
-        <v>55420136.40651451</v>
+        <v>55364239.30207881</v>
       </c>
       <c r="Z4">
-        <v>56786198.43041139</v>
+        <v>56723417.94041699</v>
       </c>
       <c r="AA4">
-        <v>58158219.74561924</v>
+        <v>58086815.38190775</v>
       </c>
       <c r="AB4">
-        <v>59527174.43040459</v>
+        <v>59447979.93508761</v>
       </c>
       <c r="AC4">
-        <v>55741041.91438665</v>
+        <v>55655261.46001162</v>
       </c>
       <c r="AD4">
-        <v>57119855.94567978</v>
+        <v>57024442.74829627</v>
       </c>
       <c r="AE4">
-        <v>58505019.04524107</v>
+        <v>58397768.21164439</v>
       </c>
       <c r="AF4">
-        <v>59898717.1405691</v>
+        <v>59776992.90300852</v>
       </c>
       <c r="AG4">
-        <v>61302908.37453767</v>
+        <v>61163516.75947285</v>
       </c>
       <c r="AH4">
-        <v>61815645.61983107</v>
+        <v>61660365.24196582</v>
       </c>
       <c r="AI4">
-        <v>63237973.05114358</v>
+        <v>63067018.42697515</v>
       </c>
       <c r="AJ4">
-        <v>64681555.65966764</v>
+        <v>64488038.62022423</v>
       </c>
       <c r="AK4">
-        <v>66157541.13482383</v>
+        <v>65931864.50814554</v>
       </c>
       <c r="AL4">
-        <v>67677744.95796745</v>
+        <v>67406882.23221584</v>
       </c>
       <c r="AM4">
-        <v>69227970.9212077</v>
+        <v>68895111.57682642</v>
       </c>
       <c r="AN4">
-        <v>70863462.28367601</v>
+        <v>70443347.77896637</v>
       </c>
       <c r="AO4">
-        <v>72586473.5764986</v>
+        <v>72052840.86500397</v>
       </c>
       <c r="AP4">
-        <v>74361511.08738826</v>
+        <v>73698872.04713675</v>
       </c>
       <c r="AQ4">
-        <v>76223364.77447984</v>
+        <v>75406549.3917073</v>
       </c>
       <c r="AR4">
-        <v>78192028.1696264</v>
+        <v>77186171.35334058</v>
       </c>
       <c r="AS4">
-        <v>80049587.40444574</v>
+        <v>78886546.13086101</v>
       </c>
       <c r="AT4">
-        <v>81675167.48302341</v>
+        <v>80421723.58229515</v>
       </c>
       <c r="AU4">
-        <v>83218649.52212849</v>
+        <v>81899081.87318718</v>
       </c>
       <c r="AV4">
-        <v>85196076.01634215</v>
+        <v>83830973.5468408</v>
       </c>
       <c r="AW4">
-        <v>86820560.59942406</v>
+        <v>85434695.45510221</v>
       </c>
       <c r="AX4">
-        <v>88446214.30777784</v>
+        <v>87059661.44560763</v>
       </c>
       <c r="AY4">
-        <v>89793495.49924435</v>
+        <v>88428017.20526941</v>
       </c>
       <c r="AZ4">
-        <v>91007123.74577038</v>
+        <v>89702523.50854769</v>
       </c>
       <c r="BA4">
-        <v>92021571.98360364</v>
+        <v>90836203.12700477</v>
       </c>
       <c r="BB4">
-        <v>92839808.40929255</v>
+        <v>91828292.24963832</v>
       </c>
       <c r="BC4">
-        <v>93836000.93366501</v>
+        <v>92975853.88424388</v>
       </c>
       <c r="BD4">
-        <v>95042177.80246966</v>
+        <v>94273498.27378806</v>
       </c>
       <c r="BE4">
-        <v>96279014.4403661</v>
+        <v>95592939.88715731</v>
       </c>
       <c r="BF4">
-        <v>97513866.71920457</v>
+        <v>96910681.99394995</v>
       </c>
       <c r="BG4">
-        <v>98736690.74931668</v>
+        <v>98213625.50448546</v>
       </c>
       <c r="BH4">
-        <v>100109692.8429738</v>
+        <v>99650503.96527857</v>
       </c>
       <c r="BI4">
-        <v>101568090.17536</v>
+        <v>101147256.295838</v>
       </c>
       <c r="BJ4">
-        <v>103099302.0501922</v>
+        <v>102694813.3020168</v>
       </c>
       <c r="BK4">
-        <v>104706702.9673496</v>
+        <v>104295689.3438446</v>
       </c>
       <c r="BL4">
-        <v>106375090.7673157</v>
+        <v>105932842.0701085</v>
       </c>
       <c r="BM4">
-        <v>108202559.3268227</v>
+        <v>107703149.8713007</v>
       </c>
       <c r="BN4">
-        <v>110113320.7622007</v>
+        <v>109531922.2300629</v>
       </c>
       <c r="BO4">
-        <v>112095781.968827</v>
+        <v>111411144.6445835</v>
       </c>
       <c r="BP4">
-        <v>114136483.7775094</v>
+        <v>113331504.6041246</v>
       </c>
       <c r="BQ4">
-        <v>116258697.9692679</v>
+        <v>115326507.4204425</v>
       </c>
       <c r="BR4">
-        <v>118377304.3010204</v>
+        <v>117333201.4921378</v>
       </c>
       <c r="BS4">
-        <v>120387144.3585332</v>
+        <v>119262267.3713539</v>
       </c>
       <c r="BT4">
-        <v>122315399.453665</v>
+        <v>121133275.0720887</v>
       </c>
       <c r="BU4">
-        <v>124209994.1290025</v>
+        <v>122980590.5550539</v>
       </c>
       <c r="BV4">
-        <v>126119950.0332686</v>
+        <v>124847730.993067</v>
       </c>
       <c r="BW4">
-        <v>128059983.885833</v>
+        <v>126750989.6595815</v>
       </c>
       <c r="BX4">
-        <v>129919583.497886</v>
+        <v>128597530.0972581</v>
       </c>
       <c r="BY4">
-        <v>131645505.3869684</v>
+        <v>130349417.448946</v>
       </c>
       <c r="BZ4">
-        <v>133251051.0189671</v>
+        <v>132016159.7734576</v>
       </c>
       <c r="CA4">
-        <v>134815290.7925613</v>
+        <v>133663755.6879233</v>
       </c>
       <c r="CB4">
-        <v>136452915.0984433</v>
+        <v>135379144.4780221</v>
       </c>
       <c r="CC4">
-        <v>138171259.602648</v>
+        <v>137152707.909795</v>
       </c>
       <c r="CD4">
-        <v>139930121.0029913</v>
+        <v>138955673.0841514</v>
       </c>
       <c r="CE4">
-        <v>141677645.411958</v>
+        <v>140750951.1528851</v>
       </c>
       <c r="CF4">
-        <v>143443687.3444943</v>
+        <v>142568816.3593359</v>
       </c>
       <c r="CG4">
-        <v>145281460.5464051</v>
+        <v>144454613.342633</v>
       </c>
       <c r="CH4">
-        <v>147156573.3312695</v>
+        <v>146366909.4095091</v>
       </c>
       <c r="CI4">
-        <v>149075157.6231925</v>
+        <v>148309890.6584759</v>
       </c>
       <c r="CJ4">
-        <v>151042485.2228189</v>
+        <v>150287194.6209147</v>
       </c>
       <c r="CK4">
-        <v>153073240.6490546</v>
+        <v>152310545.9634037</v>
       </c>
       <c r="CL4">
-        <v>155253465.2835811</v>
+        <v>154462639.8791544</v>
       </c>
       <c r="CM4">
-        <v>157505838.3290509</v>
+        <v>156665495.7043991</v>
       </c>
       <c r="CN4">
-        <v>159818305.9900474</v>
+        <v>158910580.1484301</v>
       </c>
       <c r="CO4">
-        <v>162169449.1213651</v>
+        <v>161182735.5325939</v>
       </c>
     </row>
     <row r="5" spans="1:93">
@@ -1509,274 +1510,1675 @@
         <v>5</v>
       </c>
       <c r="D5">
-        <v>1694797.962662427</v>
+        <v>1694797.891812964</v>
       </c>
       <c r="E5">
-        <v>995983.2317938999</v>
+        <v>995983.1008120697</v>
       </c>
       <c r="F5">
-        <v>499198.9177843531</v>
+        <v>499198.6571567085</v>
       </c>
       <c r="G5">
-        <v>306788.0099359711</v>
+        <v>306787.5233016743</v>
       </c>
       <c r="H5">
-        <v>287560.9919724187</v>
+        <v>287560.2535441217</v>
       </c>
       <c r="I5">
-        <v>203999.4201820254</v>
+        <v>203998.1177931496</v>
       </c>
       <c r="J5">
-        <v>166968.216898186</v>
+        <v>166965.9350158124</v>
       </c>
       <c r="K5">
-        <v>215750.7222659774</v>
+        <v>215746.7516235104</v>
       </c>
       <c r="L5">
-        <v>391770.7644087555</v>
+        <v>391764.6921703477</v>
       </c>
       <c r="M5">
-        <v>343382.1414842071</v>
+        <v>343372.4470192878</v>
       </c>
       <c r="N5">
-        <v>433172.8524779181</v>
+        <v>433157.5957724058</v>
       </c>
       <c r="O5">
-        <v>543904.2958851445</v>
+        <v>543884.2090565419</v>
       </c>
       <c r="P5">
-        <v>3545993.588157657</v>
+        <v>3545963.858423309</v>
       </c>
       <c r="Q5">
-        <v>3555383.472330408</v>
+        <v>3555341.636806429</v>
       </c>
       <c r="R5">
-        <v>3567545.999158303</v>
+        <v>3567488.437722059</v>
       </c>
       <c r="S5">
-        <v>11297130.51017304</v>
+        <v>11297052.97872215</v>
       </c>
       <c r="T5">
-        <v>11316267.05221067</v>
+        <v>11316164.72294554</v>
       </c>
       <c r="U5">
-        <v>11339503.3067514</v>
+        <v>11339370.84287605</v>
       </c>
       <c r="V5">
-        <v>11367135.80213029</v>
+        <v>11366967.47176988</v>
       </c>
       <c r="W5">
-        <v>11399326.21400353</v>
+        <v>11399116.07057078</v>
       </c>
       <c r="X5">
-        <v>10928181.8876562</v>
+        <v>10927923.98065362</v>
       </c>
       <c r="Y5">
-        <v>10969350.08616523</v>
+        <v>10969038.66427398</v>
       </c>
       <c r="Z5">
-        <v>11014659.63632394</v>
+        <v>11014289.29947976</v>
       </c>
       <c r="AA5">
-        <v>11063823.05936725</v>
+        <v>11063388.78019271</v>
       </c>
       <c r="AB5">
-        <v>11116715.02152788</v>
+        <v>11116211.93973914</v>
       </c>
       <c r="AC5">
-        <v>2162723.869677591</v>
+        <v>2162146.7046868</v>
       </c>
       <c r="AD5">
-        <v>2224888.648511508</v>
+        <v>2224230.596307232</v>
       </c>
       <c r="AE5">
-        <v>2294746.673190399</v>
+        <v>2293997.69971469</v>
       </c>
       <c r="AF5">
-        <v>2376580.054787522</v>
+        <v>2375724.542138906</v>
       </c>
       <c r="AG5">
-        <v>2476858.738436317</v>
+        <v>2475872.632052452</v>
       </c>
       <c r="AH5">
-        <v>899879.55894817</v>
+        <v>898727.3479837708</v>
       </c>
       <c r="AI5">
-        <v>1065494.14847863</v>
+        <v>1064126.162271628</v>
       </c>
       <c r="AJ5">
-        <v>1281380.228883386</v>
+        <v>1279730.910829698</v>
       </c>
       <c r="AK5">
-        <v>1559792.838293747</v>
+        <v>1557780.649187403</v>
       </c>
       <c r="AL5">
-        <v>1911464.438624777</v>
+        <v>1908993.840792793</v>
       </c>
       <c r="AM5">
-        <v>2343853.056119489</v>
+        <v>2340818.78506586</v>
       </c>
       <c r="AN5">
-        <v>2859469.707613562</v>
+        <v>2855763.209965614</v>
       </c>
       <c r="AO5">
-        <v>3454489.203954077</v>
+        <v>3450006.912356111</v>
       </c>
       <c r="AP5">
-        <v>4117740.613447</v>
+        <v>4112393.541261892</v>
       </c>
       <c r="AQ5">
-        <v>4830175.590257443</v>
+        <v>4823899.573305382</v>
       </c>
       <c r="AR5">
-        <v>5564928.706164801</v>
+        <v>5557694.604565964</v>
       </c>
       <c r="AS5">
-        <v>6288145.931735315</v>
+        <v>6279968.832122994</v>
       </c>
       <c r="AT5">
-        <v>6960944.761177831</v>
+        <v>6951890.4972217</v>
       </c>
       <c r="AU5">
-        <v>7542491.508184228</v>
+        <v>7532679.094037467</v>
       </c>
       <c r="AV5">
-        <v>9143617.97681573</v>
+        <v>9133216.9364243</v>
       </c>
       <c r="AW5">
-        <v>9758351.559082458</v>
+        <v>9747573.279921744</v>
       </c>
       <c r="AX5">
-        <v>9864494.317835579</v>
+        <v>9853577.876390506</v>
       </c>
       <c r="AY5">
-        <v>9779924.494179478</v>
+        <v>9769118.567804387</v>
       </c>
       <c r="AZ5">
-        <v>9512330.257303299</v>
+        <v>9501873.540124755</v>
       </c>
       <c r="BA5">
-        <v>9083516.676713834</v>
+        <v>9073619.458711887</v>
       </c>
       <c r="BB5">
-        <v>8359752.016793435</v>
+        <v>8350581.179496154</v>
       </c>
       <c r="BC5">
-        <v>7716240.361630863</v>
+        <v>7707909.028341</v>
       </c>
       <c r="BD5">
-        <v>7031127.572586472</v>
+        <v>7023689.899551571</v>
       </c>
       <c r="BE5">
-        <v>6350205.891830531</v>
+        <v>6343656.401787556</v>
       </c>
       <c r="BF5">
-        <v>5716912.515470969</v>
+        <v>5711189.108444772</v>
       </c>
       <c r="BG5">
-        <v>5004743.403772608</v>
+        <v>4999734.092938978</v>
       </c>
       <c r="BH5">
-        <v>4573531.59529008</v>
+        <v>4569084.870936481</v>
       </c>
       <c r="BI5">
-        <v>4278418.998606429</v>
+        <v>4274357.370667093</v>
       </c>
       <c r="BJ5">
-        <v>4127609.446704386</v>
+        <v>4123744.733520958</v>
       </c>
       <c r="BK5">
-        <v>4118031.688132816</v>
+        <v>4114179.711292134</v>
       </c>
       <c r="BL5">
-        <v>4113699.921091316</v>
+        <v>4109692.251798896</v>
       </c>
       <c r="BM5">
-        <v>4344715.601165772</v>
+        <v>4340406.906121616</v>
       </c>
       <c r="BN5">
-        <v>4667121.924171465</v>
+        <v>4662393.007753996</v>
       </c>
       <c r="BO5">
-        <v>5060770.282250453</v>
+        <v>5055528.22481896</v>
       </c>
       <c r="BP5">
-        <v>5506253.978748636</v>
+        <v>5500431.170114338</v>
       </c>
       <c r="BQ5">
-        <v>5898367.140435272</v>
+        <v>5891920.49330039</v>
       </c>
       <c r="BR5">
-        <v>6391336.829373289</v>
+        <v>6384247.541084787</v>
       </c>
       <c r="BS5">
-        <v>6880145.586332888</v>
+        <v>6872419.126623323</v>
       </c>
       <c r="BT5">
-        <v>7346344.737731201</v>
+        <v>7338010.619852721</v>
       </c>
       <c r="BU5">
-        <v>7772021.040740507</v>
+        <v>7763132.114843965</v>
       </c>
       <c r="BV5">
-        <v>8056018.322712814</v>
+        <v>8046649.381599724</v>
       </c>
       <c r="BW5">
-        <v>8351934.530208788</v>
+        <v>8342179.997496348</v>
       </c>
       <c r="BX5">
-        <v>8563050.207530815</v>
+        <v>8553020.684677374</v>
       </c>
       <c r="BY5">
-        <v>8680684.820849972</v>
+        <v>8670502.249339372</v>
       </c>
       <c r="BZ5">
-        <v>8700927.565425467</v>
+        <v>8690718.980441904</v>
       </c>
       <c r="CA5">
-        <v>8536985.153429249</v>
+        <v>8526875.317629565</v>
       </c>
       <c r="CB5">
-        <v>8373731.202145626</v>
+        <v>8363834.645322148</v>
       </c>
       <c r="CC5">
-        <v>8136352.923281559</v>
+        <v>8126766.260580125</v>
       </c>
       <c r="CD5">
-        <v>7843561.130855346</v>
+        <v>7834356.597574602</v>
       </c>
       <c r="CE5">
-        <v>7517486.838016719</v>
+        <v>7508707.834931794</v>
       </c>
       <c r="CF5">
-        <v>7081860.324414515</v>
+        <v>7073519.537313228</v>
       </c>
       <c r="CG5">
-        <v>6759269.220649558</v>
+        <v>6751349.442045083</v>
       </c>
       <c r="CH5">
-        <v>6470363.968495603</v>
+        <v>6462821.261454429</v>
       </c>
       <c r="CI5">
-        <v>6231927.808294907</v>
+        <v>6224696.350190038</v>
       </c>
       <c r="CJ5">
-        <v>6056303.23941139</v>
+        <v>6049301.112451752</v>
       </c>
       <c r="CK5">
-        <v>5814685.399390207</v>
+        <v>5807820.723076005</v>
       </c>
       <c r="CL5">
-        <v>5782984.193519528</v>
+        <v>5776161.15938459</v>
       </c>
       <c r="CM5">
-        <v>5823433.250818238</v>
+        <v>5816557.754828789</v>
       </c>
       <c r="CN5">
-        <v>5930894.83501355</v>
+        <v>5923879.477030141</v>
       </c>
       <c r="CO5">
-        <v>6097027.025213783</v>
+        <v>6089795.290701952</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="A2:A5"/>
+    <mergeCell ref="B2:B5"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:CO5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:93">
+      <c r="D1" s="1">
+        <v>2011</v>
+      </c>
+      <c r="E1" s="1">
+        <v>2012</v>
+      </c>
+      <c r="F1" s="1">
+        <v>2013</v>
+      </c>
+      <c r="G1" s="1">
+        <v>2014</v>
+      </c>
+      <c r="H1" s="1">
+        <v>2015</v>
+      </c>
+      <c r="I1" s="1">
+        <v>2016</v>
+      </c>
+      <c r="J1" s="1">
+        <v>2017</v>
+      </c>
+      <c r="K1" s="1">
+        <v>2018</v>
+      </c>
+      <c r="L1" s="1">
+        <v>2019</v>
+      </c>
+      <c r="M1" s="1">
+        <v>2020</v>
+      </c>
+      <c r="N1" s="1">
+        <v>2021</v>
+      </c>
+      <c r="O1" s="1">
+        <v>2022</v>
+      </c>
+      <c r="P1" s="1">
+        <v>2023</v>
+      </c>
+      <c r="Q1" s="1">
+        <v>2024</v>
+      </c>
+      <c r="R1" s="1">
+        <v>2025</v>
+      </c>
+      <c r="S1" s="1">
+        <v>2026</v>
+      </c>
+      <c r="T1" s="1">
+        <v>2027</v>
+      </c>
+      <c r="U1" s="1">
+        <v>2028</v>
+      </c>
+      <c r="V1" s="1">
+        <v>2029</v>
+      </c>
+      <c r="W1" s="1">
+        <v>2030</v>
+      </c>
+      <c r="X1" s="1">
+        <v>2031</v>
+      </c>
+      <c r="Y1" s="1">
+        <v>2032</v>
+      </c>
+      <c r="Z1" s="1">
+        <v>2033</v>
+      </c>
+      <c r="AA1" s="1">
+        <v>2034</v>
+      </c>
+      <c r="AB1" s="1">
+        <v>2035</v>
+      </c>
+      <c r="AC1" s="1">
+        <v>2036</v>
+      </c>
+      <c r="AD1" s="1">
+        <v>2037</v>
+      </c>
+      <c r="AE1" s="1">
+        <v>2038</v>
+      </c>
+      <c r="AF1" s="1">
+        <v>2039</v>
+      </c>
+      <c r="AG1" s="1">
+        <v>2040</v>
+      </c>
+      <c r="AH1" s="1">
+        <v>2041</v>
+      </c>
+      <c r="AI1" s="1">
+        <v>2042</v>
+      </c>
+      <c r="AJ1" s="1">
+        <v>2043</v>
+      </c>
+      <c r="AK1" s="1">
+        <v>2044</v>
+      </c>
+      <c r="AL1" s="1">
+        <v>2045</v>
+      </c>
+      <c r="AM1" s="1">
+        <v>2046</v>
+      </c>
+      <c r="AN1" s="1">
+        <v>2047</v>
+      </c>
+      <c r="AO1" s="1">
+        <v>2048</v>
+      </c>
+      <c r="AP1" s="1">
+        <v>2049</v>
+      </c>
+      <c r="AQ1" s="1">
+        <v>2050</v>
+      </c>
+      <c r="AR1" s="1">
+        <v>2051</v>
+      </c>
+      <c r="AS1" s="1">
+        <v>2052</v>
+      </c>
+      <c r="AT1" s="1">
+        <v>2053</v>
+      </c>
+      <c r="AU1" s="1">
+        <v>2054</v>
+      </c>
+      <c r="AV1" s="1">
+        <v>2055</v>
+      </c>
+      <c r="AW1" s="1">
+        <v>2056</v>
+      </c>
+      <c r="AX1" s="1">
+        <v>2057</v>
+      </c>
+      <c r="AY1" s="1">
+        <v>2058</v>
+      </c>
+      <c r="AZ1" s="1">
+        <v>2059</v>
+      </c>
+      <c r="BA1" s="1">
+        <v>2060</v>
+      </c>
+      <c r="BB1" s="1">
+        <v>2061</v>
+      </c>
+      <c r="BC1" s="1">
+        <v>2062</v>
+      </c>
+      <c r="BD1" s="1">
+        <v>2063</v>
+      </c>
+      <c r="BE1" s="1">
+        <v>2064</v>
+      </c>
+      <c r="BF1" s="1">
+        <v>2065</v>
+      </c>
+      <c r="BG1" s="1">
+        <v>2066</v>
+      </c>
+      <c r="BH1" s="1">
+        <v>2067</v>
+      </c>
+      <c r="BI1" s="1">
+        <v>2068</v>
+      </c>
+      <c r="BJ1" s="1">
+        <v>2069</v>
+      </c>
+      <c r="BK1" s="1">
+        <v>2070</v>
+      </c>
+      <c r="BL1" s="1">
+        <v>2071</v>
+      </c>
+      <c r="BM1" s="1">
+        <v>2072</v>
+      </c>
+      <c r="BN1" s="1">
+        <v>2073</v>
+      </c>
+      <c r="BO1" s="1">
+        <v>2074</v>
+      </c>
+      <c r="BP1" s="1">
+        <v>2075</v>
+      </c>
+      <c r="BQ1" s="1">
+        <v>2076</v>
+      </c>
+      <c r="BR1" s="1">
+        <v>2077</v>
+      </c>
+      <c r="BS1" s="1">
+        <v>2078</v>
+      </c>
+      <c r="BT1" s="1">
+        <v>2079</v>
+      </c>
+      <c r="BU1" s="1">
+        <v>2080</v>
+      </c>
+      <c r="BV1" s="1">
+        <v>2081</v>
+      </c>
+      <c r="BW1" s="1">
+        <v>2082</v>
+      </c>
+      <c r="BX1" s="1">
+        <v>2083</v>
+      </c>
+      <c r="BY1" s="1">
+        <v>2084</v>
+      </c>
+      <c r="BZ1" s="1">
+        <v>2085</v>
+      </c>
+      <c r="CA1" s="1">
+        <v>2086</v>
+      </c>
+      <c r="CB1" s="1">
+        <v>2087</v>
+      </c>
+      <c r="CC1" s="1">
+        <v>2088</v>
+      </c>
+      <c r="CD1" s="1">
+        <v>2089</v>
+      </c>
+      <c r="CE1" s="1">
+        <v>2090</v>
+      </c>
+      <c r="CF1" s="1">
+        <v>2091</v>
+      </c>
+      <c r="CG1" s="1">
+        <v>2092</v>
+      </c>
+      <c r="CH1" s="1">
+        <v>2093</v>
+      </c>
+      <c r="CI1" s="1">
+        <v>2094</v>
+      </c>
+      <c r="CJ1" s="1">
+        <v>2095</v>
+      </c>
+      <c r="CK1" s="1">
+        <v>2096</v>
+      </c>
+      <c r="CL1" s="1">
+        <v>2097</v>
+      </c>
+      <c r="CM1" s="1">
+        <v>2098</v>
+      </c>
+      <c r="CN1" s="1">
+        <v>2099</v>
+      </c>
+      <c r="CO1" s="1">
+        <v>2100</v>
+      </c>
+    </row>
+    <row r="2" spans="1:93">
+      <c r="A2" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D2">
+        <v>262.0274379424926</v>
+      </c>
+      <c r="E2">
+        <v>564.6433745157517</v>
+      </c>
+      <c r="F2">
+        <v>1064.87552694432</v>
+      </c>
+      <c r="G2">
+        <v>1435.48393505994</v>
+      </c>
+      <c r="H2">
+        <v>2384.483940532652</v>
+      </c>
+      <c r="I2">
+        <v>2929.765285521555</v>
+      </c>
+      <c r="J2">
+        <v>3538.257528997431</v>
+      </c>
+      <c r="K2">
+        <v>4238.144213543071</v>
+      </c>
+      <c r="L2">
+        <v>4795.971440850181</v>
+      </c>
+      <c r="M2">
+        <v>5480.372549942761</v>
+      </c>
+      <c r="N2">
+        <v>5827.235338890871</v>
+      </c>
+      <c r="O2">
+        <v>6211.855549429916</v>
+      </c>
+      <c r="P2">
+        <v>6983.561228843831</v>
+      </c>
+      <c r="Q2">
+        <v>7762.123594284241</v>
+      </c>
+      <c r="R2">
+        <v>8550.59161353677</v>
+      </c>
+      <c r="S2">
+        <v>10536.31773367572</v>
+      </c>
+      <c r="T2">
+        <v>12541.44205251295</v>
+      </c>
+      <c r="U2">
+        <v>14555.03604646767</v>
+      </c>
+      <c r="V2">
+        <v>16561.58972754185</v>
+      </c>
+      <c r="W2">
+        <v>18566.64935119644</v>
+      </c>
+      <c r="X2">
+        <v>20412.48248212957</v>
+      </c>
+      <c r="Y2">
+        <v>22275.34416711333</v>
+      </c>
+      <c r="Z2">
+        <v>24156.89994250866</v>
+      </c>
+      <c r="AA2">
+        <v>26062.53763110149</v>
+      </c>
+      <c r="AB2">
+        <v>27988.50372376725</v>
+      </c>
+      <c r="AC2">
+        <v>28585.53141914356</v>
+      </c>
+      <c r="AD2">
+        <v>29231.26867268872</v>
+      </c>
+      <c r="AE2">
+        <v>29968.41400373347</v>
+      </c>
+      <c r="AF2">
+        <v>30812.3804140386</v>
+      </c>
+      <c r="AG2">
+        <v>31771.00744756207</v>
+      </c>
+      <c r="AH2">
+        <v>32568.88194910002</v>
+      </c>
+      <c r="AI2">
+        <v>33315.64276601681</v>
+      </c>
+      <c r="AJ2">
+        <v>34058.52278195097</v>
+      </c>
+      <c r="AK2">
+        <v>34781.45287804071</v>
+      </c>
+      <c r="AL2">
+        <v>35471.88134441311</v>
+      </c>
+      <c r="AM2">
+        <v>36131.44436793624</v>
+      </c>
+      <c r="AN2">
+        <v>36838.5861063577</v>
+      </c>
+      <c r="AO2">
+        <v>37723.31555936843</v>
+      </c>
+      <c r="AP2">
+        <v>38816.8834035346</v>
+      </c>
+      <c r="AQ2">
+        <v>40185.6750297277</v>
+      </c>
+      <c r="AR2">
+        <v>41958.18980219871</v>
+      </c>
+      <c r="AS2">
+        <v>44016.22948307073</v>
+      </c>
+      <c r="AT2">
+        <v>46119.83066782968</v>
+      </c>
+      <c r="AU2">
+        <v>48214.88495724446</v>
+      </c>
+      <c r="AV2">
+        <v>50290.1977176799</v>
+      </c>
+      <c r="AW2">
+        <v>52320.28623599566</v>
+      </c>
+      <c r="AX2">
+        <v>54529.04586710228</v>
+      </c>
+      <c r="AY2">
+        <v>56707.01840421947</v>
+      </c>
+      <c r="AZ2">
+        <v>58783.52965907582</v>
+      </c>
+      <c r="BA2">
+        <v>60604.6867848687</v>
+      </c>
+      <c r="BB2">
+        <v>61994.93204675294</v>
+      </c>
+      <c r="BC2">
+        <v>63130.32144714105</v>
+      </c>
+      <c r="BD2">
+        <v>64290.92599423409</v>
+      </c>
+      <c r="BE2">
+        <v>65516.48651952625</v>
+      </c>
+      <c r="BF2">
+        <v>66768.42737222058</v>
+      </c>
+      <c r="BG2">
+        <v>67958.38871224216</v>
+      </c>
+      <c r="BH2">
+        <v>69092.06482602815</v>
+      </c>
+      <c r="BI2">
+        <v>70197.09160514285</v>
+      </c>
+      <c r="BJ2">
+        <v>71285.20693759726</v>
+      </c>
+      <c r="BK2">
+        <v>72363.84574742275</v>
+      </c>
+      <c r="BL2">
+        <v>73443.30380310336</v>
+      </c>
+      <c r="BM2">
+        <v>74606.25714889077</v>
+      </c>
+      <c r="BN2">
+        <v>75932.99936470043</v>
+      </c>
+      <c r="BO2">
+        <v>77488.81705524221</v>
+      </c>
+      <c r="BP2">
+        <v>79316.6434349607</v>
+      </c>
+      <c r="BQ2">
+        <v>81413.29583691477</v>
+      </c>
+      <c r="BR2">
+        <v>83726.16102944568</v>
+      </c>
+      <c r="BS2">
+        <v>86134.83684517903</v>
+      </c>
+      <c r="BT2">
+        <v>88557.29294161501</v>
+      </c>
+      <c r="BU2">
+        <v>90974.27823398818</v>
+      </c>
+      <c r="BV2">
+        <v>93384.98626708482</v>
+      </c>
+      <c r="BW2">
+        <v>95817.09907973815</v>
+      </c>
+      <c r="BX2">
+        <v>98219.33997975322</v>
+      </c>
+      <c r="BY2">
+        <v>100483.3761576782</v>
+      </c>
+      <c r="BZ2">
+        <v>102520.3737422361</v>
+      </c>
+      <c r="CA2">
+        <v>104283.0513023334</v>
+      </c>
+      <c r="CB2">
+        <v>105862.2698999106</v>
+      </c>
+      <c r="CC2">
+        <v>107393.6170343523</v>
+      </c>
+      <c r="CD2">
+        <v>108947.7853319362</v>
+      </c>
+      <c r="CE2">
+        <v>110512.0500574344</v>
+      </c>
+      <c r="CF2">
+        <v>112036.0826869488</v>
+      </c>
+      <c r="CG2">
+        <v>113521.9597784905</v>
+      </c>
+      <c r="CH2">
+        <v>114981.5020525591</v>
+      </c>
+      <c r="CI2">
+        <v>116431.8006337382</v>
+      </c>
+      <c r="CJ2">
+        <v>117892.9072198994</v>
+      </c>
+      <c r="CK2">
+        <v>119377.9959469829</v>
+      </c>
+      <c r="CL2">
+        <v>120965.4287157495</v>
+      </c>
+      <c r="CM2">
+        <v>122720.6777546355</v>
+      </c>
+      <c r="CN2">
+        <v>124694.3841707335</v>
+      </c>
+      <c r="CO2">
+        <v>126908.9878595669</v>
+      </c>
+    </row>
+    <row r="3" spans="1:93">
+      <c r="A3" s="1"/>
+      <c r="B3" s="1"/>
+      <c r="C3" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D3">
+        <v>16.49064919837422</v>
+      </c>
+      <c r="E3">
+        <v>35.64995078749983</v>
+      </c>
+      <c r="F3">
+        <v>67.96291023567508</v>
+      </c>
+      <c r="G3">
+        <v>91.57076958304258</v>
+      </c>
+      <c r="H3">
+        <v>154.1246473089697</v>
+      </c>
+      <c r="I3">
+        <v>189.5516603575321</v>
+      </c>
+      <c r="J3">
+        <v>229.1116487816705</v>
+      </c>
+      <c r="K3">
+        <v>274.6568463762956</v>
+      </c>
+      <c r="L3">
+        <v>310.7057397897358</v>
+      </c>
+      <c r="M3">
+        <v>355.1827063205581</v>
+      </c>
+      <c r="N3">
+        <v>376.8405755496688</v>
+      </c>
+      <c r="O3">
+        <v>401.1778528584668</v>
+      </c>
+      <c r="P3">
+        <v>451.4279115784821</v>
+      </c>
+      <c r="Q3">
+        <v>502.1029608913736</v>
+      </c>
+      <c r="R3">
+        <v>553.4093530967928</v>
+      </c>
+      <c r="S3">
+        <v>685.0622677938107</v>
+      </c>
+      <c r="T3">
+        <v>817.9797190722823</v>
+      </c>
+      <c r="U3">
+        <v>951.4217824204893</v>
+      </c>
+      <c r="V3">
+        <v>1084.33802145871</v>
+      </c>
+      <c r="W3">
+        <v>1217.103948923453</v>
+      </c>
+      <c r="X3">
+        <v>1339.138142337836</v>
+      </c>
+      <c r="Y3">
+        <v>1462.278143139586</v>
+      </c>
+      <c r="Z3">
+        <v>1586.63673060017</v>
+      </c>
+      <c r="AA3">
+        <v>1712.578722698639</v>
+      </c>
+      <c r="AB3">
+        <v>1839.849930892386</v>
+      </c>
+      <c r="AC3">
+        <v>1877.855785206837</v>
+      </c>
+      <c r="AD3">
+        <v>1919.11173955805</v>
+      </c>
+      <c r="AE3">
+        <v>1966.509485762613</v>
+      </c>
+      <c r="AF3">
+        <v>2021.092749491831</v>
+      </c>
+      <c r="AG3">
+        <v>2083.3922972414</v>
+      </c>
+      <c r="AH3">
+        <v>2134.864248925086</v>
+      </c>
+      <c r="AI3">
+        <v>2182.823640898113</v>
+      </c>
+      <c r="AJ3">
+        <v>2230.468960224356</v>
+      </c>
+      <c r="AK3">
+        <v>2276.711367540738</v>
+      </c>
+      <c r="AL3">
+        <v>2320.700081944875</v>
+      </c>
+      <c r="AM3">
+        <v>2362.54461209831</v>
+      </c>
+      <c r="AN3">
+        <v>2407.556462594559</v>
+      </c>
+      <c r="AO3">
+        <v>2464.539388282239</v>
+      </c>
+      <c r="AP3">
+        <v>2535.609086444689</v>
+      </c>
+      <c r="AQ3">
+        <v>2625.260469277598</v>
+      </c>
+      <c r="AR3">
+        <v>2742.193077944807</v>
+      </c>
+      <c r="AS3">
+        <v>2878.403076054823</v>
+      </c>
+      <c r="AT3">
+        <v>3017.641411443</v>
+      </c>
+      <c r="AU3">
+        <v>3156.244726954932</v>
+      </c>
+      <c r="AV3">
+        <v>3293.447509061736</v>
+      </c>
+      <c r="AW3">
+        <v>3427.526609920631</v>
+      </c>
+      <c r="AX3">
+        <v>3573.526502554031</v>
+      </c>
+      <c r="AY3">
+        <v>3717.385540701112</v>
+      </c>
+      <c r="AZ3">
+        <v>3854.319285441153</v>
+      </c>
+      <c r="BA3">
+        <v>3973.907883748245</v>
+      </c>
+      <c r="BB3">
+        <v>4064.274400778916</v>
+      </c>
+      <c r="BC3">
+        <v>4137.326160911727</v>
+      </c>
+      <c r="BD3">
+        <v>4212.029063809671</v>
+      </c>
+      <c r="BE3">
+        <v>4291.074244105649</v>
+      </c>
+      <c r="BF3">
+        <v>4371.849006233882</v>
+      </c>
+      <c r="BG3">
+        <v>4448.379855771159</v>
+      </c>
+      <c r="BH3">
+        <v>4521.036088132334</v>
+      </c>
+      <c r="BI3">
+        <v>4591.688011143046</v>
+      </c>
+      <c r="BJ3">
+        <v>4661.129336561891</v>
+      </c>
+      <c r="BK3">
+        <v>4729.862329531309</v>
+      </c>
+      <c r="BL3">
+        <v>4798.591044785448</v>
+      </c>
+      <c r="BM3">
+        <v>4872.901904128907</v>
+      </c>
+      <c r="BN3">
+        <v>4958.231659558335</v>
+      </c>
+      <c r="BO3">
+        <v>5059.000894985348</v>
+      </c>
+      <c r="BP3">
+        <v>5178.116502947303</v>
+      </c>
+      <c r="BQ3">
+        <v>5315.365358962513</v>
+      </c>
+      <c r="BR3">
+        <v>5467.176646123286</v>
+      </c>
+      <c r="BS3">
+        <v>5625.397216579535</v>
+      </c>
+      <c r="BT3">
+        <v>5784.472451346155</v>
+      </c>
+      <c r="BU3">
+        <v>5943.099047780183</v>
+      </c>
+      <c r="BV3">
+        <v>6101.225971317932</v>
+      </c>
+      <c r="BW3">
+        <v>6260.720563514676</v>
+      </c>
+      <c r="BX3">
+        <v>6418.111207596115</v>
+      </c>
+      <c r="BY3">
+        <v>6566.062717284602</v>
+      </c>
+      <c r="BZ3">
+        <v>6698.56035623792</v>
+      </c>
+      <c r="CA3">
+        <v>6812.406514678994</v>
+      </c>
+      <c r="CB3">
+        <v>6913.746598770284</v>
+      </c>
+      <c r="CC3">
+        <v>7011.762746252762</v>
+      </c>
+      <c r="CD3">
+        <v>7111.242412770959</v>
+      </c>
+      <c r="CE3">
+        <v>7211.324036747483</v>
+      </c>
+      <c r="CF3">
+        <v>7308.603124222058</v>
+      </c>
+      <c r="CG3">
+        <v>7403.210793685272</v>
+      </c>
+      <c r="CH3">
+        <v>7495.947105122499</v>
+      </c>
+      <c r="CI3">
+        <v>7587.968940014018</v>
+      </c>
+      <c r="CJ3">
+        <v>7680.63359025073</v>
+      </c>
+      <c r="CK3">
+        <v>7774.840072774199</v>
+      </c>
+      <c r="CL3">
+        <v>7875.881762403493</v>
+      </c>
+      <c r="CM3">
+        <v>7988.191806806321</v>
+      </c>
+      <c r="CN3">
+        <v>8115.199051030469</v>
+      </c>
+      <c r="CO3">
+        <v>8258.422649337343</v>
+      </c>
+    </row>
+    <row r="4" spans="1:93">
+      <c r="A4" s="1"/>
+      <c r="B4" s="1"/>
+      <c r="C4" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D4">
+        <v>26474387.15107802</v>
+      </c>
+      <c r="E4">
+        <v>53251620.38058935</v>
+      </c>
+      <c r="F4">
+        <v>82627838.27938208</v>
+      </c>
+      <c r="G4">
+        <v>112095494.7226948</v>
+      </c>
+      <c r="H4">
+        <v>138928244.5435729</v>
+      </c>
+      <c r="I4">
+        <v>165247626.2197077</v>
+      </c>
+      <c r="J4">
+        <v>194275229.5026029</v>
+      </c>
+      <c r="K4">
+        <v>227123097.4189658</v>
+      </c>
+      <c r="L4">
+        <v>259748235.4222996</v>
+      </c>
+      <c r="M4">
+        <v>294453320.2633814</v>
+      </c>
+      <c r="N4">
+        <v>332010845.8894651</v>
+      </c>
+      <c r="O4">
+        <v>366851394.3349931</v>
+      </c>
+      <c r="P4">
+        <v>405536939.8205202</v>
+      </c>
+      <c r="Q4">
+        <v>445536908.4581345</v>
+      </c>
+      <c r="R4">
+        <v>486860251.6160917</v>
+      </c>
+      <c r="S4">
+        <v>534090745.9863924</v>
+      </c>
+      <c r="T4">
+        <v>582781695.741348</v>
+      </c>
+      <c r="U4">
+        <v>632917419.035589</v>
+      </c>
+      <c r="V4">
+        <v>684497867.7653753</v>
+      </c>
+      <c r="W4">
+        <v>737529497.7410361</v>
+      </c>
+      <c r="X4">
+        <v>791534948.315825</v>
+      </c>
+      <c r="Y4">
+        <v>846899187.6179038</v>
+      </c>
+      <c r="Z4">
+        <v>903622605.5583208</v>
+      </c>
+      <c r="AA4">
+        <v>961709420.9402285</v>
+      </c>
+      <c r="AB4">
+        <v>1021157400.875316</v>
+      </c>
+      <c r="AC4">
+        <v>1076812662.335328</v>
+      </c>
+      <c r="AD4">
+        <v>1133837105.083624</v>
+      </c>
+      <c r="AE4">
+        <v>1192234873.295268</v>
+      </c>
+      <c r="AF4">
+        <v>1252011866.198277</v>
+      </c>
+      <c r="AG4">
+        <v>1313175382.95775</v>
+      </c>
+      <c r="AH4">
+        <v>1374835748.199715</v>
+      </c>
+      <c r="AI4">
+        <v>1437902766.626691</v>
+      </c>
+      <c r="AJ4">
+        <v>1502390805.246915</v>
+      </c>
+      <c r="AK4">
+        <v>1568322669.75506</v>
+      </c>
+      <c r="AL4">
+        <v>1635729551.987276</v>
+      </c>
+      <c r="AM4">
+        <v>1704624663.564103</v>
+      </c>
+      <c r="AN4">
+        <v>1775068011.343069</v>
+      </c>
+      <c r="AO4">
+        <v>1847120852.208073</v>
+      </c>
+      <c r="AP4">
+        <v>1920819724.25521</v>
+      </c>
+      <c r="AQ4">
+        <v>1996226273.646917</v>
+      </c>
+      <c r="AR4">
+        <v>2073412445.000258</v>
+      </c>
+      <c r="AS4">
+        <v>2152298991.131119</v>
+      </c>
+      <c r="AT4">
+        <v>2232720714.713414</v>
+      </c>
+      <c r="AU4">
+        <v>2314619796.586601</v>
+      </c>
+      <c r="AV4">
+        <v>2398450770.133441</v>
+      </c>
+      <c r="AW4">
+        <v>2483885465.588544</v>
+      </c>
+      <c r="AX4">
+        <v>2570945127.034152</v>
+      </c>
+      <c r="AY4">
+        <v>2659373144.239421</v>
+      </c>
+      <c r="AZ4">
+        <v>2749075667.747969</v>
+      </c>
+      <c r="BA4">
+        <v>2839911870.874973</v>
+      </c>
+      <c r="BB4">
+        <v>2931740163.124612</v>
+      </c>
+      <c r="BC4">
+        <v>3024716017.008856</v>
+      </c>
+      <c r="BD4">
+        <v>3118989515.282644</v>
+      </c>
+      <c r="BE4">
+        <v>3214582455.169801</v>
+      </c>
+      <c r="BF4">
+        <v>3311493137.163751</v>
+      </c>
+      <c r="BG4">
+        <v>3409706762.668237</v>
+      </c>
+      <c r="BH4">
+        <v>3509357266.633515</v>
+      </c>
+      <c r="BI4">
+        <v>3610504522.929353</v>
+      </c>
+      <c r="BJ4">
+        <v>3713199336.23137</v>
+      </c>
+      <c r="BK4">
+        <v>3817495025.575214</v>
+      </c>
+      <c r="BL4">
+        <v>3923427867.645323</v>
+      </c>
+      <c r="BM4">
+        <v>4031131017.516623</v>
+      </c>
+      <c r="BN4">
+        <v>4140662939.746686</v>
+      </c>
+      <c r="BO4">
+        <v>4252074084.39127</v>
+      </c>
+      <c r="BP4">
+        <v>4365405588.995395</v>
+      </c>
+      <c r="BQ4">
+        <v>4480732096.415837</v>
+      </c>
+      <c r="BR4">
+        <v>4598065297.907975</v>
+      </c>
+      <c r="BS4">
+        <v>4717327565.279329</v>
+      </c>
+      <c r="BT4">
+        <v>4838460840.351418</v>
+      </c>
+      <c r="BU4">
+        <v>4961441430.906471</v>
+      </c>
+      <c r="BV4">
+        <v>5086289161.899538</v>
+      </c>
+      <c r="BW4">
+        <v>5213040151.559119</v>
+      </c>
+      <c r="BX4">
+        <v>5341637681.656378</v>
+      </c>
+      <c r="BY4">
+        <v>5471987099.105324</v>
+      </c>
+      <c r="BZ4">
+        <v>5604003258.878781</v>
+      </c>
+      <c r="CA4">
+        <v>5737667014.566705</v>
+      </c>
+      <c r="CB4">
+        <v>5873046159.044727</v>
+      </c>
+      <c r="CC4">
+        <v>6010198866.954522</v>
+      </c>
+      <c r="CD4">
+        <v>6149154540.038673</v>
+      </c>
+      <c r="CE4">
+        <v>6289905491.191559</v>
+      </c>
+      <c r="CF4">
+        <v>6432474307.550895</v>
+      </c>
+      <c r="CG4">
+        <v>6576928920.893528</v>
+      </c>
+      <c r="CH4">
+        <v>6723295830.303037</v>
+      </c>
+      <c r="CI4">
+        <v>6871605720.961513</v>
+      </c>
+      <c r="CJ4">
+        <v>7021892915.582427</v>
+      </c>
+      <c r="CK4">
+        <v>7174203461.545831</v>
+      </c>
+      <c r="CL4">
+        <v>7328666101.424985</v>
+      </c>
+      <c r="CM4">
+        <v>7485331597.129384</v>
+      </c>
+      <c r="CN4">
+        <v>7644242177.277814</v>
+      </c>
+      <c r="CO4">
+        <v>7805424912.810408</v>
+      </c>
+    </row>
+    <row r="5" spans="1:93">
+      <c r="A5" s="1"/>
+      <c r="B5" s="1"/>
+      <c r="C5" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D5">
+        <v>1694797.891812964</v>
+      </c>
+      <c r="E5">
+        <v>2690780.992625034</v>
+      </c>
+      <c r="F5">
+        <v>3189979.649781743</v>
+      </c>
+      <c r="G5">
+        <v>3496767.173083417</v>
+      </c>
+      <c r="H5">
+        <v>3784327.426627539</v>
+      </c>
+      <c r="I5">
+        <v>3988325.544420689</v>
+      </c>
+      <c r="J5">
+        <v>4155291.479436501</v>
+      </c>
+      <c r="K5">
+        <v>4371038.231060011</v>
+      </c>
+      <c r="L5">
+        <v>4762802.923230359</v>
+      </c>
+      <c r="M5">
+        <v>5106175.370249647</v>
+      </c>
+      <c r="N5">
+        <v>5539332.966022053</v>
+      </c>
+      <c r="O5">
+        <v>6083217.175078595</v>
+      </c>
+      <c r="P5">
+        <v>9629181.033501904</v>
+      </c>
+      <c r="Q5">
+        <v>13184522.67030833</v>
+      </c>
+      <c r="R5">
+        <v>16752011.10803039</v>
+      </c>
+      <c r="S5">
+        <v>28049064.08675254</v>
+      </c>
+      <c r="T5">
+        <v>39365228.80969808</v>
+      </c>
+      <c r="U5">
+        <v>50704599.65257414</v>
+      </c>
+      <c r="V5">
+        <v>62071567.12434402</v>
+      </c>
+      <c r="W5">
+        <v>73470683.1949148</v>
+      </c>
+      <c r="X5">
+        <v>84398607.17556842</v>
+      </c>
+      <c r="Y5">
+        <v>95367645.83984239</v>
+      </c>
+      <c r="Z5">
+        <v>106381935.1393222</v>
+      </c>
+      <c r="AA5">
+        <v>117445323.9195149</v>
+      </c>
+      <c r="AB5">
+        <v>128561535.859254</v>
+      </c>
+      <c r="AC5">
+        <v>130723682.5639408</v>
+      </c>
+      <c r="AD5">
+        <v>132947913.160248</v>
+      </c>
+      <c r="AE5">
+        <v>135241910.8599627</v>
+      </c>
+      <c r="AF5">
+        <v>137617635.4021016</v>
+      </c>
+      <c r="AG5">
+        <v>140093508.0341541</v>
+      </c>
+      <c r="AH5">
+        <v>140992235.3821379</v>
+      </c>
+      <c r="AI5">
+        <v>142056361.5444095</v>
+      </c>
+      <c r="AJ5">
+        <v>143336092.4552392</v>
+      </c>
+      <c r="AK5">
+        <v>144893873.1044266</v>
+      </c>
+      <c r="AL5">
+        <v>146802866.9452194</v>
+      </c>
+      <c r="AM5">
+        <v>149143685.7302853</v>
+      </c>
+      <c r="AN5">
+        <v>151999448.9402509</v>
+      </c>
+      <c r="AO5">
+        <v>155449455.852607</v>
+      </c>
+      <c r="AP5">
+        <v>159561849.3938689</v>
+      </c>
+      <c r="AQ5">
+        <v>164385748.9671742</v>
+      </c>
+      <c r="AR5">
+        <v>169943443.5717402</v>
+      </c>
+      <c r="AS5">
+        <v>176223412.4038632</v>
+      </c>
+      <c r="AT5">
+        <v>183175302.9010849</v>
+      </c>
+      <c r="AU5">
+        <v>190707981.9951224</v>
+      </c>
+      <c r="AV5">
+        <v>199841198.9315467</v>
+      </c>
+      <c r="AW5">
+        <v>209588772.2114684</v>
+      </c>
+      <c r="AX5">
+        <v>219442350.0878589</v>
+      </c>
+      <c r="AY5">
+        <v>229211468.6556633</v>
+      </c>
+      <c r="AZ5">
+        <v>238713342.1957881</v>
+      </c>
+      <c r="BA5">
+        <v>247786961.6545</v>
+      </c>
+      <c r="BB5">
+        <v>256137542.8339961</v>
+      </c>
+      <c r="BC5">
+        <v>263845451.8623371</v>
+      </c>
+      <c r="BD5">
+        <v>270869141.7618887</v>
+      </c>
+      <c r="BE5">
+        <v>277212798.1636763</v>
+      </c>
+      <c r="BF5">
+        <v>282923987.272121</v>
+      </c>
+      <c r="BG5">
+        <v>287923721.36506</v>
+      </c>
+      <c r="BH5">
+        <v>292492806.2359964</v>
+      </c>
+      <c r="BI5">
+        <v>296767163.6066635</v>
+      </c>
+      <c r="BJ5">
+        <v>300890908.3401845</v>
+      </c>
+      <c r="BK5">
+        <v>305005088.0514767</v>
+      </c>
+      <c r="BL5">
+        <v>309114780.3032755</v>
+      </c>
+      <c r="BM5">
+        <v>313455187.2093971</v>
+      </c>
+      <c r="BN5">
+        <v>318117580.2171511</v>
+      </c>
+      <c r="BO5">
+        <v>323173108.4419701</v>
+      </c>
+      <c r="BP5">
+        <v>328673539.6120844</v>
+      </c>
+      <c r="BQ5">
+        <v>334565460.1053848</v>
+      </c>
+      <c r="BR5">
+        <v>340949707.6464695</v>
+      </c>
+      <c r="BS5">
+        <v>347822126.7730929</v>
+      </c>
+      <c r="BT5">
+        <v>355160137.3929456</v>
+      </c>
+      <c r="BU5">
+        <v>362923269.5077896</v>
+      </c>
+      <c r="BV5">
+        <v>370969918.8893893</v>
+      </c>
+      <c r="BW5">
+        <v>379312098.8868856</v>
+      </c>
+      <c r="BX5">
+        <v>387865119.571563</v>
+      </c>
+      <c r="BY5">
+        <v>396535621.8209023</v>
+      </c>
+      <c r="BZ5">
+        <v>405226340.8013443</v>
+      </c>
+      <c r="CA5">
+        <v>413753216.1189739</v>
+      </c>
+      <c r="CB5">
+        <v>422117050.764296</v>
+      </c>
+      <c r="CC5">
+        <v>430243817.0248761</v>
+      </c>
+      <c r="CD5">
+        <v>438078173.6224507</v>
+      </c>
+      <c r="CE5">
+        <v>445586881.4573825</v>
+      </c>
+      <c r="CF5">
+        <v>452660400.9946957</v>
+      </c>
+      <c r="CG5">
+        <v>459411750.4367408</v>
+      </c>
+      <c r="CH5">
+        <v>465874571.6981952</v>
+      </c>
+      <c r="CI5">
+        <v>472099268.0483853</v>
+      </c>
+      <c r="CJ5">
+        <v>478148569.160837</v>
+      </c>
+      <c r="CK5">
+        <v>483956389.883913</v>
+      </c>
+      <c r="CL5">
+        <v>489732551.0432976</v>
+      </c>
+      <c r="CM5">
+        <v>495549108.7981264</v>
+      </c>
+      <c r="CN5">
+        <v>501472988.2751566</v>
+      </c>
+      <c r="CO5">
+        <v>507562783.5658585</v>
       </c>
     </row>
   </sheetData>

--- a/Results/Baseline/Lifetime/Results_world_base_life_Max.xlsx
+++ b/Results/Baseline/Lifetime/Results_world_base_life_Max.xlsx
@@ -29,7 +29,7 @@
     <t>Dysprosium</t>
   </si>
   <si>
-    <t>Copper ores and concentrates</t>
+    <t>Copper</t>
   </si>
   <si>
     <t>Raw silicon</t>
@@ -679,274 +679,274 @@
         <v>2</v>
       </c>
       <c r="D2">
-        <v>262.0274379424926</v>
+        <v>1072.34614200176</v>
       </c>
       <c r="E2">
-        <v>302.6159365732591</v>
+        <v>1397.685254309566</v>
       </c>
       <c r="F2">
-        <v>500.2321524285682</v>
+        <v>1396.951958427594</v>
       </c>
       <c r="G2">
-        <v>370.6084081156198</v>
+        <v>1327.455286693842</v>
       </c>
       <c r="H2">
-        <v>949.0000054727121</v>
+        <v>1780.404541681532</v>
       </c>
       <c r="I2">
-        <v>545.2813449889029</v>
+        <v>1284.389711986763</v>
       </c>
       <c r="J2">
-        <v>608.4922434758764</v>
+        <v>2323.989100953482</v>
       </c>
       <c r="K2">
-        <v>699.8866845456396</v>
+        <v>2310.243148226151</v>
       </c>
       <c r="L2">
-        <v>557.8272273071105</v>
+        <v>2055.438324352376</v>
       </c>
       <c r="M2">
-        <v>684.4011090925799</v>
+        <v>1894.032549968986</v>
       </c>
       <c r="N2">
-        <v>346.8627889481101</v>
+        <v>4051.463492310125</v>
       </c>
       <c r="O2">
-        <v>384.6202105390444</v>
+        <v>2455.800972009134</v>
       </c>
       <c r="P2">
-        <v>771.7056794139156</v>
+        <v>4919.771154177249</v>
       </c>
       <c r="Q2">
-        <v>778.5623654404098</v>
+        <v>5296.573220262241</v>
       </c>
       <c r="R2">
-        <v>788.468019252529</v>
+        <v>5677.360071701432</v>
       </c>
       <c r="S2">
-        <v>1985.726120138952</v>
+        <v>12465.68951641684</v>
       </c>
       <c r="T2">
-        <v>2005.124318837226</v>
+        <v>13374.81086337048</v>
       </c>
       <c r="U2">
-        <v>2013.59399395472</v>
+        <v>14277.7163768043</v>
       </c>
       <c r="V2">
-        <v>2006.553681074182</v>
+        <v>15163.84289274288</v>
       </c>
       <c r="W2">
-        <v>2005.059623654594</v>
+        <v>16053.06116066</v>
       </c>
       <c r="X2">
-        <v>1845.833130933129</v>
+        <v>16089.80179164389</v>
       </c>
       <c r="Y2">
-        <v>1862.861684983761</v>
+        <v>16926.17246028508</v>
       </c>
       <c r="Z2">
-        <v>1881.555775395324</v>
+        <v>17784.78533968687</v>
       </c>
       <c r="AA2">
-        <v>1905.637688592828</v>
+        <v>18670.29483506624</v>
       </c>
       <c r="AB2">
-        <v>1925.966092665765</v>
+        <v>19566.18020860785</v>
       </c>
       <c r="AC2">
-        <v>597.0276953763135</v>
+        <v>8998.295952942437</v>
       </c>
       <c r="AD2">
-        <v>645.7372535451541</v>
+        <v>9258.132686001751</v>
       </c>
       <c r="AE2">
-        <v>737.1453310447546</v>
+        <v>9503.457343821743</v>
       </c>
       <c r="AF2">
-        <v>843.9664103051248</v>
+        <v>9744.186401024912</v>
       </c>
       <c r="AG2">
-        <v>958.6270335234781</v>
+        <v>10063.46770775881</v>
       </c>
       <c r="AH2">
-        <v>797.8745015379509</v>
+        <v>6345.99526964442</v>
       </c>
       <c r="AI2">
-        <v>746.7608169167876</v>
+        <v>6476.063363376126</v>
       </c>
       <c r="AJ2">
-        <v>742.88001593416</v>
+        <v>6582.364053147158</v>
       </c>
       <c r="AK2">
-        <v>722.9300960897311</v>
+        <v>6613.780985896195</v>
       </c>
       <c r="AL2">
-        <v>690.4284663724055</v>
+        <v>6861.475182634366</v>
       </c>
       <c r="AM2">
-        <v>659.5630235231357</v>
+        <v>9195.104537421506</v>
       </c>
       <c r="AN2">
-        <v>707.1417384214523</v>
+        <v>9843.210145294424</v>
       </c>
       <c r="AO2">
-        <v>884.7294530107338</v>
+        <v>10688.29226280494</v>
       </c>
       <c r="AP2">
-        <v>1093.567844166172</v>
+        <v>11997.21034103819</v>
       </c>
       <c r="AQ2">
-        <v>1368.791626193098</v>
+        <v>13735.57809019433</v>
       </c>
       <c r="AR2">
-        <v>1772.51477247101</v>
+        <v>19485.41832425741</v>
       </c>
       <c r="AS2">
-        <v>2058.039680872019</v>
+        <v>21699.35303349722</v>
       </c>
       <c r="AT2">
-        <v>2103.601184758958</v>
+        <v>22946.60969016316</v>
       </c>
       <c r="AU2">
-        <v>2095.054289414777</v>
+        <v>23955.63455988832</v>
       </c>
       <c r="AV2">
-        <v>2075.312760435444</v>
+        <v>24808.4369963948</v>
       </c>
       <c r="AW2">
-        <v>2030.088518315758</v>
+        <v>26225.46740933179</v>
       </c>
       <c r="AX2">
-        <v>2208.759631106619</v>
+        <v>26897.28256713082</v>
       </c>
       <c r="AY2">
-        <v>2177.972537117187</v>
+        <v>27485.37319191378</v>
       </c>
       <c r="AZ2">
-        <v>2076.511254856354</v>
+        <v>27447.22792734291</v>
       </c>
       <c r="BA2">
-        <v>1821.157125792871</v>
+        <v>26083.03770245015</v>
       </c>
       <c r="BB2">
-        <v>1390.24526188424</v>
+        <v>22388.86582634751</v>
       </c>
       <c r="BC2">
-        <v>1135.389400388113</v>
+        <v>20352.96991733381</v>
       </c>
       <c r="BD2">
-        <v>1160.604547093035</v>
+        <v>20147.48583745672</v>
       </c>
       <c r="BE2">
-        <v>1225.560525292166</v>
+        <v>20039.2463554786</v>
       </c>
       <c r="BF2">
-        <v>1251.940852694335</v>
+        <v>19496.61431374968</v>
       </c>
       <c r="BG2">
-        <v>1189.961340021577</v>
+        <v>17838.6207919119</v>
       </c>
       <c r="BH2">
-        <v>1133.676113785982</v>
+        <v>17159.97899389863</v>
       </c>
       <c r="BI2">
-        <v>1105.026779114707</v>
+        <v>17247.48292204331</v>
       </c>
       <c r="BJ2">
-        <v>1088.11533245441</v>
+        <v>17616.37844571431</v>
       </c>
       <c r="BK2">
-        <v>1078.638809825485</v>
+        <v>18340.06056737953</v>
       </c>
       <c r="BL2">
-        <v>1079.458055680615</v>
+        <v>19127.21252160658</v>
       </c>
       <c r="BM2">
-        <v>1162.953345787412</v>
+        <v>20357.04090970596</v>
       </c>
       <c r="BN2">
-        <v>1326.742215809666</v>
+        <v>21598.44054976345</v>
       </c>
       <c r="BO2">
-        <v>1555.817690541774</v>
+        <v>23333.07636500345</v>
       </c>
       <c r="BP2">
-        <v>1827.826379718494</v>
+        <v>25812.08839672809</v>
       </c>
       <c r="BQ2">
-        <v>2096.652401954067</v>
+        <v>28694.75379988316</v>
       </c>
       <c r="BR2">
-        <v>2312.865192530914</v>
+        <v>31326.82313060462</v>
       </c>
       <c r="BS2">
-        <v>2408.675815733349</v>
+        <v>32926.6216720626</v>
       </c>
       <c r="BT2">
-        <v>2422.45609643599</v>
+        <v>34103.14701390586</v>
       </c>
       <c r="BU2">
-        <v>2416.985292373171</v>
+        <v>35176.06782469112</v>
       </c>
       <c r="BV2">
-        <v>2410.708033096643</v>
+        <v>35954.12375776895</v>
       </c>
       <c r="BW2">
-        <v>2432.112812653326</v>
+        <v>36697.26556076229</v>
       </c>
       <c r="BX2">
-        <v>2402.240900015071</v>
+        <v>36950.67588560786</v>
       </c>
       <c r="BY2">
-        <v>2264.036177924944</v>
+        <v>36513.10013517812</v>
       </c>
       <c r="BZ2">
-        <v>2036.997584557893</v>
+        <v>35177.54651700276</v>
       </c>
       <c r="CA2">
-        <v>1762.677560097338</v>
+        <v>33028.30290193242</v>
       </c>
       <c r="CB2">
-        <v>1579.218597577226</v>
+        <v>31428.16050440893</v>
       </c>
       <c r="CC2">
-        <v>1531.347134441686</v>
+        <v>30723.26722114374</v>
       </c>
       <c r="CD2">
-        <v>1554.168297583873</v>
+        <v>30382.73529692132</v>
       </c>
       <c r="CE2">
-        <v>1564.264725498243</v>
+        <v>29848.61269538124</v>
       </c>
       <c r="CF2">
-        <v>1524.032629514331</v>
+        <v>28861.66150330531</v>
       </c>
       <c r="CG2">
-        <v>1485.877091541773</v>
+        <v>28380.17950886413</v>
       </c>
       <c r="CH2">
-        <v>1459.542274068592</v>
+        <v>28449.7273560152</v>
       </c>
       <c r="CI2">
-        <v>1450.298581179072</v>
+        <v>28925.26437596315</v>
       </c>
       <c r="CJ2">
-        <v>1461.106586161183</v>
+        <v>29673.3362790171</v>
       </c>
       <c r="CK2">
-        <v>1485.088727083514</v>
+        <v>30253.79904328472</v>
       </c>
       <c r="CL2">
-        <v>1587.43276876658</v>
+        <v>31479.16568765522</v>
       </c>
       <c r="CM2">
-        <v>1755.24903888606</v>
+        <v>32996.68711702753</v>
       </c>
       <c r="CN2">
-        <v>1973.706416097938</v>
+        <v>34882.51756879491</v>
       </c>
       <c r="CO2">
-        <v>2214.60368883348</v>
+        <v>37170.63068216971</v>
       </c>
     </row>
     <row r="3" spans="1:93">
@@ -956,274 +956,274 @@
         <v>3</v>
       </c>
       <c r="D3">
-        <v>16.49064919837422</v>
+        <v>70.90938680416959</v>
       </c>
       <c r="E3">
-        <v>19.15930158912561</v>
+        <v>92.70199149801209</v>
       </c>
       <c r="F3">
-        <v>32.31295944817526</v>
+        <v>92.53448024201987</v>
       </c>
       <c r="G3">
-        <v>23.60785934736749</v>
+        <v>87.86573958004239</v>
       </c>
       <c r="H3">
-        <v>62.55387772592716</v>
+        <v>118.3854490968392</v>
       </c>
       <c r="I3">
-        <v>35.42701304856236</v>
+        <v>85.05947279762727</v>
       </c>
       <c r="J3">
-        <v>39.55998842413841</v>
+        <v>154.7703236052446</v>
       </c>
       <c r="K3">
-        <v>45.54519759462508</v>
+        <v>153.6948769020162</v>
       </c>
       <c r="L3">
-        <v>36.0488934134403</v>
+        <v>136.6265926968005</v>
       </c>
       <c r="M3">
-        <v>44.4769665308222</v>
+        <v>125.7086422749633</v>
       </c>
       <c r="N3">
-        <v>21.65786922911069</v>
+        <v>270.5208534961397</v>
       </c>
       <c r="O3">
-        <v>24.33727730879803</v>
+        <v>163.4873294326827</v>
       </c>
       <c r="P3">
-        <v>50.25005872001523</v>
+        <v>328.8523186222743</v>
       </c>
       <c r="Q3">
-        <v>50.67504931289155</v>
+        <v>354.1252670552013</v>
       </c>
       <c r="R3">
-        <v>51.30639220541914</v>
+        <v>379.6674776417628</v>
       </c>
       <c r="S3">
-        <v>131.652914697018</v>
+        <v>835.4173564758443</v>
       </c>
       <c r="T3">
-        <v>132.9174512784715</v>
+        <v>896.4368108349709</v>
       </c>
       <c r="U3">
-        <v>133.4420633482071</v>
+        <v>957.0361844250509</v>
       </c>
       <c r="V3">
-        <v>132.9162390382204</v>
+        <v>1016.5088400283</v>
       </c>
       <c r="W3">
-        <v>132.7659274647432</v>
+        <v>1076.190785283038</v>
       </c>
       <c r="X3">
-        <v>122.0341934143827</v>
+        <v>1078.617271961058</v>
       </c>
       <c r="Y3">
-        <v>123.1400008017506</v>
+        <v>1134.756226540325</v>
       </c>
       <c r="Z3">
-        <v>124.3585874605833</v>
+        <v>1192.391935997618</v>
       </c>
       <c r="AA3">
-        <v>125.9419920984695</v>
+        <v>1251.833321134824</v>
       </c>
       <c r="AB3">
-        <v>127.2712081937467</v>
+        <v>1311.967955689188</v>
       </c>
       <c r="AC3">
-        <v>38.00585431445134</v>
+        <v>602.3149694070001</v>
       </c>
       <c r="AD3">
-        <v>41.25595435121271</v>
+        <v>619.755583128842</v>
       </c>
       <c r="AE3">
-        <v>47.39774620456369</v>
+        <v>636.2386093851218</v>
       </c>
       <c r="AF3">
-        <v>54.58326372921748</v>
+        <v>652.4300800265928</v>
       </c>
       <c r="AG3">
-        <v>62.29954774956956</v>
+        <v>673.9048874753471</v>
       </c>
       <c r="AH3">
-        <v>51.47195168368621</v>
+        <v>424.2809671222625</v>
       </c>
       <c r="AI3">
-        <v>47.95939197302695</v>
+        <v>433.016386295669</v>
       </c>
       <c r="AJ3">
-        <v>47.64531932624278</v>
+        <v>440.1358614781333</v>
       </c>
       <c r="AK3">
-        <v>46.24240731638142</v>
+        <v>442.2188791960351</v>
       </c>
       <c r="AL3">
-        <v>43.9887144041378</v>
+        <v>458.9001423221137</v>
       </c>
       <c r="AM3">
-        <v>41.8445301534347</v>
+        <v>615.7985381554349</v>
       </c>
       <c r="AN3">
-        <v>45.01185049624898</v>
+        <v>659.744914515028</v>
       </c>
       <c r="AO3">
-        <v>56.98292568767978</v>
+        <v>717.2167382223327</v>
       </c>
       <c r="AP3">
-        <v>71.06969816245029</v>
+        <v>805.8798429402144</v>
       </c>
       <c r="AQ3">
-        <v>89.65138283290912</v>
+        <v>923.4888703410762</v>
       </c>
       <c r="AR3">
-        <v>116.932608667209</v>
+        <v>1310.919668673436</v>
       </c>
       <c r="AS3">
-        <v>136.2099981100164</v>
+        <v>1460.53254735836</v>
       </c>
       <c r="AT3">
-        <v>139.2383353881769</v>
+        <v>1544.26958214933</v>
       </c>
       <c r="AU3">
-        <v>138.6033155119321</v>
+        <v>1611.922022177344</v>
       </c>
       <c r="AV3">
-        <v>137.2027821068037</v>
+        <v>1669.205051230404</v>
       </c>
       <c r="AW3">
-        <v>134.0791008588958</v>
+        <v>1764.347708339024</v>
       </c>
       <c r="AX3">
-        <v>145.9998926333993</v>
+        <v>1809.516820326545</v>
       </c>
       <c r="AY3">
-        <v>143.8590381470811</v>
+        <v>1849.179271152214</v>
       </c>
       <c r="AZ3">
-        <v>136.9337447400409</v>
+        <v>1846.546966245473</v>
       </c>
       <c r="BA3">
-        <v>119.5885983070919</v>
+        <v>1754.098937328899</v>
       </c>
       <c r="BB3">
-        <v>90.36651703067095</v>
+        <v>1504.258920908922</v>
       </c>
       <c r="BC3">
-        <v>73.05176013281175</v>
+        <v>1366.218714931677</v>
       </c>
       <c r="BD3">
-        <v>74.70290289794451</v>
+        <v>1352.322671381835</v>
       </c>
       <c r="BE3">
-        <v>79.0451802959782</v>
+        <v>1345.09395277579</v>
       </c>
       <c r="BF3">
-        <v>80.77476212823363</v>
+        <v>1308.498478571182</v>
       </c>
       <c r="BG3">
-        <v>76.53084953727691</v>
+        <v>1196.763607881019</v>
       </c>
       <c r="BH3">
-        <v>72.65623236117474</v>
+        <v>1151.046122279788</v>
       </c>
       <c r="BI3">
-        <v>70.65192301071221</v>
+        <v>1157.249226462882</v>
       </c>
       <c r="BJ3">
-        <v>69.4413254188446</v>
+        <v>1182.334601303547</v>
       </c>
       <c r="BK3">
-        <v>68.73299296941774</v>
+        <v>1231.604210342973</v>
       </c>
       <c r="BL3">
-        <v>68.72871525413814</v>
+        <v>1285.789335673889</v>
       </c>
       <c r="BM3">
-        <v>74.31085934345896</v>
+        <v>1370.354856543409</v>
       </c>
       <c r="BN3">
-        <v>85.3297554294282</v>
+        <v>1456.135342934719</v>
       </c>
       <c r="BO3">
-        <v>100.7692354270126</v>
+        <v>1575.314912456707</v>
       </c>
       <c r="BP3">
-        <v>119.1156079619554</v>
+        <v>1744.765459000656</v>
       </c>
       <c r="BQ3">
-        <v>137.2488560152092</v>
+        <v>1941.537932311708</v>
       </c>
       <c r="BR3">
-        <v>151.8112871607735</v>
+        <v>2120.298874332696</v>
       </c>
       <c r="BS3">
-        <v>158.2205704562485</v>
+        <v>2227.740957437609</v>
       </c>
       <c r="BT3">
-        <v>159.0752347666202</v>
+        <v>2305.528308925397</v>
       </c>
       <c r="BU3">
-        <v>158.6265964340283</v>
+        <v>2375.838496456232</v>
       </c>
       <c r="BV3">
-        <v>158.1269235377486</v>
+        <v>2426.336301971005</v>
       </c>
       <c r="BW3">
-        <v>159.4945921967439</v>
+        <v>2474.668197150198</v>
       </c>
       <c r="BX3">
-        <v>157.3906440814401</v>
+        <v>2490.121560379821</v>
       </c>
       <c r="BY3">
-        <v>147.9515096884858</v>
+        <v>2458.936419104675</v>
       </c>
       <c r="BZ3">
-        <v>132.4976389533182</v>
+        <v>2367.138298508169</v>
       </c>
       <c r="CA3">
-        <v>113.8461584410741</v>
+        <v>2220.664671056119</v>
       </c>
       <c r="CB3">
-        <v>101.3400840912899</v>
+        <v>2111.646954170456</v>
       </c>
       <c r="CC3">
-        <v>98.01614748247732</v>
+        <v>2063.621751741044</v>
       </c>
       <c r="CD3">
-        <v>99.47966651819769</v>
+        <v>2040.522359564514</v>
       </c>
       <c r="CE3">
-        <v>100.0816239765231</v>
+        <v>2004.434062906073</v>
       </c>
       <c r="CF3">
-        <v>97.27908747457523</v>
+        <v>1937.883333759397</v>
       </c>
       <c r="CG3">
-        <v>94.60766946321377</v>
+        <v>1905.414685273449</v>
       </c>
       <c r="CH3">
-        <v>92.73631143722767</v>
+        <v>1910.229775106864</v>
       </c>
       <c r="CI3">
-        <v>92.02183489151831</v>
+        <v>1942.594782706592</v>
       </c>
       <c r="CJ3">
-        <v>92.66465023671168</v>
+        <v>1993.624058686413</v>
       </c>
       <c r="CK3">
-        <v>94.20648252346948</v>
+        <v>2033.968684496839</v>
       </c>
       <c r="CL3">
-        <v>101.0416896292934</v>
+        <v>2118.485411960369</v>
       </c>
       <c r="CM3">
-        <v>112.3100444028284</v>
+        <v>2223.479692478661</v>
       </c>
       <c r="CN3">
-        <v>127.0072442241485</v>
+        <v>2353.574084998528</v>
       </c>
       <c r="CO3">
-        <v>143.2235983068729</v>
+        <v>2510.730794130117</v>
       </c>
     </row>
     <row r="4" spans="1:93">
@@ -1233,274 +1233,274 @@
         <v>4</v>
       </c>
       <c r="D4">
-        <v>26474387.15107802</v>
+        <v>1624041.439607251</v>
       </c>
       <c r="E4">
-        <v>26777233.22951134</v>
+        <v>1458766.412434268</v>
       </c>
       <c r="F4">
-        <v>29376217.89879272</v>
+        <v>1273405.692558419</v>
       </c>
       <c r="G4">
-        <v>29467656.44331267</v>
+        <v>1477019.951013277</v>
       </c>
       <c r="H4">
-        <v>26832749.82087819</v>
+        <v>1623019.39376216</v>
       </c>
       <c r="I4">
-        <v>26319381.67613481</v>
+        <v>1542300.070070284</v>
       </c>
       <c r="J4">
-        <v>29027603.2828952</v>
+        <v>1676455.311383146</v>
       </c>
       <c r="K4">
-        <v>32847867.91636285</v>
+        <v>1536955.151923621</v>
       </c>
       <c r="L4">
-        <v>32625138.00333385</v>
+        <v>1525630.425851982</v>
       </c>
       <c r="M4">
-        <v>34705084.84108179</v>
+        <v>2033476.625803667</v>
       </c>
       <c r="N4">
-        <v>37557525.62608365</v>
+        <v>1924310.356061745</v>
       </c>
       <c r="O4">
-        <v>34840548.44552797</v>
+        <v>1897390.052219481</v>
       </c>
       <c r="P4">
-        <v>38685545.48552711</v>
+        <v>9893378.189642701</v>
       </c>
       <c r="Q4">
-        <v>39999968.63761436</v>
+        <v>9922764.989760837</v>
       </c>
       <c r="R4">
-        <v>41323343.15795719</v>
+        <v>9962397.709801776</v>
       </c>
       <c r="S4">
-        <v>47230494.37030071</v>
+        <v>31236905.46291023</v>
       </c>
       <c r="T4">
-        <v>48690949.7549556</v>
+        <v>31304505.28179023</v>
       </c>
       <c r="U4">
-        <v>50135723.29424098</v>
+        <v>31360827.46774747</v>
       </c>
       <c r="V4">
-        <v>51580448.72978631</v>
+        <v>31422667.20646907</v>
       </c>
       <c r="W4">
-        <v>53031629.97566075</v>
+        <v>31495166.69915248</v>
       </c>
       <c r="X4">
-        <v>54005450.57478896</v>
+        <v>32422564.26143566</v>
       </c>
       <c r="Y4">
-        <v>55364239.30207881</v>
+        <v>32510789.94067883</v>
       </c>
       <c r="Z4">
-        <v>56723417.94041699</v>
+        <v>32610660.48017152</v>
       </c>
       <c r="AA4">
-        <v>58086815.38190775</v>
+        <v>32721940.03314049</v>
       </c>
       <c r="AB4">
-        <v>59447979.93508761</v>
+        <v>32832545.97942087</v>
       </c>
       <c r="AC4">
-        <v>55655261.46001162</v>
+        <v>8863960.002202947</v>
       </c>
       <c r="AD4">
-        <v>57024442.74829627</v>
+        <v>8964024.93499507</v>
       </c>
       <c r="AE4">
-        <v>58397768.21164439</v>
+        <v>9072350.281586809</v>
       </c>
       <c r="AF4">
-        <v>59776992.90300852</v>
+        <v>9223264.610402776</v>
       </c>
       <c r="AG4">
-        <v>61163516.75947285</v>
+        <v>9419009.912967468</v>
       </c>
       <c r="AH4">
-        <v>61660365.24196582</v>
+        <v>2597011.428135785</v>
       </c>
       <c r="AI4">
-        <v>63067018.42697515</v>
+        <v>2588733.997504369</v>
       </c>
       <c r="AJ4">
-        <v>64488038.62022423</v>
+        <v>2551444.154394192</v>
       </c>
       <c r="AK4">
-        <v>65931864.50814554</v>
+        <v>2761159.697602691</v>
       </c>
       <c r="AL4">
-        <v>67406882.23221584</v>
+        <v>3126098.521997117</v>
       </c>
       <c r="AM4">
-        <v>68895111.57682642</v>
+        <v>6763425.550828609</v>
       </c>
       <c r="AN4">
-        <v>70443347.77896637</v>
+        <v>7542016.320190702</v>
       </c>
       <c r="AO4">
-        <v>72052840.86500397</v>
+        <v>8591331.071588177</v>
       </c>
       <c r="AP4">
-        <v>73698872.04713675</v>
+        <v>9790409.530849416</v>
       </c>
       <c r="AQ4">
-        <v>75406549.3917073</v>
+        <v>11156478.50422436</v>
       </c>
       <c r="AR4">
-        <v>77186171.35334058</v>
+        <v>17822398.1358487</v>
       </c>
       <c r="AS4">
-        <v>78886546.13086101</v>
+        <v>19244263.81858499</v>
       </c>
       <c r="AT4">
-        <v>80421723.58229515</v>
+        <v>20161428.72771603</v>
       </c>
       <c r="AU4">
-        <v>81899081.87318718</v>
+        <v>20894115.21184459</v>
       </c>
       <c r="AV4">
-        <v>83830973.5468408</v>
+        <v>21453323.69909067</v>
       </c>
       <c r="AW4">
-        <v>85434695.45510221</v>
+        <v>23136637.6640173</v>
       </c>
       <c r="AX4">
-        <v>87059661.44560763</v>
+        <v>23293494.81973628</v>
       </c>
       <c r="AY4">
-        <v>88428017.20526941</v>
+        <v>23239268.32369175</v>
       </c>
       <c r="AZ4">
-        <v>89702523.50854769</v>
+        <v>22815833.2064839</v>
       </c>
       <c r="BA4">
-        <v>90836203.12700477</v>
+        <v>21854753.91689412</v>
       </c>
       <c r="BB4">
-        <v>91828292.24963832</v>
+        <v>19439419.03519684</v>
       </c>
       <c r="BC4">
-        <v>92975853.88424388</v>
+        <v>18133502.24389212</v>
       </c>
       <c r="BD4">
-        <v>94273498.27378806</v>
+        <v>17323877.95918376</v>
       </c>
       <c r="BE4">
-        <v>95592939.88715731</v>
+        <v>16562110.63370145</v>
       </c>
       <c r="BF4">
-        <v>96910681.99394995</v>
+        <v>15764678.42771831</v>
       </c>
       <c r="BG4">
-        <v>98213625.50448546</v>
+        <v>14553889.16221519</v>
       </c>
       <c r="BH4">
-        <v>99650503.96527857</v>
+        <v>14025588.20277411</v>
       </c>
       <c r="BI4">
-        <v>101147256.295838</v>
+        <v>13721956.90019798</v>
       </c>
       <c r="BJ4">
-        <v>102694813.3020168</v>
+        <v>13619557.95901698</v>
       </c>
       <c r="BK4">
-        <v>104295689.3438446</v>
+        <v>13731352.72049022</v>
       </c>
       <c r="BL4">
-        <v>105932842.0701085</v>
+        <v>13967922.97572828</v>
       </c>
       <c r="BM4">
-        <v>107703149.8713007</v>
+        <v>14626551.20374459</v>
       </c>
       <c r="BN4">
-        <v>109531922.2300629</v>
+        <v>15525175.44898785</v>
       </c>
       <c r="BO4">
-        <v>111411144.6445835</v>
+        <v>16668136.12028878</v>
       </c>
       <c r="BP4">
-        <v>113331504.6041246</v>
+        <v>18044581.51940213</v>
       </c>
       <c r="BQ4">
-        <v>115326507.4204425</v>
+        <v>19546119.11941858</v>
       </c>
       <c r="BR4">
-        <v>117333201.4921378</v>
+        <v>20885190.76596707</v>
       </c>
       <c r="BS4">
-        <v>119262267.3713539</v>
+        <v>21842319.80325198</v>
       </c>
       <c r="BT4">
-        <v>121133275.0720887</v>
+        <v>22574722.84188821</v>
       </c>
       <c r="BU4">
-        <v>122980590.5550539</v>
+        <v>23188721.83601094</v>
       </c>
       <c r="BV4">
-        <v>124847730.993067</v>
+        <v>23549194.20766446</v>
       </c>
       <c r="BW4">
-        <v>126750989.6595815</v>
+        <v>23893621.8472082</v>
       </c>
       <c r="BX4">
-        <v>128597530.0972581</v>
+        <v>24015872.47271862</v>
       </c>
       <c r="BY4">
-        <v>130349417.448946</v>
+        <v>23849859.49853133</v>
       </c>
       <c r="BZ4">
-        <v>132016159.7734576</v>
+        <v>23349888.35083399</v>
       </c>
       <c r="CA4">
-        <v>133663755.6879233</v>
+        <v>22399688.02285041</v>
       </c>
       <c r="CB4">
-        <v>135379144.4780221</v>
+        <v>21751570.16274977</v>
       </c>
       <c r="CC4">
-        <v>137152707.909795</v>
+        <v>21435535.47480934</v>
       </c>
       <c r="CD4">
-        <v>138955673.0841514</v>
+        <v>21094036.84386013</v>
       </c>
       <c r="CE4">
-        <v>140750951.1528851</v>
+        <v>20696152.23164376</v>
       </c>
       <c r="CF4">
-        <v>142568816.3593359</v>
+        <v>19909164.3822103</v>
       </c>
       <c r="CG4">
-        <v>144454613.342633</v>
+        <v>19529313.27669631</v>
       </c>
       <c r="CH4">
-        <v>146366909.4095091</v>
+        <v>19266245.37442394</v>
       </c>
       <c r="CI4">
-        <v>148309890.6584759</v>
+        <v>19122392.91450506</v>
       </c>
       <c r="CJ4">
-        <v>150287194.6209147</v>
+        <v>19094933.36777126</v>
       </c>
       <c r="CK4">
-        <v>152310545.9634037</v>
+        <v>18620493.38879933</v>
       </c>
       <c r="CL4">
-        <v>154462639.8791544</v>
+        <v>18866810.4299306</v>
       </c>
       <c r="CM4">
-        <v>156665495.7043991</v>
+        <v>19417025.11366671</v>
       </c>
       <c r="CN4">
-        <v>158910580.1484301</v>
+        <v>20204333.09945566</v>
       </c>
       <c r="CO4">
-        <v>161182735.5325939</v>
+        <v>21142801.02986485</v>
       </c>
     </row>
     <row r="5" spans="1:93">
@@ -1510,274 +1510,274 @@
         <v>5</v>
       </c>
       <c r="D5">
-        <v>1694797.891812964</v>
+        <v>2149532.838667813</v>
       </c>
       <c r="E5">
-        <v>995983.1008120697</v>
+        <v>1439334.420566904</v>
       </c>
       <c r="F5">
-        <v>499198.6571567085</v>
+        <v>1345193.150608144</v>
       </c>
       <c r="G5">
-        <v>306787.5233016743</v>
+        <v>1296163.750486817</v>
       </c>
       <c r="H5">
-        <v>287560.2535441217</v>
+        <v>1243334.252899239</v>
       </c>
       <c r="I5">
-        <v>203998.1177931496</v>
+        <v>1552931.094250015</v>
       </c>
       <c r="J5">
-        <v>166965.9350158124</v>
+        <v>1707359.189295775</v>
       </c>
       <c r="K5">
-        <v>215746.7516235104</v>
+        <v>1482879.837384103</v>
       </c>
       <c r="L5">
-        <v>391764.6921703477</v>
+        <v>1369014.57824604</v>
       </c>
       <c r="M5">
-        <v>343372.4470192878</v>
+        <v>1528379.671378293</v>
       </c>
       <c r="N5">
-        <v>433157.5957724058</v>
+        <v>1600850.013738668</v>
       </c>
       <c r="O5">
-        <v>543884.2090565419</v>
+        <v>2085965.510764814</v>
       </c>
       <c r="P5">
-        <v>3545963.858423309</v>
+        <v>16271076.1281482</v>
       </c>
       <c r="Q5">
-        <v>3555341.636806429</v>
+        <v>16284728.322859</v>
       </c>
       <c r="R5">
-        <v>3567488.437722059</v>
+        <v>16302729.73685572</v>
       </c>
       <c r="S5">
-        <v>11297052.97872215</v>
+        <v>54128092.00405867</v>
       </c>
       <c r="T5">
-        <v>11316164.72294554</v>
+        <v>54157873.25404422</v>
       </c>
       <c r="U5">
-        <v>11339370.84287605</v>
+        <v>54195273.35674228</v>
       </c>
       <c r="V5">
-        <v>11366967.47176988</v>
+        <v>54241700.96520635</v>
       </c>
       <c r="W5">
-        <v>11399116.07057078</v>
+        <v>54298865.72819311</v>
       </c>
       <c r="X5">
-        <v>10927923.98065362</v>
+        <v>57166731.88792384</v>
       </c>
       <c r="Y5">
-        <v>10969038.66427398</v>
+        <v>57252695.79967796</v>
       </c>
       <c r="Z5">
-        <v>11014289.29947976</v>
+        <v>57358507.91488566</v>
       </c>
       <c r="AA5">
-        <v>11063388.78019271</v>
+        <v>57489652.27887004</v>
       </c>
       <c r="AB5">
-        <v>11116211.93973914</v>
+        <v>57653645.76019484</v>
       </c>
       <c r="AC5">
-        <v>2162146.7046868</v>
+        <v>16143022.93109911</v>
       </c>
       <c r="AD5">
-        <v>2224230.596307232</v>
+        <v>16406950.6753278</v>
       </c>
       <c r="AE5">
-        <v>2293997.69971469</v>
+        <v>16745890.41105182</v>
       </c>
       <c r="AF5">
-        <v>2375724.542138906</v>
+        <v>17183301.06508024</v>
       </c>
       <c r="AG5">
-        <v>2475872.632052452</v>
+        <v>17748547.45804429</v>
       </c>
       <c r="AH5">
-        <v>898727.3479837708</v>
+        <v>5803218.88617176</v>
       </c>
       <c r="AI5">
-        <v>1064126.162271628</v>
+        <v>6188692.173394446</v>
       </c>
       <c r="AJ5">
-        <v>1279730.910829698</v>
+        <v>6699840.266203165</v>
       </c>
       <c r="AK5">
-        <v>1557780.649187403</v>
+        <v>7973581.232967332</v>
       </c>
       <c r="AL5">
-        <v>1908993.840792793</v>
+        <v>9570020.803111428</v>
       </c>
       <c r="AM5">
-        <v>2340818.78506586</v>
+        <v>17524959.11099282</v>
       </c>
       <c r="AN5">
-        <v>2855763.209965614</v>
+        <v>20081700.91634925</v>
       </c>
       <c r="AO5">
-        <v>3450006.912356111</v>
+        <v>23010887.31217915</v>
       </c>
       <c r="AP5">
-        <v>4112393.541261892</v>
+        <v>26272798.56575978</v>
       </c>
       <c r="AQ5">
-        <v>4823899.573305382</v>
+        <v>29791266.98211916</v>
       </c>
       <c r="AR5">
-        <v>5557694.604565964</v>
+        <v>41654221.64845102</v>
       </c>
       <c r="AS5">
-        <v>6279968.832122994</v>
+        <v>45303215.98533519</v>
       </c>
       <c r="AT5">
-        <v>6951890.4972217</v>
+        <v>48760306.88660434</v>
       </c>
       <c r="AU5">
-        <v>7532679.094037467</v>
+        <v>51830038.43752577</v>
       </c>
       <c r="AV5">
-        <v>9133216.9364243</v>
+        <v>54322111.15952088</v>
       </c>
       <c r="AW5">
-        <v>9747573.279921744</v>
+        <v>58472692.3716246</v>
       </c>
       <c r="AX5">
-        <v>9853577.876390506</v>
+        <v>59368859.30156515</v>
       </c>
       <c r="AY5">
-        <v>9769118.567804387</v>
+        <v>59358364.28209923</v>
       </c>
       <c r="AZ5">
-        <v>9501873.540124755</v>
+        <v>58460126.90346227</v>
       </c>
       <c r="BA5">
-        <v>9073619.458711887</v>
+        <v>56760636.78319851</v>
       </c>
       <c r="BB5">
-        <v>8350581.179496154</v>
+        <v>53006671.89718781</v>
       </c>
       <c r="BC5">
-        <v>7707909.028341</v>
+        <v>50177550.46085942</v>
       </c>
       <c r="BD5">
-        <v>7023689.899551571</v>
+        <v>47088220.96273904</v>
       </c>
       <c r="BE5">
-        <v>6343656.401787556</v>
+        <v>43961704.47041123</v>
       </c>
       <c r="BF5">
-        <v>5711189.108444772</v>
+        <v>41018467.83159539</v>
       </c>
       <c r="BG5">
-        <v>4999734.092938978</v>
+        <v>37691067.86096866</v>
       </c>
       <c r="BH5">
-        <v>4569084.870936481</v>
+        <v>35693044.84293727</v>
       </c>
       <c r="BI5">
-        <v>4274357.370667093</v>
+        <v>34378530.36895725</v>
       </c>
       <c r="BJ5">
-        <v>4123744.733520958</v>
+        <v>33817111.60488763</v>
       </c>
       <c r="BK5">
-        <v>4114179.711292134</v>
+        <v>34021624.56241867</v>
       </c>
       <c r="BL5">
-        <v>4109692.251798896</v>
+        <v>34850116.43247607</v>
       </c>
       <c r="BM5">
-        <v>4340406.906121616</v>
+        <v>36439939.66931158</v>
       </c>
       <c r="BN5">
-        <v>4662393.007753996</v>
+        <v>38588371.48847587</v>
       </c>
       <c r="BO5">
-        <v>5055528.22481896</v>
+        <v>41183441.18766326</v>
       </c>
       <c r="BP5">
-        <v>5500431.170114338</v>
+        <v>44103578.79956143</v>
       </c>
       <c r="BQ5">
-        <v>5891920.49330039</v>
+        <v>47244646.82128804</v>
       </c>
       <c r="BR5">
-        <v>6384247.541084787</v>
+        <v>50426603.23195247</v>
       </c>
       <c r="BS5">
-        <v>6872419.126623323</v>
+        <v>53543483.78486807</v>
       </c>
       <c r="BT5">
-        <v>7338010.619852721</v>
+        <v>56472692.77985345</v>
       </c>
       <c r="BU5">
-        <v>7763132.114843965</v>
+        <v>59104600.97539151</v>
       </c>
       <c r="BV5">
-        <v>8046649.381599724</v>
+        <v>61127394.08994211</v>
       </c>
       <c r="BW5">
-        <v>8342179.997496348</v>
+        <v>62908939.54431103</v>
       </c>
       <c r="BX5">
-        <v>8553020.684677374</v>
+        <v>64182541.38405156</v>
       </c>
       <c r="BY5">
-        <v>8670502.249339372</v>
+        <v>64927994.46345957</v>
       </c>
       <c r="BZ5">
-        <v>8690718.980441904</v>
+        <v>65153574.1336014</v>
       </c>
       <c r="CA5">
-        <v>8526875.317629565</v>
+        <v>64504832.92539544</v>
       </c>
       <c r="CB5">
-        <v>8363834.645322148</v>
+        <v>63825771.31465252</v>
       </c>
       <c r="CC5">
-        <v>8126766.260580125</v>
+        <v>62809046.18047366</v>
       </c>
       <c r="CD5">
-        <v>7834356.597574602</v>
+        <v>61554194.76183689</v>
       </c>
       <c r="CE5">
-        <v>7508707.834931794</v>
+        <v>60170702.94803713</v>
       </c>
       <c r="CF5">
-        <v>7073519.537313228</v>
+        <v>58100990.36435437</v>
       </c>
       <c r="CG5">
-        <v>6751349.442045083</v>
+        <v>56795506.81256229</v>
       </c>
       <c r="CH5">
-        <v>6462821.261454429</v>
+        <v>55683164.20569238</v>
       </c>
       <c r="CI5">
-        <v>6224696.350190038</v>
+        <v>54847502.75536454</v>
       </c>
       <c r="CJ5">
-        <v>6049301.112451752</v>
+        <v>54351834.87297692</v>
       </c>
       <c r="CK5">
-        <v>5807820.723076005</v>
+        <v>53184335.14772037</v>
       </c>
       <c r="CL5">
-        <v>5776161.15938459</v>
+        <v>53466638.35255879</v>
       </c>
       <c r="CM5">
-        <v>5816557.754828789</v>
+        <v>54140285.55674624</v>
       </c>
       <c r="CN5">
-        <v>5923879.477030141</v>
+        <v>55178064.74657325</v>
       </c>
       <c r="CO5">
-        <v>6089795.290701952</v>
+        <v>56534428.36457778</v>
       </c>
     </row>
   </sheetData>
@@ -2080,274 +2080,274 @@
         <v>2</v>
       </c>
       <c r="D2">
-        <v>262.0274379424926</v>
+        <v>1072.34614200176</v>
       </c>
       <c r="E2">
-        <v>564.6433745157517</v>
+        <v>2470.031396311326</v>
       </c>
       <c r="F2">
-        <v>1064.87552694432</v>
+        <v>3866.98335473892</v>
       </c>
       <c r="G2">
-        <v>1435.48393505994</v>
+        <v>5194.438641432762</v>
       </c>
       <c r="H2">
-        <v>2384.483940532652</v>
+        <v>6974.843183114293</v>
       </c>
       <c r="I2">
-        <v>2929.765285521555</v>
+        <v>8259.232895101057</v>
       </c>
       <c r="J2">
-        <v>3538.257528997431</v>
+        <v>10583.22199605454</v>
       </c>
       <c r="K2">
-        <v>4238.144213543071</v>
+        <v>12893.46514428069</v>
       </c>
       <c r="L2">
-        <v>4795.971440850181</v>
+        <v>14948.90346863307</v>
       </c>
       <c r="M2">
-        <v>5480.372549942761</v>
+        <v>16842.93601860205</v>
       </c>
       <c r="N2">
-        <v>5827.235338890871</v>
+        <v>20894.39951091218</v>
       </c>
       <c r="O2">
-        <v>6211.855549429916</v>
+        <v>23350.20048292131</v>
       </c>
       <c r="P2">
-        <v>6983.561228843831</v>
+        <v>28269.97163709856</v>
       </c>
       <c r="Q2">
-        <v>7762.123594284241</v>
+        <v>33566.5448573608</v>
       </c>
       <c r="R2">
-        <v>8550.59161353677</v>
+        <v>39243.90492906224</v>
       </c>
       <c r="S2">
-        <v>10536.31773367572</v>
+        <v>51709.59444547907</v>
       </c>
       <c r="T2">
-        <v>12541.44205251295</v>
+        <v>65084.40530884956</v>
       </c>
       <c r="U2">
-        <v>14555.03604646767</v>
+        <v>79362.12168565385</v>
       </c>
       <c r="V2">
-        <v>16561.58972754185</v>
+        <v>94525.96457839673</v>
       </c>
       <c r="W2">
-        <v>18566.64935119644</v>
+        <v>110579.0257390567</v>
       </c>
       <c r="X2">
-        <v>20412.48248212957</v>
+        <v>126668.8275307006</v>
       </c>
       <c r="Y2">
-        <v>22275.34416711333</v>
+        <v>143594.9999909857</v>
       </c>
       <c r="Z2">
-        <v>24156.89994250866</v>
+        <v>161379.7853306726</v>
       </c>
       <c r="AA2">
-        <v>26062.53763110149</v>
+        <v>180050.0801657388</v>
       </c>
       <c r="AB2">
-        <v>27988.50372376725</v>
+        <v>199616.2603743467</v>
       </c>
       <c r="AC2">
-        <v>28585.53141914356</v>
+        <v>208614.5563272891</v>
       </c>
       <c r="AD2">
-        <v>29231.26867268872</v>
+        <v>217872.6890132909</v>
       </c>
       <c r="AE2">
-        <v>29968.41400373347</v>
+        <v>227376.1463571126</v>
       </c>
       <c r="AF2">
-        <v>30812.3804140386</v>
+        <v>237120.3327581375</v>
       </c>
       <c r="AG2">
-        <v>31771.00744756207</v>
+        <v>247183.8004658963</v>
       </c>
       <c r="AH2">
-        <v>32568.88194910002</v>
+        <v>253529.7957355407</v>
       </c>
       <c r="AI2">
-        <v>33315.64276601681</v>
+        <v>260005.8590989168</v>
       </c>
       <c r="AJ2">
-        <v>34058.52278195097</v>
+        <v>266588.223152064</v>
       </c>
       <c r="AK2">
-        <v>34781.45287804071</v>
+        <v>273202.0041379602</v>
       </c>
       <c r="AL2">
-        <v>35471.88134441311</v>
+        <v>280063.4793205946</v>
       </c>
       <c r="AM2">
-        <v>36131.44436793624</v>
+        <v>289258.5838580161</v>
       </c>
       <c r="AN2">
-        <v>36838.5861063577</v>
+        <v>299101.7940033105</v>
       </c>
       <c r="AO2">
-        <v>37723.31555936843</v>
+        <v>309790.0862661154</v>
       </c>
       <c r="AP2">
-        <v>38816.8834035346</v>
+        <v>321787.2966071536</v>
       </c>
       <c r="AQ2">
-        <v>40185.6750297277</v>
+        <v>335522.8746973479</v>
       </c>
       <c r="AR2">
-        <v>41958.18980219871</v>
+        <v>355008.2930216054</v>
       </c>
       <c r="AS2">
-        <v>44016.22948307073</v>
+        <v>376707.6460551026</v>
       </c>
       <c r="AT2">
-        <v>46119.83066782968</v>
+        <v>399654.2557452657</v>
       </c>
       <c r="AU2">
-        <v>48214.88495724446</v>
+        <v>423609.8903051541</v>
       </c>
       <c r="AV2">
-        <v>50290.1977176799</v>
+        <v>448418.3273015489</v>
       </c>
       <c r="AW2">
-        <v>52320.28623599566</v>
+        <v>474643.7947108807</v>
       </c>
       <c r="AX2">
-        <v>54529.04586710228</v>
+        <v>501541.0772780115</v>
       </c>
       <c r="AY2">
-        <v>56707.01840421947</v>
+        <v>529026.4504699253</v>
       </c>
       <c r="AZ2">
-        <v>58783.52965907582</v>
+        <v>556473.6783972682</v>
       </c>
       <c r="BA2">
-        <v>60604.6867848687</v>
+        <v>582556.7160997184</v>
       </c>
       <c r="BB2">
-        <v>61994.93204675294</v>
+        <v>604945.5819260658</v>
       </c>
       <c r="BC2">
-        <v>63130.32144714105</v>
+        <v>625298.5518433996</v>
       </c>
       <c r="BD2">
-        <v>64290.92599423409</v>
+        <v>645446.0376808564</v>
       </c>
       <c r="BE2">
-        <v>65516.48651952625</v>
+        <v>665485.2840363351</v>
       </c>
       <c r="BF2">
-        <v>66768.42737222058</v>
+        <v>684981.8983500848</v>
       </c>
       <c r="BG2">
-        <v>67958.38871224216</v>
+        <v>702820.5191419966</v>
       </c>
       <c r="BH2">
-        <v>69092.06482602815</v>
+        <v>719980.4981358952</v>
       </c>
       <c r="BI2">
-        <v>70197.09160514285</v>
+        <v>737227.9810579385</v>
       </c>
       <c r="BJ2">
-        <v>71285.20693759726</v>
+        <v>754844.3595036529</v>
       </c>
       <c r="BK2">
-        <v>72363.84574742275</v>
+        <v>773184.4200710325</v>
       </c>
       <c r="BL2">
-        <v>73443.30380310336</v>
+        <v>792311.6325926391</v>
       </c>
       <c r="BM2">
-        <v>74606.25714889077</v>
+        <v>812668.673502345</v>
       </c>
       <c r="BN2">
-        <v>75932.99936470043</v>
+        <v>834267.1140521085</v>
       </c>
       <c r="BO2">
-        <v>77488.81705524221</v>
+        <v>857600.190417112</v>
       </c>
       <c r="BP2">
-        <v>79316.6434349607</v>
+        <v>883412.27881384</v>
       </c>
       <c r="BQ2">
-        <v>81413.29583691477</v>
+        <v>912107.0326137232</v>
       </c>
       <c r="BR2">
-        <v>83726.16102944568</v>
+        <v>943433.8557443278</v>
       </c>
       <c r="BS2">
-        <v>86134.83684517903</v>
+        <v>976360.4774163903</v>
       </c>
       <c r="BT2">
-        <v>88557.29294161501</v>
+        <v>1010463.624430296</v>
       </c>
       <c r="BU2">
-        <v>90974.27823398818</v>
+        <v>1045639.692254987</v>
       </c>
       <c r="BV2">
-        <v>93384.98626708482</v>
+        <v>1081593.816012756</v>
       </c>
       <c r="BW2">
-        <v>95817.09907973815</v>
+        <v>1118291.081573518</v>
       </c>
       <c r="BX2">
-        <v>98219.33997975322</v>
+        <v>1155241.757459126</v>
       </c>
       <c r="BY2">
-        <v>100483.3761576782</v>
+        <v>1191754.857594304</v>
       </c>
       <c r="BZ2">
-        <v>102520.3737422361</v>
+        <v>1226932.404111307</v>
       </c>
       <c r="CA2">
-        <v>104283.0513023334</v>
+        <v>1259960.70701324</v>
       </c>
       <c r="CB2">
-        <v>105862.2698999106</v>
+        <v>1291388.867517649</v>
       </c>
       <c r="CC2">
-        <v>107393.6170343523</v>
+        <v>1322112.134738792</v>
       </c>
       <c r="CD2">
-        <v>108947.7853319362</v>
+        <v>1352494.870035714</v>
       </c>
       <c r="CE2">
-        <v>110512.0500574344</v>
+        <v>1382343.482731095</v>
       </c>
       <c r="CF2">
-        <v>112036.0826869488</v>
+        <v>1411205.1442344</v>
       </c>
       <c r="CG2">
-        <v>113521.9597784905</v>
+        <v>1439585.323743264</v>
       </c>
       <c r="CH2">
-        <v>114981.5020525591</v>
+        <v>1468035.05109928</v>
       </c>
       <c r="CI2">
-        <v>116431.8006337382</v>
+        <v>1496960.315475243</v>
       </c>
       <c r="CJ2">
-        <v>117892.9072198994</v>
+        <v>1526633.65175426</v>
       </c>
       <c r="CK2">
-        <v>119377.9959469829</v>
+        <v>1556887.450797545</v>
       </c>
       <c r="CL2">
-        <v>120965.4287157495</v>
+        <v>1588366.6164852</v>
       </c>
       <c r="CM2">
-        <v>122720.6777546355</v>
+        <v>1621363.303602227</v>
       </c>
       <c r="CN2">
-        <v>124694.3841707335</v>
+        <v>1656245.821171022</v>
       </c>
       <c r="CO2">
-        <v>126908.9878595669</v>
+        <v>1693416.451853192</v>
       </c>
     </row>
     <row r="3" spans="1:93">
@@ -2357,274 +2357,274 @@
         <v>3</v>
       </c>
       <c r="D3">
-        <v>16.49064919837422</v>
+        <v>70.90938680416959</v>
       </c>
       <c r="E3">
-        <v>35.64995078749983</v>
+        <v>163.6113783021817</v>
       </c>
       <c r="F3">
-        <v>67.96291023567508</v>
+        <v>256.1458585442015</v>
       </c>
       <c r="G3">
-        <v>91.57076958304258</v>
+        <v>344.0115981242439</v>
       </c>
       <c r="H3">
-        <v>154.1246473089697</v>
+        <v>462.3970472210831</v>
       </c>
       <c r="I3">
-        <v>189.5516603575321</v>
+        <v>547.4565200187104</v>
       </c>
       <c r="J3">
-        <v>229.1116487816705</v>
+        <v>702.226843623955</v>
       </c>
       <c r="K3">
-        <v>274.6568463762956</v>
+        <v>855.9217205259712</v>
       </c>
       <c r="L3">
-        <v>310.7057397897358</v>
+        <v>992.5483132227716</v>
       </c>
       <c r="M3">
-        <v>355.1827063205581</v>
+        <v>1118.256955497735</v>
       </c>
       <c r="N3">
-        <v>376.8405755496688</v>
+        <v>1388.777808993875</v>
       </c>
       <c r="O3">
-        <v>401.1778528584668</v>
+        <v>1552.265138426557</v>
       </c>
       <c r="P3">
-        <v>451.4279115784821</v>
+        <v>1881.117457048832</v>
       </c>
       <c r="Q3">
-        <v>502.1029608913736</v>
+        <v>2235.242724104033</v>
       </c>
       <c r="R3">
-        <v>553.4093530967928</v>
+        <v>2614.910201745795</v>
       </c>
       <c r="S3">
-        <v>685.0622677938107</v>
+        <v>3450.32755822164</v>
       </c>
       <c r="T3">
-        <v>817.9797190722823</v>
+        <v>4346.764369056611</v>
       </c>
       <c r="U3">
-        <v>951.4217824204893</v>
+        <v>5303.800553481662</v>
       </c>
       <c r="V3">
-        <v>1084.33802145871</v>
+        <v>6320.309393509961</v>
       </c>
       <c r="W3">
-        <v>1217.103948923453</v>
+        <v>7396.500178793</v>
       </c>
       <c r="X3">
-        <v>1339.138142337836</v>
+        <v>8475.117450754058</v>
       </c>
       <c r="Y3">
-        <v>1462.278143139586</v>
+        <v>9609.873677294383</v>
       </c>
       <c r="Z3">
-        <v>1586.63673060017</v>
+        <v>10802.265613292</v>
       </c>
       <c r="AA3">
-        <v>1712.578722698639</v>
+        <v>12054.09893442683</v>
       </c>
       <c r="AB3">
-        <v>1839.849930892386</v>
+        <v>13366.06689011601</v>
       </c>
       <c r="AC3">
-        <v>1877.855785206837</v>
+        <v>13968.38185952301</v>
       </c>
       <c r="AD3">
-        <v>1919.11173955805</v>
+        <v>14588.13744265186</v>
       </c>
       <c r="AE3">
-        <v>1966.509485762613</v>
+        <v>15224.37605203698</v>
       </c>
       <c r="AF3">
-        <v>2021.092749491831</v>
+        <v>15876.80613206357</v>
       </c>
       <c r="AG3">
-        <v>2083.3922972414</v>
+        <v>16550.71101953892</v>
       </c>
       <c r="AH3">
-        <v>2134.864248925086</v>
+        <v>16974.99198666118</v>
       </c>
       <c r="AI3">
-        <v>2182.823640898113</v>
+        <v>17408.00837295685</v>
       </c>
       <c r="AJ3">
-        <v>2230.468960224356</v>
+        <v>17848.14423443499</v>
       </c>
       <c r="AK3">
-        <v>2276.711367540738</v>
+        <v>18290.36311363102</v>
       </c>
       <c r="AL3">
-        <v>2320.700081944875</v>
+        <v>18749.26325595313</v>
       </c>
       <c r="AM3">
-        <v>2362.54461209831</v>
+        <v>19365.06179410857</v>
       </c>
       <c r="AN3">
-        <v>2407.556462594559</v>
+        <v>20024.8067086236</v>
       </c>
       <c r="AO3">
-        <v>2464.539388282239</v>
+        <v>20742.02344684593</v>
       </c>
       <c r="AP3">
-        <v>2535.609086444689</v>
+        <v>21547.90328978615</v>
       </c>
       <c r="AQ3">
-        <v>2625.260469277598</v>
+        <v>22471.39216012722</v>
       </c>
       <c r="AR3">
-        <v>2742.193077944807</v>
+        <v>23782.31182880066</v>
       </c>
       <c r="AS3">
-        <v>2878.403076054823</v>
+        <v>25242.84437615902</v>
       </c>
       <c r="AT3">
-        <v>3017.641411443</v>
+        <v>26787.11395830835</v>
       </c>
       <c r="AU3">
-        <v>3156.244726954932</v>
+        <v>28399.03598048569</v>
       </c>
       <c r="AV3">
-        <v>3293.447509061736</v>
+        <v>30068.2410317161</v>
       </c>
       <c r="AW3">
-        <v>3427.526609920631</v>
+        <v>31832.58874005512</v>
       </c>
       <c r="AX3">
-        <v>3573.526502554031</v>
+        <v>33642.10556038166</v>
       </c>
       <c r="AY3">
-        <v>3717.385540701112</v>
+        <v>35491.28483153388</v>
       </c>
       <c r="AZ3">
-        <v>3854.319285441153</v>
+        <v>37337.83179777935</v>
       </c>
       <c r="BA3">
-        <v>3973.907883748245</v>
+        <v>39091.93073510825</v>
       </c>
       <c r="BB3">
-        <v>4064.274400778916</v>
+        <v>40596.18965601717</v>
       </c>
       <c r="BC3">
-        <v>4137.326160911727</v>
+        <v>41962.40837094884</v>
       </c>
       <c r="BD3">
-        <v>4212.029063809671</v>
+        <v>43314.73104233068</v>
       </c>
       <c r="BE3">
-        <v>4291.074244105649</v>
+        <v>44659.82499510646</v>
       </c>
       <c r="BF3">
-        <v>4371.849006233882</v>
+        <v>45968.32347367765</v>
       </c>
       <c r="BG3">
-        <v>4448.379855771159</v>
+        <v>47165.08708155867</v>
       </c>
       <c r="BH3">
-        <v>4521.036088132334</v>
+        <v>48316.13320383846</v>
       </c>
       <c r="BI3">
-        <v>4591.688011143046</v>
+        <v>49473.38243030134</v>
       </c>
       <c r="BJ3">
-        <v>4661.129336561891</v>
+        <v>50655.71703160489</v>
       </c>
       <c r="BK3">
-        <v>4729.862329531309</v>
+        <v>51887.32124194786</v>
       </c>
       <c r="BL3">
-        <v>4798.591044785448</v>
+        <v>53173.11057762174</v>
       </c>
       <c r="BM3">
-        <v>4872.901904128907</v>
+        <v>54543.46543416515</v>
       </c>
       <c r="BN3">
-        <v>4958.231659558335</v>
+        <v>55999.60077709988</v>
       </c>
       <c r="BO3">
-        <v>5059.000894985348</v>
+        <v>57574.91568955658</v>
       </c>
       <c r="BP3">
-        <v>5178.116502947303</v>
+        <v>59319.68114855724</v>
       </c>
       <c r="BQ3">
-        <v>5315.365358962513</v>
+        <v>61261.21908086895</v>
       </c>
       <c r="BR3">
-        <v>5467.176646123286</v>
+        <v>63381.51795520164</v>
       </c>
       <c r="BS3">
-        <v>5625.397216579535</v>
+        <v>65609.25891263926</v>
       </c>
       <c r="BT3">
-        <v>5784.472451346155</v>
+        <v>67914.78722156465</v>
       </c>
       <c r="BU3">
-        <v>5943.099047780183</v>
+        <v>70290.62571802088</v>
       </c>
       <c r="BV3">
-        <v>6101.225971317932</v>
+        <v>72716.96201999189</v>
       </c>
       <c r="BW3">
-        <v>6260.720563514676</v>
+        <v>75191.63021714208</v>
       </c>
       <c r="BX3">
-        <v>6418.111207596115</v>
+        <v>77681.7517775219</v>
       </c>
       <c r="BY3">
-        <v>6566.062717284602</v>
+        <v>80140.68819662658</v>
       </c>
       <c r="BZ3">
-        <v>6698.56035623792</v>
+        <v>82507.82649513475</v>
       </c>
       <c r="CA3">
-        <v>6812.406514678994</v>
+        <v>84728.49116619087</v>
       </c>
       <c r="CB3">
-        <v>6913.746598770284</v>
+        <v>86840.13812036133</v>
       </c>
       <c r="CC3">
-        <v>7011.762746252762</v>
+        <v>88903.75987210237</v>
       </c>
       <c r="CD3">
-        <v>7111.242412770959</v>
+        <v>90944.28223166688</v>
       </c>
       <c r="CE3">
-        <v>7211.324036747483</v>
+        <v>92948.71629457295</v>
       </c>
       <c r="CF3">
-        <v>7308.603124222058</v>
+        <v>94886.59962833235</v>
       </c>
       <c r="CG3">
-        <v>7403.210793685272</v>
+        <v>96792.0143136058</v>
       </c>
       <c r="CH3">
-        <v>7495.947105122499</v>
+        <v>98702.24408871267</v>
       </c>
       <c r="CI3">
-        <v>7587.968940014018</v>
+        <v>100644.8388714193</v>
       </c>
       <c r="CJ3">
-        <v>7680.63359025073</v>
+        <v>102638.4629301057</v>
       </c>
       <c r="CK3">
-        <v>7774.840072774199</v>
+        <v>104672.4316146025</v>
       </c>
       <c r="CL3">
-        <v>7875.881762403493</v>
+        <v>106790.9170265629</v>
       </c>
       <c r="CM3">
-        <v>7988.191806806321</v>
+        <v>109014.3967190416</v>
       </c>
       <c r="CN3">
-        <v>8115.199051030469</v>
+        <v>111367.9708040401</v>
       </c>
       <c r="CO3">
-        <v>8258.422649337343</v>
+        <v>113878.7015981702</v>
       </c>
     </row>
     <row r="4" spans="1:93">
@@ -2634,274 +2634,274 @@
         <v>4</v>
       </c>
       <c r="D4">
-        <v>26474387.15107802</v>
+        <v>1624041.439607251</v>
       </c>
       <c r="E4">
-        <v>53251620.38058935</v>
+        <v>3082807.852041519</v>
       </c>
       <c r="F4">
-        <v>82627838.27938208</v>
+        <v>4356213.544599938</v>
       </c>
       <c r="G4">
-        <v>112095494.7226948</v>
+        <v>5833233.495613215</v>
       </c>
       <c r="H4">
-        <v>138928244.5435729</v>
+        <v>7456252.889375376</v>
       </c>
       <c r="I4">
-        <v>165247626.2197077</v>
+        <v>8998552.959445659</v>
       </c>
       <c r="J4">
-        <v>194275229.5026029</v>
+        <v>10675008.27082881</v>
       </c>
       <c r="K4">
-        <v>227123097.4189658</v>
+        <v>12211963.42275243</v>
       </c>
       <c r="L4">
-        <v>259748235.4222996</v>
+        <v>13737593.84860441</v>
       </c>
       <c r="M4">
-        <v>294453320.2633814</v>
+        <v>15771070.47440808</v>
       </c>
       <c r="N4">
-        <v>332010845.8894651</v>
+        <v>17695380.83046982</v>
       </c>
       <c r="O4">
-        <v>366851394.3349931</v>
+        <v>19592770.8826893</v>
       </c>
       <c r="P4">
-        <v>405536939.8205202</v>
+        <v>29486149.072332</v>
       </c>
       <c r="Q4">
-        <v>445536908.4581345</v>
+        <v>39408914.06209284</v>
       </c>
       <c r="R4">
-        <v>486860251.6160917</v>
+        <v>49371311.77189462</v>
       </c>
       <c r="S4">
-        <v>534090745.9863924</v>
+        <v>80608217.23480485</v>
       </c>
       <c r="T4">
-        <v>582781695.741348</v>
+        <v>111912722.5165951</v>
       </c>
       <c r="U4">
-        <v>632917419.035589</v>
+        <v>143273549.9843425</v>
       </c>
       <c r="V4">
-        <v>684497867.7653753</v>
+        <v>174696217.1908116</v>
       </c>
       <c r="W4">
-        <v>737529497.7410361</v>
+        <v>206191383.8899641</v>
       </c>
       <c r="X4">
-        <v>791534948.315825</v>
+        <v>238613948.1513997</v>
       </c>
       <c r="Y4">
-        <v>846899187.6179038</v>
+        <v>271124738.0920786</v>
       </c>
       <c r="Z4">
-        <v>903622605.5583208</v>
+        <v>303735398.5722501</v>
       </c>
       <c r="AA4">
-        <v>961709420.9402285</v>
+        <v>336457338.6053905</v>
       </c>
       <c r="AB4">
-        <v>1021157400.875316</v>
+        <v>369289884.5848114</v>
       </c>
       <c r="AC4">
-        <v>1076812662.335328</v>
+        <v>378153844.5870143</v>
       </c>
       <c r="AD4">
-        <v>1133837105.083624</v>
+        <v>387117869.5220094</v>
       </c>
       <c r="AE4">
-        <v>1192234873.295268</v>
+        <v>396190219.8035962</v>
       </c>
       <c r="AF4">
-        <v>1252011866.198277</v>
+        <v>405413484.413999</v>
       </c>
       <c r="AG4">
-        <v>1313175382.95775</v>
+        <v>414832494.3269664</v>
       </c>
       <c r="AH4">
-        <v>1374835748.199715</v>
+        <v>417429505.7551022</v>
       </c>
       <c r="AI4">
-        <v>1437902766.626691</v>
+        <v>420018239.7526066</v>
       </c>
       <c r="AJ4">
-        <v>1502390805.246915</v>
+        <v>422569683.9070008</v>
       </c>
       <c r="AK4">
-        <v>1568322669.75506</v>
+        <v>425330843.6046035</v>
       </c>
       <c r="AL4">
-        <v>1635729551.987276</v>
+        <v>428456942.1266006</v>
       </c>
       <c r="AM4">
-        <v>1704624663.564103</v>
+        <v>435220367.6774292</v>
       </c>
       <c r="AN4">
-        <v>1775068011.343069</v>
+        <v>442762383.9976199</v>
       </c>
       <c r="AO4">
-        <v>1847120852.208073</v>
+        <v>451353715.0692081</v>
       </c>
       <c r="AP4">
-        <v>1920819724.25521</v>
+        <v>461144124.6000575</v>
       </c>
       <c r="AQ4">
-        <v>1996226273.646917</v>
+        <v>472300603.1042818</v>
       </c>
       <c r="AR4">
-        <v>2073412445.000258</v>
+        <v>490123001.2401305</v>
       </c>
       <c r="AS4">
-        <v>2152298991.131119</v>
+        <v>509367265.0587155</v>
       </c>
       <c r="AT4">
-        <v>2232720714.713414</v>
+        <v>529528693.7864316</v>
       </c>
       <c r="AU4">
-        <v>2314619796.586601</v>
+        <v>550422808.9982761</v>
       </c>
       <c r="AV4">
-        <v>2398450770.133441</v>
+        <v>571876132.6973668</v>
       </c>
       <c r="AW4">
-        <v>2483885465.588544</v>
+        <v>595012770.3613842</v>
       </c>
       <c r="AX4">
-        <v>2570945127.034152</v>
+        <v>618306265.1811204</v>
       </c>
       <c r="AY4">
-        <v>2659373144.239421</v>
+        <v>641545533.5048121</v>
       </c>
       <c r="AZ4">
-        <v>2749075667.747969</v>
+        <v>664361366.711296</v>
       </c>
       <c r="BA4">
-        <v>2839911870.874973</v>
+        <v>686216120.62819</v>
       </c>
       <c r="BB4">
-        <v>2931740163.124612</v>
+        <v>705655539.6633868</v>
       </c>
       <c r="BC4">
-        <v>3024716017.008856</v>
+        <v>723789041.9072789</v>
       </c>
       <c r="BD4">
-        <v>3118989515.282644</v>
+        <v>741112919.8664627</v>
       </c>
       <c r="BE4">
-        <v>3214582455.169801</v>
+        <v>757675030.5001642</v>
       </c>
       <c r="BF4">
-        <v>3311493137.163751</v>
+        <v>773439708.9278824</v>
       </c>
       <c r="BG4">
-        <v>3409706762.668237</v>
+        <v>787993598.0900977</v>
       </c>
       <c r="BH4">
-        <v>3509357266.633515</v>
+        <v>802019186.2928717</v>
       </c>
       <c r="BI4">
-        <v>3610504522.929353</v>
+        <v>815741143.1930697</v>
       </c>
       <c r="BJ4">
-        <v>3713199336.23137</v>
+        <v>829360701.1520866</v>
       </c>
       <c r="BK4">
-        <v>3817495025.575214</v>
+        <v>843092053.8725768</v>
       </c>
       <c r="BL4">
-        <v>3923427867.645323</v>
+        <v>857059976.8483051</v>
       </c>
       <c r="BM4">
-        <v>4031131017.516623</v>
+        <v>871686528.0520496</v>
       </c>
       <c r="BN4">
-        <v>4140662939.746686</v>
+        <v>887211703.5010375</v>
       </c>
       <c r="BO4">
-        <v>4252074084.39127</v>
+        <v>903879839.6213262</v>
       </c>
       <c r="BP4">
-        <v>4365405588.995395</v>
+        <v>921924421.1407284</v>
       </c>
       <c r="BQ4">
-        <v>4480732096.415837</v>
+        <v>941470540.260147</v>
       </c>
       <c r="BR4">
-        <v>4598065297.907975</v>
+        <v>962355731.026114</v>
       </c>
       <c r="BS4">
-        <v>4717327565.279329</v>
+        <v>984198050.829366</v>
       </c>
       <c r="BT4">
-        <v>4838460840.351418</v>
+        <v>1006772773.671254</v>
       </c>
       <c r="BU4">
-        <v>4961441430.906471</v>
+        <v>1029961495.507265</v>
       </c>
       <c r="BV4">
-        <v>5086289161.899538</v>
+        <v>1053510689.71493</v>
       </c>
       <c r="BW4">
-        <v>5213040151.559119</v>
+        <v>1077404311.562138</v>
       </c>
       <c r="BX4">
-        <v>5341637681.656378</v>
+        <v>1101420184.034857</v>
       </c>
       <c r="BY4">
-        <v>5471987099.105324</v>
+        <v>1125270043.533388</v>
       </c>
       <c r="BZ4">
-        <v>5604003258.878781</v>
+        <v>1148619931.884222</v>
       </c>
       <c r="CA4">
-        <v>5737667014.566705</v>
+        <v>1171019619.907072</v>
       </c>
       <c r="CB4">
-        <v>5873046159.044727</v>
+        <v>1192771190.069822</v>
       </c>
       <c r="CC4">
-        <v>6010198866.954522</v>
+        <v>1214206725.544631</v>
       </c>
       <c r="CD4">
-        <v>6149154540.038673</v>
+        <v>1235300762.388492</v>
       </c>
       <c r="CE4">
-        <v>6289905491.191559</v>
+        <v>1255996914.620135</v>
       </c>
       <c r="CF4">
-        <v>6432474307.550895</v>
+        <v>1275906079.002346</v>
       </c>
       <c r="CG4">
-        <v>6576928920.893528</v>
+        <v>1295435392.279042</v>
       </c>
       <c r="CH4">
-        <v>6723295830.303037</v>
+        <v>1314701637.653466</v>
       </c>
       <c r="CI4">
-        <v>6871605720.961513</v>
+        <v>1333824030.567971</v>
       </c>
       <c r="CJ4">
-        <v>7021892915.582427</v>
+        <v>1352918963.935742</v>
       </c>
       <c r="CK4">
-        <v>7174203461.545831</v>
+        <v>1371539457.324541</v>
       </c>
       <c r="CL4">
-        <v>7328666101.424985</v>
+        <v>1390406267.754472</v>
       </c>
       <c r="CM4">
-        <v>7485331597.129384</v>
+        <v>1409823292.868139</v>
       </c>
       <c r="CN4">
-        <v>7644242177.277814</v>
+        <v>1430027625.967594</v>
       </c>
       <c r="CO4">
-        <v>7805424912.810408</v>
+        <v>1451170426.997459</v>
       </c>
     </row>
     <row r="5" spans="1:93">
@@ -2911,274 +2911,274 @@
         <v>5</v>
       </c>
       <c r="D5">
-        <v>1694797.891812964</v>
+        <v>2149532.838667813</v>
       </c>
       <c r="E5">
-        <v>2690780.992625034</v>
+        <v>3588867.259234717</v>
       </c>
       <c r="F5">
-        <v>3189979.649781743</v>
+        <v>4934060.409842861</v>
       </c>
       <c r="G5">
-        <v>3496767.173083417</v>
+        <v>6230224.160329678</v>
       </c>
       <c r="H5">
-        <v>3784327.426627539</v>
+        <v>7473558.413228918</v>
       </c>
       <c r="I5">
-        <v>3988325.544420689</v>
+        <v>9026489.507478934</v>
       </c>
       <c r="J5">
-        <v>4155291.479436501</v>
+        <v>10733848.69677471</v>
       </c>
       <c r="K5">
-        <v>4371038.231060011</v>
+        <v>12216728.53415881</v>
       </c>
       <c r="L5">
-        <v>4762802.923230359</v>
+        <v>13585743.11240485</v>
       </c>
       <c r="M5">
-        <v>5106175.370249647</v>
+        <v>15114122.78378315</v>
       </c>
       <c r="N5">
-        <v>5539332.966022053</v>
+        <v>16714972.79752181</v>
       </c>
       <c r="O5">
-        <v>6083217.175078595</v>
+        <v>18800938.30828663</v>
       </c>
       <c r="P5">
-        <v>9629181.033501904</v>
+        <v>35072014.43643483</v>
       </c>
       <c r="Q5">
-        <v>13184522.67030833</v>
+        <v>51356742.75929382</v>
       </c>
       <c r="R5">
-        <v>16752011.10803039</v>
+        <v>67659472.49614954</v>
       </c>
       <c r="S5">
-        <v>28049064.08675254</v>
+        <v>121787564.5002082</v>
       </c>
       <c r="T5">
-        <v>39365228.80969808</v>
+        <v>175945437.7542524</v>
       </c>
       <c r="U5">
-        <v>50704599.65257414</v>
+        <v>230140711.1109947</v>
       </c>
       <c r="V5">
-        <v>62071567.12434402</v>
+        <v>284382412.0762011</v>
       </c>
       <c r="W5">
-        <v>73470683.1949148</v>
+        <v>338681277.8043942</v>
       </c>
       <c r="X5">
-        <v>84398607.17556842</v>
+        <v>395848009.692318</v>
       </c>
       <c r="Y5">
-        <v>95367645.83984239</v>
+        <v>453100705.491996</v>
       </c>
       <c r="Z5">
-        <v>106381935.1393222</v>
+        <v>510459213.4068816</v>
       </c>
       <c r="AA5">
-        <v>117445323.9195149</v>
+        <v>567948865.6857517</v>
       </c>
       <c r="AB5">
-        <v>128561535.859254</v>
+        <v>625602511.4459465</v>
       </c>
       <c r="AC5">
-        <v>130723682.5639408</v>
+        <v>641745534.3770455</v>
       </c>
       <c r="AD5">
-        <v>132947913.160248</v>
+        <v>658152485.0523733</v>
       </c>
       <c r="AE5">
-        <v>135241910.8599627</v>
+        <v>674898375.4634252</v>
       </c>
       <c r="AF5">
-        <v>137617635.4021016</v>
+        <v>692081676.5285054</v>
       </c>
       <c r="AG5">
-        <v>140093508.0341541</v>
+        <v>709830223.9865497</v>
       </c>
       <c r="AH5">
-        <v>140992235.3821379</v>
+        <v>715633442.8727216</v>
       </c>
       <c r="AI5">
-        <v>142056361.5444095</v>
+        <v>721822135.046116</v>
       </c>
       <c r="AJ5">
-        <v>143336092.4552392</v>
+        <v>728521975.3123192</v>
       </c>
       <c r="AK5">
-        <v>144893873.1044266</v>
+        <v>736495556.5452865</v>
       </c>
       <c r="AL5">
-        <v>146802866.9452194</v>
+        <v>746065577.348398</v>
       </c>
       <c r="AM5">
-        <v>149143685.7302853</v>
+        <v>763590536.4593908</v>
       </c>
       <c r="AN5">
-        <v>151999448.9402509</v>
+        <v>783672237.3757401</v>
       </c>
       <c r="AO5">
-        <v>155449455.852607</v>
+        <v>806683124.6879191</v>
       </c>
       <c r="AP5">
-        <v>159561849.3938689</v>
+        <v>832955923.2536789</v>
       </c>
       <c r="AQ5">
-        <v>164385748.9671742</v>
+        <v>862747190.2357981</v>
       </c>
       <c r="AR5">
-        <v>169943443.5717402</v>
+        <v>904401411.8842491</v>
       </c>
       <c r="AS5">
-        <v>176223412.4038632</v>
+        <v>949704627.8695843</v>
       </c>
       <c r="AT5">
-        <v>183175302.9010849</v>
+        <v>998464934.7561886</v>
       </c>
       <c r="AU5">
-        <v>190707981.9951224</v>
+        <v>1050294973.193714</v>
       </c>
       <c r="AV5">
-        <v>199841198.9315467</v>
+        <v>1104617084.353235</v>
       </c>
       <c r="AW5">
-        <v>209588772.2114684</v>
+        <v>1163089776.72486</v>
       </c>
       <c r="AX5">
-        <v>219442350.0878589</v>
+        <v>1222458636.026425</v>
       </c>
       <c r="AY5">
-        <v>229211468.6556633</v>
+        <v>1281817000.308524</v>
       </c>
       <c r="AZ5">
-        <v>238713342.1957881</v>
+        <v>1340277127.211987</v>
       </c>
       <c r="BA5">
-        <v>247786961.6545</v>
+        <v>1397037763.995185</v>
       </c>
       <c r="BB5">
-        <v>256137542.8339961</v>
+        <v>1450044435.892373</v>
       </c>
       <c r="BC5">
-        <v>263845451.8623371</v>
+        <v>1500221986.353232</v>
       </c>
       <c r="BD5">
-        <v>270869141.7618887</v>
+        <v>1547310207.315971</v>
       </c>
       <c r="BE5">
-        <v>277212798.1636763</v>
+        <v>1591271911.786383</v>
       </c>
       <c r="BF5">
-        <v>282923987.272121</v>
+        <v>1632290379.617978</v>
       </c>
       <c r="BG5">
-        <v>287923721.36506</v>
+        <v>1669981447.478947</v>
       </c>
       <c r="BH5">
-        <v>292492806.2359964</v>
+        <v>1705674492.321884</v>
       </c>
       <c r="BI5">
-        <v>296767163.6066635</v>
+        <v>1740053022.690841</v>
       </c>
       <c r="BJ5">
-        <v>300890908.3401845</v>
+        <v>1773870134.295729</v>
       </c>
       <c r="BK5">
-        <v>305005088.0514767</v>
+        <v>1807891758.858148</v>
       </c>
       <c r="BL5">
-        <v>309114780.3032755</v>
+        <v>1842741875.290624</v>
       </c>
       <c r="BM5">
-        <v>313455187.2093971</v>
+        <v>1879181814.959935</v>
       </c>
       <c r="BN5">
-        <v>318117580.2171511</v>
+        <v>1917770186.448411</v>
       </c>
       <c r="BO5">
-        <v>323173108.4419701</v>
+        <v>1958953627.636074</v>
       </c>
       <c r="BP5">
-        <v>328673539.6120844</v>
+        <v>2003057206.435636</v>
       </c>
       <c r="BQ5">
-        <v>334565460.1053848</v>
+        <v>2050301853.256924</v>
       </c>
       <c r="BR5">
-        <v>340949707.6464695</v>
+        <v>2100728456.488876</v>
       </c>
       <c r="BS5">
-        <v>347822126.7730929</v>
+        <v>2154271940.273745</v>
       </c>
       <c r="BT5">
-        <v>355160137.3929456</v>
+        <v>2210744633.053598</v>
       </c>
       <c r="BU5">
-        <v>362923269.5077896</v>
+        <v>2269849234.028989</v>
       </c>
       <c r="BV5">
-        <v>370969918.8893893</v>
+        <v>2330976628.118931</v>
       </c>
       <c r="BW5">
-        <v>379312098.8868856</v>
+        <v>2393885567.663242</v>
       </c>
       <c r="BX5">
-        <v>387865119.571563</v>
+        <v>2458068109.047294</v>
       </c>
       <c r="BY5">
-        <v>396535621.8209023</v>
+        <v>2522996103.510753</v>
       </c>
       <c r="BZ5">
-        <v>405226340.8013443</v>
+        <v>2588149677.644354</v>
       </c>
       <c r="CA5">
-        <v>413753216.1189739</v>
+        <v>2652654510.56975</v>
       </c>
       <c r="CB5">
-        <v>422117050.764296</v>
+        <v>2716480281.884402</v>
       </c>
       <c r="CC5">
-        <v>430243817.0248761</v>
+        <v>2779289328.064876</v>
       </c>
       <c r="CD5">
-        <v>438078173.6224507</v>
+        <v>2840843522.826713</v>
       </c>
       <c r="CE5">
-        <v>445586881.4573825</v>
+        <v>2901014225.77475</v>
       </c>
       <c r="CF5">
-        <v>452660400.9946957</v>
+        <v>2959115216.139105</v>
       </c>
       <c r="CG5">
-        <v>459411750.4367408</v>
+        <v>3015910722.951667</v>
       </c>
       <c r="CH5">
-        <v>465874571.6981952</v>
+        <v>3071593887.15736</v>
       </c>
       <c r="CI5">
-        <v>472099268.0483853</v>
+        <v>3126441389.912724</v>
       </c>
       <c r="CJ5">
-        <v>478148569.160837</v>
+        <v>3180793224.785701</v>
       </c>
       <c r="CK5">
-        <v>483956389.883913</v>
+        <v>3233977559.933421</v>
       </c>
       <c r="CL5">
-        <v>489732551.0432976</v>
+        <v>3287444198.28598</v>
       </c>
       <c r="CM5">
-        <v>495549108.7981264</v>
+        <v>3341584483.842726</v>
       </c>
       <c r="CN5">
-        <v>501472988.2751566</v>
+        <v>3396762548.589299</v>
       </c>
       <c r="CO5">
-        <v>507562783.5658585</v>
+        <v>3453296976.953877</v>
       </c>
     </row>
   </sheetData>

--- a/Results/Baseline/Lifetime/Results_world_base_life_Max.xlsx
+++ b/Results/Baseline/Lifetime/Results_world_base_life_Max.xlsx
@@ -682,43 +682,43 @@
         <v>1072.34614200176</v>
       </c>
       <c r="E2">
-        <v>1397.685254309566</v>
+        <v>1397.685254309567</v>
       </c>
       <c r="F2">
-        <v>1396.951958427594</v>
+        <v>1396.951958427595</v>
       </c>
       <c r="G2">
-        <v>1327.455286693842</v>
+        <v>1327.455286693843</v>
       </c>
       <c r="H2">
-        <v>1780.404541681532</v>
+        <v>1780.404541681533</v>
       </c>
       <c r="I2">
         <v>1284.389711986763</v>
       </c>
       <c r="J2">
-        <v>2323.989100953482</v>
+        <v>2323.989100953484</v>
       </c>
       <c r="K2">
-        <v>2310.243148226151</v>
+        <v>2310.243148226153</v>
       </c>
       <c r="L2">
-        <v>2055.438324352376</v>
+        <v>2055.438324352377</v>
       </c>
       <c r="M2">
         <v>1894.032549968986</v>
       </c>
       <c r="N2">
-        <v>4051.463492310125</v>
+        <v>4051.463492310124</v>
       </c>
       <c r="O2">
-        <v>2455.800972009134</v>
+        <v>2455.800972009135</v>
       </c>
       <c r="P2">
-        <v>4919.771154177249</v>
+        <v>4919.771154177251</v>
       </c>
       <c r="Q2">
-        <v>5296.573220262241</v>
+        <v>5296.573220262242</v>
       </c>
       <c r="R2">
         <v>5677.360071701432</v>
@@ -727,7 +727,7 @@
         <v>12465.68951641684</v>
       </c>
       <c r="T2">
-        <v>13374.81086337048</v>
+        <v>13374.81086337049</v>
       </c>
       <c r="U2">
         <v>14277.7163768043</v>
@@ -736,58 +736,58 @@
         <v>15163.84289274288</v>
       </c>
       <c r="W2">
-        <v>16053.06116066</v>
+        <v>16053.06116066001</v>
       </c>
       <c r="X2">
-        <v>16089.80179164389</v>
+        <v>16089.8017916439</v>
       </c>
       <c r="Y2">
-        <v>16926.17246028508</v>
+        <v>16926.17246028509</v>
       </c>
       <c r="Z2">
-        <v>17784.78533968687</v>
+        <v>17784.78533968688</v>
       </c>
       <c r="AA2">
-        <v>18670.29483506624</v>
+        <v>18670.29483506626</v>
       </c>
       <c r="AB2">
-        <v>19566.18020860785</v>
+        <v>19566.18020860786</v>
       </c>
       <c r="AC2">
-        <v>8998.295952942437</v>
+        <v>8998.295952942441</v>
       </c>
       <c r="AD2">
-        <v>9258.132686001751</v>
+        <v>9258.132686001753</v>
       </c>
       <c r="AE2">
-        <v>9503.457343821743</v>
+        <v>9503.457343821749</v>
       </c>
       <c r="AF2">
-        <v>9744.186401024912</v>
+        <v>9744.186401024916</v>
       </c>
       <c r="AG2">
         <v>10063.46770775881</v>
       </c>
       <c r="AH2">
-        <v>6345.99526964442</v>
+        <v>6345.995269644422</v>
       </c>
       <c r="AI2">
-        <v>6476.063363376126</v>
+        <v>6476.063363376128</v>
       </c>
       <c r="AJ2">
-        <v>6582.364053147158</v>
+        <v>6582.364053147162</v>
       </c>
       <c r="AK2">
-        <v>6613.780985896195</v>
+        <v>6613.780985896197</v>
       </c>
       <c r="AL2">
-        <v>6861.475182634366</v>
+        <v>6861.475182634369</v>
       </c>
       <c r="AM2">
-        <v>9195.104537421506</v>
+        <v>9195.10453742151</v>
       </c>
       <c r="AN2">
-        <v>9843.210145294424</v>
+        <v>9843.210145294428</v>
       </c>
       <c r="AO2">
         <v>10688.29226280494</v>
@@ -799,46 +799,46 @@
         <v>13735.57809019433</v>
       </c>
       <c r="AR2">
-        <v>19485.41832425741</v>
+        <v>19485.41832425742</v>
       </c>
       <c r="AS2">
-        <v>21699.35303349722</v>
+        <v>21699.35303349723</v>
       </c>
       <c r="AT2">
-        <v>22946.60969016316</v>
+        <v>22946.60969016317</v>
       </c>
       <c r="AU2">
-        <v>23955.63455988832</v>
+        <v>23955.63455988834</v>
       </c>
       <c r="AV2">
-        <v>24808.4369963948</v>
+        <v>24808.43699639481</v>
       </c>
       <c r="AW2">
-        <v>26225.46740933179</v>
+        <v>26225.46740933181</v>
       </c>
       <c r="AX2">
-        <v>26897.28256713082</v>
+        <v>26897.28256713083</v>
       </c>
       <c r="AY2">
-        <v>27485.37319191378</v>
+        <v>27485.37319191379</v>
       </c>
       <c r="AZ2">
-        <v>27447.22792734291</v>
+        <v>27447.22792734292</v>
       </c>
       <c r="BA2">
-        <v>26083.03770245015</v>
+        <v>26083.03770245016</v>
       </c>
       <c r="BB2">
-        <v>22388.86582634751</v>
+        <v>22388.86582634752</v>
       </c>
       <c r="BC2">
-        <v>20352.96991733381</v>
+        <v>20352.96991733382</v>
       </c>
       <c r="BD2">
-        <v>20147.48583745672</v>
+        <v>20147.48583745673</v>
       </c>
       <c r="BE2">
-        <v>20039.2463554786</v>
+        <v>20039.24635547861</v>
       </c>
       <c r="BF2">
         <v>19496.61431374968</v>
@@ -850,103 +850,103 @@
         <v>17159.97899389863</v>
       </c>
       <c r="BI2">
-        <v>17247.48292204331</v>
+        <v>17247.48292204332</v>
       </c>
       <c r="BJ2">
-        <v>17616.37844571431</v>
+        <v>17616.37844571432</v>
       </c>
       <c r="BK2">
-        <v>18340.06056737953</v>
+        <v>18340.06056737954</v>
       </c>
       <c r="BL2">
         <v>19127.21252160658</v>
       </c>
       <c r="BM2">
-        <v>20357.04090970596</v>
+        <v>20357.04090970597</v>
       </c>
       <c r="BN2">
-        <v>21598.44054976345</v>
+        <v>21598.44054976346</v>
       </c>
       <c r="BO2">
-        <v>23333.07636500345</v>
+        <v>23333.07636500346</v>
       </c>
       <c r="BP2">
-        <v>25812.08839672809</v>
+        <v>25812.0883967281</v>
       </c>
       <c r="BQ2">
-        <v>28694.75379988316</v>
+        <v>28694.75379988317</v>
       </c>
       <c r="BR2">
-        <v>31326.82313060462</v>
+        <v>31326.82313060464</v>
       </c>
       <c r="BS2">
-        <v>32926.6216720626</v>
+        <v>32926.62167206262</v>
       </c>
       <c r="BT2">
-        <v>34103.14701390586</v>
+        <v>34103.14701390587</v>
       </c>
       <c r="BU2">
-        <v>35176.06782469112</v>
+        <v>35176.06782469113</v>
       </c>
       <c r="BV2">
-        <v>35954.12375776895</v>
+        <v>35954.12375776898</v>
       </c>
       <c r="BW2">
-        <v>36697.26556076229</v>
+        <v>36697.26556076232</v>
       </c>
       <c r="BX2">
-        <v>36950.67588560786</v>
+        <v>36950.67588560788</v>
       </c>
       <c r="BY2">
-        <v>36513.10013517812</v>
+        <v>36513.10013517814</v>
       </c>
       <c r="BZ2">
-        <v>35177.54651700276</v>
+        <v>35177.54651700277</v>
       </c>
       <c r="CA2">
-        <v>33028.30290193242</v>
+        <v>33028.30290193245</v>
       </c>
       <c r="CB2">
-        <v>31428.16050440893</v>
+        <v>31428.16050440895</v>
       </c>
       <c r="CC2">
-        <v>30723.26722114374</v>
+        <v>30723.26722114375</v>
       </c>
       <c r="CD2">
-        <v>30382.73529692132</v>
+        <v>30382.73529692134</v>
       </c>
       <c r="CE2">
-        <v>29848.61269538124</v>
+        <v>29848.61269538126</v>
       </c>
       <c r="CF2">
         <v>28861.66150330531</v>
       </c>
       <c r="CG2">
-        <v>28380.17950886413</v>
+        <v>28380.17950886414</v>
       </c>
       <c r="CH2">
-        <v>28449.7273560152</v>
+        <v>28449.72735601521</v>
       </c>
       <c r="CI2">
-        <v>28925.26437596315</v>
+        <v>28925.26437596316</v>
       </c>
       <c r="CJ2">
-        <v>29673.3362790171</v>
+        <v>29673.33627901712</v>
       </c>
       <c r="CK2">
-        <v>30253.79904328472</v>
+        <v>30253.79904328474</v>
       </c>
       <c r="CL2">
-        <v>31479.16568765522</v>
+        <v>31479.16568765524</v>
       </c>
       <c r="CM2">
-        <v>32996.68711702753</v>
+        <v>32996.68711702755</v>
       </c>
       <c r="CN2">
-        <v>34882.51756879491</v>
+        <v>34882.51756879493</v>
       </c>
       <c r="CO2">
-        <v>37170.63068216971</v>
+        <v>37170.63068216974</v>
       </c>
     </row>
     <row r="3" spans="1:93">
@@ -956,22 +956,22 @@
         <v>3</v>
       </c>
       <c r="D3">
-        <v>70.90938680416959</v>
+        <v>70.90938680416963</v>
       </c>
       <c r="E3">
-        <v>92.70199149801209</v>
+        <v>92.70199149801213</v>
       </c>
       <c r="F3">
-        <v>92.53448024201987</v>
+        <v>92.53448024201991</v>
       </c>
       <c r="G3">
-        <v>87.86573958004239</v>
+        <v>87.86573958004243</v>
       </c>
       <c r="H3">
-        <v>118.3854490968392</v>
+        <v>118.3854490968393</v>
       </c>
       <c r="I3">
-        <v>85.05947279762727</v>
+        <v>85.05947279762729</v>
       </c>
       <c r="J3">
         <v>154.7703236052446</v>
@@ -980,7 +980,7 @@
         <v>153.6948769020162</v>
       </c>
       <c r="L3">
-        <v>136.6265926968005</v>
+        <v>136.6265926968006</v>
       </c>
       <c r="M3">
         <v>125.7086422749633</v>
@@ -998,22 +998,22 @@
         <v>354.1252670552013</v>
       </c>
       <c r="R3">
-        <v>379.6674776417628</v>
+        <v>379.6674776417629</v>
       </c>
       <c r="S3">
         <v>835.4173564758443</v>
       </c>
       <c r="T3">
-        <v>896.4368108349709</v>
+        <v>896.4368108349711</v>
       </c>
       <c r="U3">
-        <v>957.0361844250509</v>
+        <v>957.0361844250511</v>
       </c>
       <c r="V3">
         <v>1016.5088400283</v>
       </c>
       <c r="W3">
-        <v>1076.190785283038</v>
+        <v>1076.190785283039</v>
       </c>
       <c r="X3">
         <v>1078.617271961058</v>
@@ -1031,7 +1031,7 @@
         <v>1311.967955689188</v>
       </c>
       <c r="AC3">
-        <v>602.3149694070001</v>
+        <v>602.3149694070003</v>
       </c>
       <c r="AD3">
         <v>619.755583128842</v>
@@ -1040,16 +1040,16 @@
         <v>636.2386093851218</v>
       </c>
       <c r="AF3">
-        <v>652.4300800265928</v>
+        <v>652.4300800265931</v>
       </c>
       <c r="AG3">
-        <v>673.9048874753471</v>
+        <v>673.9048874753472</v>
       </c>
       <c r="AH3">
-        <v>424.2809671222625</v>
+        <v>424.2809671222626</v>
       </c>
       <c r="AI3">
-        <v>433.016386295669</v>
+        <v>433.0163862956691</v>
       </c>
       <c r="AJ3">
         <v>440.1358614781333</v>
@@ -1058,22 +1058,22 @@
         <v>442.2188791960351</v>
       </c>
       <c r="AL3">
-        <v>458.9001423221137</v>
+        <v>458.9001423221138</v>
       </c>
       <c r="AM3">
         <v>615.7985381554349</v>
       </c>
       <c r="AN3">
-        <v>659.744914515028</v>
+        <v>659.7449145150281</v>
       </c>
       <c r="AO3">
-        <v>717.2167382223327</v>
+        <v>717.2167382223328</v>
       </c>
       <c r="AP3">
         <v>805.8798429402144</v>
       </c>
       <c r="AQ3">
-        <v>923.4888703410762</v>
+        <v>923.4888703410764</v>
       </c>
       <c r="AR3">
         <v>1310.919668673436</v>
@@ -1100,7 +1100,7 @@
         <v>1849.179271152214</v>
       </c>
       <c r="AZ3">
-        <v>1846.546966245473</v>
+        <v>1846.546966245474</v>
       </c>
       <c r="BA3">
         <v>1754.098937328899</v>
@@ -1109,16 +1109,16 @@
         <v>1504.258920908922</v>
       </c>
       <c r="BC3">
-        <v>1366.218714931677</v>
+        <v>1366.218714931678</v>
       </c>
       <c r="BD3">
-        <v>1352.322671381835</v>
+        <v>1352.322671381836</v>
       </c>
       <c r="BE3">
         <v>1345.09395277579</v>
       </c>
       <c r="BF3">
-        <v>1308.498478571182</v>
+        <v>1308.498478571183</v>
       </c>
       <c r="BG3">
         <v>1196.763607881019</v>
@@ -1139,13 +1139,13 @@
         <v>1285.789335673889</v>
       </c>
       <c r="BM3">
-        <v>1370.354856543409</v>
+        <v>1370.35485654341</v>
       </c>
       <c r="BN3">
         <v>1456.135342934719</v>
       </c>
       <c r="BO3">
-        <v>1575.314912456707</v>
+        <v>1575.314912456708</v>
       </c>
       <c r="BP3">
         <v>1744.765459000656</v>
@@ -1160,7 +1160,7 @@
         <v>2227.740957437609</v>
       </c>
       <c r="BT3">
-        <v>2305.528308925397</v>
+        <v>2305.528308925398</v>
       </c>
       <c r="BU3">
         <v>2375.838496456232</v>
@@ -1172,16 +1172,16 @@
         <v>2474.668197150198</v>
       </c>
       <c r="BX3">
-        <v>2490.121560379821</v>
+        <v>2490.121560379822</v>
       </c>
       <c r="BY3">
-        <v>2458.936419104675</v>
+        <v>2458.936419104676</v>
       </c>
       <c r="BZ3">
-        <v>2367.138298508169</v>
+        <v>2367.13829850817</v>
       </c>
       <c r="CA3">
-        <v>2220.664671056119</v>
+        <v>2220.66467105612</v>
       </c>
       <c r="CB3">
         <v>2111.646954170456</v>
@@ -1193,25 +1193,25 @@
         <v>2040.522359564514</v>
       </c>
       <c r="CE3">
-        <v>2004.434062906073</v>
+        <v>2004.434062906074</v>
       </c>
       <c r="CF3">
         <v>1937.883333759397</v>
       </c>
       <c r="CG3">
-        <v>1905.414685273449</v>
+        <v>1905.41468527345</v>
       </c>
       <c r="CH3">
         <v>1910.229775106864</v>
       </c>
       <c r="CI3">
-        <v>1942.594782706592</v>
+        <v>1942.594782706593</v>
       </c>
       <c r="CJ3">
         <v>1993.624058686413</v>
       </c>
       <c r="CK3">
-        <v>2033.968684496839</v>
+        <v>2033.96868449684</v>
       </c>
       <c r="CL3">
         <v>2118.485411960369</v>
@@ -1220,10 +1220,10 @@
         <v>2223.479692478661</v>
       </c>
       <c r="CN3">
-        <v>2353.574084998528</v>
+        <v>2353.574084998529</v>
       </c>
       <c r="CO3">
-        <v>2510.730794130117</v>
+        <v>2510.730794130118</v>
       </c>
     </row>
     <row r="4" spans="1:93">
@@ -1260,10 +1260,10 @@
         <v>1525630.425851982</v>
       </c>
       <c r="M4">
-        <v>2033476.625803667</v>
+        <v>2033476.625803666</v>
       </c>
       <c r="N4">
-        <v>1924310.356061745</v>
+        <v>1924310.356061746</v>
       </c>
       <c r="O4">
         <v>1897390.052219481</v>
@@ -1287,7 +1287,7 @@
         <v>31360827.46774747</v>
       </c>
       <c r="V4">
-        <v>31422667.20646907</v>
+        <v>31422667.20646908</v>
       </c>
       <c r="W4">
         <v>31495166.69915248</v>
@@ -1305,7 +1305,7 @@
         <v>32721940.03314049</v>
       </c>
       <c r="AB4">
-        <v>32832545.97942087</v>
+        <v>32832545.97942086</v>
       </c>
       <c r="AC4">
         <v>8863960.002202947</v>
@@ -1323,31 +1323,31 @@
         <v>9419009.912967468</v>
       </c>
       <c r="AH4">
-        <v>2597011.428135785</v>
+        <v>2597011.428135784</v>
       </c>
       <c r="AI4">
-        <v>2588733.997504369</v>
+        <v>2588733.997504368</v>
       </c>
       <c r="AJ4">
-        <v>2551444.154394192</v>
+        <v>2551444.154394191</v>
       </c>
       <c r="AK4">
-        <v>2761159.697602691</v>
+        <v>2761159.69760269</v>
       </c>
       <c r="AL4">
-        <v>3126098.521997117</v>
+        <v>3126098.521997116</v>
       </c>
       <c r="AM4">
-        <v>6763425.550828609</v>
+        <v>6763425.550828607</v>
       </c>
       <c r="AN4">
-        <v>7542016.320190702</v>
+        <v>7542016.320190701</v>
       </c>
       <c r="AO4">
         <v>8591331.071588177</v>
       </c>
       <c r="AP4">
-        <v>9790409.530849416</v>
+        <v>9790409.530849414</v>
       </c>
       <c r="AQ4">
         <v>11156478.50422436</v>
@@ -1392,7 +1392,7 @@
         <v>17323877.95918376</v>
       </c>
       <c r="BE4">
-        <v>16562110.63370145</v>
+        <v>16562110.63370144</v>
       </c>
       <c r="BF4">
         <v>15764678.42771831</v>
@@ -1401,13 +1401,13 @@
         <v>14553889.16221519</v>
       </c>
       <c r="BH4">
-        <v>14025588.20277411</v>
+        <v>14025588.2027741</v>
       </c>
       <c r="BI4">
         <v>13721956.90019798</v>
       </c>
       <c r="BJ4">
-        <v>13619557.95901698</v>
+        <v>13619557.95901697</v>
       </c>
       <c r="BK4">
         <v>13731352.72049022</v>
@@ -1416,10 +1416,10 @@
         <v>13967922.97572828</v>
       </c>
       <c r="BM4">
-        <v>14626551.20374459</v>
+        <v>14626551.20374458</v>
       </c>
       <c r="BN4">
-        <v>15525175.44898785</v>
+        <v>15525175.44898784</v>
       </c>
       <c r="BO4">
         <v>16668136.12028878</v>
@@ -1437,7 +1437,7 @@
         <v>21842319.80325198</v>
       </c>
       <c r="BT4">
-        <v>22574722.84188821</v>
+        <v>22574722.8418882</v>
       </c>
       <c r="BU4">
         <v>23188721.83601094</v>
@@ -1464,22 +1464,22 @@
         <v>21751570.16274977</v>
       </c>
       <c r="CC4">
-        <v>21435535.47480934</v>
+        <v>21435535.47480933</v>
       </c>
       <c r="CD4">
-        <v>21094036.84386013</v>
+        <v>21094036.84386012</v>
       </c>
       <c r="CE4">
         <v>20696152.23164376</v>
       </c>
       <c r="CF4">
-        <v>19909164.3822103</v>
+        <v>19909164.38221029</v>
       </c>
       <c r="CG4">
         <v>19529313.27669631</v>
       </c>
       <c r="CH4">
-        <v>19266245.37442394</v>
+        <v>19266245.37442393</v>
       </c>
       <c r="CI4">
         <v>19122392.91450506</v>
@@ -1491,13 +1491,13 @@
         <v>18620493.38879933</v>
       </c>
       <c r="CL4">
-        <v>18866810.4299306</v>
+        <v>18866810.42993059</v>
       </c>
       <c r="CM4">
-        <v>19417025.11366671</v>
+        <v>19417025.1136667</v>
       </c>
       <c r="CN4">
-        <v>20204333.09945566</v>
+        <v>20204333.09945565</v>
       </c>
       <c r="CO4">
         <v>21142801.02986485</v>
@@ -1510,10 +1510,10 @@
         <v>5</v>
       </c>
       <c r="D5">
-        <v>2149532.838667813</v>
+        <v>2149532.838667815</v>
       </c>
       <c r="E5">
-        <v>1439334.420566904</v>
+        <v>1439334.420566905</v>
       </c>
       <c r="F5">
         <v>1345193.150608144</v>
@@ -1522,7 +1522,7 @@
         <v>1296163.750486817</v>
       </c>
       <c r="H5">
-        <v>1243334.252899239</v>
+        <v>1243334.25289924</v>
       </c>
       <c r="I5">
         <v>1552931.094250015</v>
@@ -1531,7 +1531,7 @@
         <v>1707359.189295775</v>
       </c>
       <c r="K5">
-        <v>1482879.837384103</v>
+        <v>1482879.837384104</v>
       </c>
       <c r="L5">
         <v>1369014.57824604</v>
@@ -1540,25 +1540,25 @@
         <v>1528379.671378293</v>
       </c>
       <c r="N5">
-        <v>1600850.013738668</v>
+        <v>1600850.013738669</v>
       </c>
       <c r="O5">
         <v>2085965.510764814</v>
       </c>
       <c r="P5">
-        <v>16271076.1281482</v>
+        <v>16271076.12814821</v>
       </c>
       <c r="Q5">
         <v>16284728.322859</v>
       </c>
       <c r="R5">
-        <v>16302729.73685572</v>
+        <v>16302729.73685571</v>
       </c>
       <c r="S5">
         <v>54128092.00405867</v>
       </c>
       <c r="T5">
-        <v>54157873.25404422</v>
+        <v>54157873.25404421</v>
       </c>
       <c r="U5">
         <v>54195273.35674228</v>
@@ -1567,70 +1567,70 @@
         <v>54241700.96520635</v>
       </c>
       <c r="W5">
-        <v>54298865.72819311</v>
+        <v>54298865.72819312</v>
       </c>
       <c r="X5">
-        <v>57166731.88792384</v>
+        <v>57166731.88792382</v>
       </c>
       <c r="Y5">
-        <v>57252695.79967796</v>
+        <v>57252695.79967797</v>
       </c>
       <c r="Z5">
-        <v>57358507.91488566</v>
+        <v>57358507.91488565</v>
       </c>
       <c r="AA5">
-        <v>57489652.27887004</v>
+        <v>57489652.27887005</v>
       </c>
       <c r="AB5">
         <v>57653645.76019484</v>
       </c>
       <c r="AC5">
-        <v>16143022.93109911</v>
+        <v>16143022.9310991</v>
       </c>
       <c r="AD5">
         <v>16406950.6753278</v>
       </c>
       <c r="AE5">
-        <v>16745890.41105182</v>
+        <v>16745890.41105181</v>
       </c>
       <c r="AF5">
         <v>17183301.06508024</v>
       </c>
       <c r="AG5">
-        <v>17748547.45804429</v>
+        <v>17748547.45804428</v>
       </c>
       <c r="AH5">
-        <v>5803218.88617176</v>
+        <v>5803218.886171757</v>
       </c>
       <c r="AI5">
-        <v>6188692.173394446</v>
+        <v>6188692.173394443</v>
       </c>
       <c r="AJ5">
-        <v>6699840.266203165</v>
+        <v>6699840.266203161</v>
       </c>
       <c r="AK5">
-        <v>7973581.232967332</v>
+        <v>7973581.23296733</v>
       </c>
       <c r="AL5">
-        <v>9570020.803111428</v>
+        <v>9570020.803111423</v>
       </c>
       <c r="AM5">
-        <v>17524959.11099282</v>
+        <v>17524959.11099281</v>
       </c>
       <c r="AN5">
         <v>20081700.91634925</v>
       </c>
       <c r="AO5">
-        <v>23010887.31217915</v>
+        <v>23010887.31217914</v>
       </c>
       <c r="AP5">
-        <v>26272798.56575978</v>
+        <v>26272798.56575977</v>
       </c>
       <c r="AQ5">
         <v>29791266.98211916</v>
       </c>
       <c r="AR5">
-        <v>41654221.64845102</v>
+        <v>41654221.64845101</v>
       </c>
       <c r="AS5">
         <v>45303215.98533519</v>
@@ -1639,22 +1639,22 @@
         <v>48760306.88660434</v>
       </c>
       <c r="AU5">
-        <v>51830038.43752577</v>
+        <v>51830038.43752576</v>
       </c>
       <c r="AV5">
         <v>54322111.15952088</v>
       </c>
       <c r="AW5">
-        <v>58472692.3716246</v>
+        <v>58472692.37162459</v>
       </c>
       <c r="AX5">
-        <v>59368859.30156515</v>
+        <v>59368859.30156516</v>
       </c>
       <c r="AY5">
         <v>59358364.28209923</v>
       </c>
       <c r="AZ5">
-        <v>58460126.90346227</v>
+        <v>58460126.90346226</v>
       </c>
       <c r="BA5">
         <v>56760636.78319851</v>
@@ -1663,7 +1663,7 @@
         <v>53006671.89718781</v>
       </c>
       <c r="BC5">
-        <v>50177550.46085942</v>
+        <v>50177550.46085941</v>
       </c>
       <c r="BD5">
         <v>47088220.96273904</v>
@@ -1675,109 +1675,109 @@
         <v>41018467.83159539</v>
       </c>
       <c r="BG5">
-        <v>37691067.86096866</v>
+        <v>37691067.86096865</v>
       </c>
       <c r="BH5">
-        <v>35693044.84293727</v>
+        <v>35693044.84293726</v>
       </c>
       <c r="BI5">
-        <v>34378530.36895725</v>
+        <v>34378530.36895724</v>
       </c>
       <c r="BJ5">
-        <v>33817111.60488763</v>
+        <v>33817111.60488761</v>
       </c>
       <c r="BK5">
-        <v>34021624.56241867</v>
+        <v>34021624.56241866</v>
       </c>
       <c r="BL5">
-        <v>34850116.43247607</v>
+        <v>34850116.43247606</v>
       </c>
       <c r="BM5">
         <v>36439939.66931158</v>
       </c>
       <c r="BN5">
-        <v>38588371.48847587</v>
+        <v>38588371.48847585</v>
       </c>
       <c r="BO5">
         <v>41183441.18766326</v>
       </c>
       <c r="BP5">
-        <v>44103578.79956143</v>
+        <v>44103578.79956141</v>
       </c>
       <c r="BQ5">
-        <v>47244646.82128804</v>
+        <v>47244646.82128803</v>
       </c>
       <c r="BR5">
         <v>50426603.23195247</v>
       </c>
       <c r="BS5">
-        <v>53543483.78486807</v>
+        <v>53543483.78486806</v>
       </c>
       <c r="BT5">
-        <v>56472692.77985345</v>
+        <v>56472692.77985344</v>
       </c>
       <c r="BU5">
-        <v>59104600.97539151</v>
+        <v>59104600.9753915</v>
       </c>
       <c r="BV5">
-        <v>61127394.08994211</v>
+        <v>61127394.0899421</v>
       </c>
       <c r="BW5">
-        <v>62908939.54431103</v>
+        <v>62908939.54431102</v>
       </c>
       <c r="BX5">
-        <v>64182541.38405156</v>
+        <v>64182541.38405155</v>
       </c>
       <c r="BY5">
-        <v>64927994.46345957</v>
+        <v>64927994.46345956</v>
       </c>
       <c r="BZ5">
-        <v>65153574.1336014</v>
+        <v>65153574.13360139</v>
       </c>
       <c r="CA5">
-        <v>64504832.92539544</v>
+        <v>64504832.92539543</v>
       </c>
       <c r="CB5">
-        <v>63825771.31465252</v>
+        <v>63825771.31465251</v>
       </c>
       <c r="CC5">
-        <v>62809046.18047366</v>
+        <v>62809046.18047363</v>
       </c>
       <c r="CD5">
         <v>61554194.76183689</v>
       </c>
       <c r="CE5">
-        <v>60170702.94803713</v>
+        <v>60170702.94803711</v>
       </c>
       <c r="CF5">
-        <v>58100990.36435437</v>
+        <v>58100990.36435436</v>
       </c>
       <c r="CG5">
         <v>56795506.81256229</v>
       </c>
       <c r="CH5">
-        <v>55683164.20569238</v>
+        <v>55683164.20569236</v>
       </c>
       <c r="CI5">
-        <v>54847502.75536454</v>
+        <v>54847502.75536451</v>
       </c>
       <c r="CJ5">
-        <v>54351834.87297692</v>
+        <v>54351834.87297691</v>
       </c>
       <c r="CK5">
-        <v>53184335.14772037</v>
+        <v>53184335.14772035</v>
       </c>
       <c r="CL5">
-        <v>53466638.35255879</v>
+        <v>53466638.35255878</v>
       </c>
       <c r="CM5">
-        <v>54140285.55674624</v>
+        <v>54140285.55674623</v>
       </c>
       <c r="CN5">
-        <v>55178064.74657325</v>
+        <v>55178064.74657322</v>
       </c>
       <c r="CO5">
-        <v>56534428.36457778</v>
+        <v>56534428.36457776</v>
       </c>
     </row>
   </sheetData>
@@ -2083,226 +2083,226 @@
         <v>1072.34614200176</v>
       </c>
       <c r="E2">
-        <v>2470.031396311326</v>
+        <v>2470.031396311327</v>
       </c>
       <c r="F2">
-        <v>3866.98335473892</v>
+        <v>3866.983354738922</v>
       </c>
       <c r="G2">
-        <v>5194.438641432762</v>
+        <v>5194.438641432765</v>
       </c>
       <c r="H2">
-        <v>6974.843183114293</v>
+        <v>6974.843183114297</v>
       </c>
       <c r="I2">
-        <v>8259.232895101057</v>
+        <v>8259.23289510106</v>
       </c>
       <c r="J2">
         <v>10583.22199605454</v>
       </c>
       <c r="K2">
-        <v>12893.46514428069</v>
+        <v>12893.4651442807</v>
       </c>
       <c r="L2">
         <v>14948.90346863307</v>
       </c>
       <c r="M2">
-        <v>16842.93601860205</v>
+        <v>16842.93601860206</v>
       </c>
       <c r="N2">
         <v>20894.39951091218</v>
       </c>
       <c r="O2">
-        <v>23350.20048292131</v>
+        <v>23350.20048292132</v>
       </c>
       <c r="P2">
-        <v>28269.97163709856</v>
+        <v>28269.97163709857</v>
       </c>
       <c r="Q2">
-        <v>33566.5448573608</v>
+        <v>33566.54485736082</v>
       </c>
       <c r="R2">
-        <v>39243.90492906224</v>
+        <v>39243.90492906225</v>
       </c>
       <c r="S2">
-        <v>51709.59444547907</v>
+        <v>51709.5944454791</v>
       </c>
       <c r="T2">
-        <v>65084.40530884956</v>
+        <v>65084.40530884958</v>
       </c>
       <c r="U2">
-        <v>79362.12168565385</v>
+        <v>79362.12168565388</v>
       </c>
       <c r="V2">
-        <v>94525.96457839673</v>
+        <v>94525.96457839676</v>
       </c>
       <c r="W2">
-        <v>110579.0257390567</v>
+        <v>110579.0257390568</v>
       </c>
       <c r="X2">
-        <v>126668.8275307006</v>
+        <v>126668.8275307007</v>
       </c>
       <c r="Y2">
-        <v>143594.9999909857</v>
+        <v>143594.9999909858</v>
       </c>
       <c r="Z2">
         <v>161379.7853306726</v>
       </c>
       <c r="AA2">
-        <v>180050.0801657388</v>
+        <v>180050.0801657389</v>
       </c>
       <c r="AB2">
         <v>199616.2603743467</v>
       </c>
       <c r="AC2">
-        <v>208614.5563272891</v>
+        <v>208614.5563272892</v>
       </c>
       <c r="AD2">
         <v>217872.6890132909</v>
       </c>
       <c r="AE2">
-        <v>227376.1463571126</v>
+        <v>227376.1463571127</v>
       </c>
       <c r="AF2">
-        <v>237120.3327581375</v>
+        <v>237120.3327581376</v>
       </c>
       <c r="AG2">
-        <v>247183.8004658963</v>
+        <v>247183.8004658964</v>
       </c>
       <c r="AH2">
-        <v>253529.7957355407</v>
+        <v>253529.7957355409</v>
       </c>
       <c r="AI2">
-        <v>260005.8590989168</v>
+        <v>260005.859098917</v>
       </c>
       <c r="AJ2">
-        <v>266588.223152064</v>
+        <v>266588.2231520641</v>
       </c>
       <c r="AK2">
-        <v>273202.0041379602</v>
+        <v>273202.0041379603</v>
       </c>
       <c r="AL2">
-        <v>280063.4793205946</v>
+        <v>280063.4793205947</v>
       </c>
       <c r="AM2">
-        <v>289258.5838580161</v>
+        <v>289258.5838580162</v>
       </c>
       <c r="AN2">
-        <v>299101.7940033105</v>
+        <v>299101.7940033106</v>
       </c>
       <c r="AO2">
-        <v>309790.0862661154</v>
+        <v>309790.0862661155</v>
       </c>
       <c r="AP2">
-        <v>321787.2966071536</v>
+        <v>321787.2966071537</v>
       </c>
       <c r="AQ2">
-        <v>335522.8746973479</v>
+        <v>335522.874697348</v>
       </c>
       <c r="AR2">
-        <v>355008.2930216054</v>
+        <v>355008.2930216055</v>
       </c>
       <c r="AS2">
-        <v>376707.6460551026</v>
+        <v>376707.6460551027</v>
       </c>
       <c r="AT2">
-        <v>399654.2557452657</v>
+        <v>399654.2557452659</v>
       </c>
       <c r="AU2">
-        <v>423609.8903051541</v>
+        <v>423609.8903051542</v>
       </c>
       <c r="AV2">
-        <v>448418.3273015489</v>
+        <v>448418.327301549</v>
       </c>
       <c r="AW2">
-        <v>474643.7947108807</v>
+        <v>474643.7947108808</v>
       </c>
       <c r="AX2">
-        <v>501541.0772780115</v>
+        <v>501541.0772780117</v>
       </c>
       <c r="AY2">
-        <v>529026.4504699253</v>
+        <v>529026.4504699254</v>
       </c>
       <c r="AZ2">
-        <v>556473.6783972682</v>
+        <v>556473.6783972683</v>
       </c>
       <c r="BA2">
-        <v>582556.7160997184</v>
+        <v>582556.7160997185</v>
       </c>
       <c r="BB2">
-        <v>604945.5819260658</v>
+        <v>604945.581926066</v>
       </c>
       <c r="BC2">
-        <v>625298.5518433996</v>
+        <v>625298.5518433998</v>
       </c>
       <c r="BD2">
-        <v>645446.0376808564</v>
+        <v>645446.0376808565</v>
       </c>
       <c r="BE2">
-        <v>665485.2840363351</v>
+        <v>665485.2840363352</v>
       </c>
       <c r="BF2">
-        <v>684981.8983500848</v>
+        <v>684981.8983500849</v>
       </c>
       <c r="BG2">
-        <v>702820.5191419966</v>
+        <v>702820.5191419967</v>
       </c>
       <c r="BH2">
-        <v>719980.4981358952</v>
+        <v>719980.4981358954</v>
       </c>
       <c r="BI2">
-        <v>737227.9810579385</v>
+        <v>737227.9810579387</v>
       </c>
       <c r="BJ2">
-        <v>754844.3595036529</v>
+        <v>754844.359503653</v>
       </c>
       <c r="BK2">
-        <v>773184.4200710325</v>
+        <v>773184.4200710326</v>
       </c>
       <c r="BL2">
-        <v>792311.6325926391</v>
+        <v>792311.6325926392</v>
       </c>
       <c r="BM2">
-        <v>812668.673502345</v>
+        <v>812668.6735023451</v>
       </c>
       <c r="BN2">
-        <v>834267.1140521085</v>
+        <v>834267.1140521086</v>
       </c>
       <c r="BO2">
-        <v>857600.190417112</v>
+        <v>857600.1904171121</v>
       </c>
       <c r="BP2">
-        <v>883412.27881384</v>
+        <v>883412.2788138401</v>
       </c>
       <c r="BQ2">
-        <v>912107.0326137232</v>
+        <v>912107.0326137233</v>
       </c>
       <c r="BR2">
-        <v>943433.8557443278</v>
+        <v>943433.8557443279</v>
       </c>
       <c r="BS2">
-        <v>976360.4774163903</v>
+        <v>976360.4774163906</v>
       </c>
       <c r="BT2">
         <v>1010463.624430296</v>
       </c>
       <c r="BU2">
-        <v>1045639.692254987</v>
+        <v>1045639.692254988</v>
       </c>
       <c r="BV2">
-        <v>1081593.816012756</v>
+        <v>1081593.816012757</v>
       </c>
       <c r="BW2">
-        <v>1118291.081573518</v>
+        <v>1118291.081573519</v>
       </c>
       <c r="BX2">
-        <v>1155241.757459126</v>
+        <v>1155241.757459127</v>
       </c>
       <c r="BY2">
-        <v>1191754.857594304</v>
+        <v>1191754.857594305</v>
       </c>
       <c r="BZ2">
-        <v>1226932.404111307</v>
+        <v>1226932.404111308</v>
       </c>
       <c r="CA2">
         <v>1259960.70701324</v>
@@ -2311,43 +2311,43 @@
         <v>1291388.867517649</v>
       </c>
       <c r="CC2">
-        <v>1322112.134738792</v>
+        <v>1322112.134738793</v>
       </c>
       <c r="CD2">
         <v>1352494.870035714</v>
       </c>
       <c r="CE2">
-        <v>1382343.482731095</v>
+        <v>1382343.482731096</v>
       </c>
       <c r="CF2">
-        <v>1411205.1442344</v>
+        <v>1411205.144234401</v>
       </c>
       <c r="CG2">
-        <v>1439585.323743264</v>
+        <v>1439585.323743265</v>
       </c>
       <c r="CH2">
         <v>1468035.05109928</v>
       </c>
       <c r="CI2">
-        <v>1496960.315475243</v>
+        <v>1496960.315475244</v>
       </c>
       <c r="CJ2">
-        <v>1526633.65175426</v>
+        <v>1526633.651754261</v>
       </c>
       <c r="CK2">
         <v>1556887.450797545</v>
       </c>
       <c r="CL2">
-        <v>1588366.6164852</v>
+        <v>1588366.616485201</v>
       </c>
       <c r="CM2">
-        <v>1621363.303602227</v>
+        <v>1621363.303602228</v>
       </c>
       <c r="CN2">
-        <v>1656245.821171022</v>
+        <v>1656245.821171023</v>
       </c>
       <c r="CO2">
-        <v>1693416.451853192</v>
+        <v>1693416.451853193</v>
       </c>
     </row>
     <row r="3" spans="1:93">
@@ -2357,31 +2357,31 @@
         <v>3</v>
       </c>
       <c r="D3">
-        <v>70.90938680416959</v>
+        <v>70.90938680416963</v>
       </c>
       <c r="E3">
-        <v>163.6113783021817</v>
+        <v>163.6113783021818</v>
       </c>
       <c r="F3">
-        <v>256.1458585442015</v>
+        <v>256.1458585442017</v>
       </c>
       <c r="G3">
-        <v>344.0115981242439</v>
+        <v>344.0115981242441</v>
       </c>
       <c r="H3">
-        <v>462.3970472210831</v>
+        <v>462.3970472210834</v>
       </c>
       <c r="I3">
-        <v>547.4565200187104</v>
+        <v>547.4565200187108</v>
       </c>
       <c r="J3">
-        <v>702.226843623955</v>
+        <v>702.2268436239553</v>
       </c>
       <c r="K3">
-        <v>855.9217205259712</v>
+        <v>855.9217205259715</v>
       </c>
       <c r="L3">
-        <v>992.5483132227716</v>
+        <v>992.5483132227721</v>
       </c>
       <c r="M3">
         <v>1118.256955497735</v>
@@ -2390,7 +2390,7 @@
         <v>1388.777808993875</v>
       </c>
       <c r="O3">
-        <v>1552.265138426557</v>
+        <v>1552.265138426558</v>
       </c>
       <c r="P3">
         <v>1881.117457048832</v>
@@ -2399,28 +2399,28 @@
         <v>2235.242724104033</v>
       </c>
       <c r="R3">
-        <v>2614.910201745795</v>
+        <v>2614.910201745796</v>
       </c>
       <c r="S3">
-        <v>3450.32755822164</v>
+        <v>3450.327558221641</v>
       </c>
       <c r="T3">
-        <v>4346.764369056611</v>
+        <v>4346.764369056612</v>
       </c>
       <c r="U3">
-        <v>5303.800553481662</v>
+        <v>5303.800553481663</v>
       </c>
       <c r="V3">
-        <v>6320.309393509961</v>
+        <v>6320.309393509962</v>
       </c>
       <c r="W3">
-        <v>7396.500178793</v>
+        <v>7396.500178793001</v>
       </c>
       <c r="X3">
-        <v>8475.117450754058</v>
+        <v>8475.11745075406</v>
       </c>
       <c r="Y3">
-        <v>9609.873677294383</v>
+        <v>9609.873677294385</v>
       </c>
       <c r="Z3">
         <v>10802.265613292</v>
@@ -2429,10 +2429,10 @@
         <v>12054.09893442683</v>
       </c>
       <c r="AB3">
-        <v>13366.06689011601</v>
+        <v>13366.06689011602</v>
       </c>
       <c r="AC3">
-        <v>13968.38185952301</v>
+        <v>13968.38185952302</v>
       </c>
       <c r="AD3">
         <v>14588.13744265186</v>
@@ -2447,7 +2447,7 @@
         <v>16550.71101953892</v>
       </c>
       <c r="AH3">
-        <v>16974.99198666118</v>
+        <v>16974.99198666119</v>
       </c>
       <c r="AI3">
         <v>17408.00837295685</v>
@@ -2456,10 +2456,10 @@
         <v>17848.14423443499</v>
       </c>
       <c r="AK3">
-        <v>18290.36311363102</v>
+        <v>18290.36311363103</v>
       </c>
       <c r="AL3">
-        <v>18749.26325595313</v>
+        <v>18749.26325595314</v>
       </c>
       <c r="AM3">
         <v>19365.06179410857</v>
@@ -2474,7 +2474,7 @@
         <v>21547.90328978615</v>
       </c>
       <c r="AQ3">
-        <v>22471.39216012722</v>
+        <v>22471.39216012723</v>
       </c>
       <c r="AR3">
         <v>23782.31182880066</v>
@@ -2486,22 +2486,22 @@
         <v>26787.11395830835</v>
       </c>
       <c r="AU3">
-        <v>28399.03598048569</v>
+        <v>28399.0359804857</v>
       </c>
       <c r="AV3">
         <v>30068.2410317161</v>
       </c>
       <c r="AW3">
-        <v>31832.58874005512</v>
+        <v>31832.58874005513</v>
       </c>
       <c r="AX3">
-        <v>33642.10556038166</v>
+        <v>33642.10556038167</v>
       </c>
       <c r="AY3">
-        <v>35491.28483153388</v>
+        <v>35491.28483153389</v>
       </c>
       <c r="AZ3">
-        <v>37337.83179777935</v>
+        <v>37337.83179777936</v>
       </c>
       <c r="BA3">
         <v>39091.93073510825</v>
@@ -2510,16 +2510,16 @@
         <v>40596.18965601717</v>
       </c>
       <c r="BC3">
-        <v>41962.40837094884</v>
+        <v>41962.40837094885</v>
       </c>
       <c r="BD3">
         <v>43314.73104233068</v>
       </c>
       <c r="BE3">
-        <v>44659.82499510646</v>
+        <v>44659.82499510647</v>
       </c>
       <c r="BF3">
-        <v>45968.32347367765</v>
+        <v>45968.32347367766</v>
       </c>
       <c r="BG3">
         <v>47165.08708155867</v>
@@ -2528,34 +2528,34 @@
         <v>48316.13320383846</v>
       </c>
       <c r="BI3">
-        <v>49473.38243030134</v>
+        <v>49473.38243030135</v>
       </c>
       <c r="BJ3">
         <v>50655.71703160489</v>
       </c>
       <c r="BK3">
-        <v>51887.32124194786</v>
+        <v>51887.32124194787</v>
       </c>
       <c r="BL3">
-        <v>53173.11057762174</v>
+        <v>53173.11057762175</v>
       </c>
       <c r="BM3">
-        <v>54543.46543416515</v>
+        <v>54543.46543416516</v>
       </c>
       <c r="BN3">
         <v>55999.60077709988</v>
       </c>
       <c r="BO3">
-        <v>57574.91568955658</v>
+        <v>57574.91568955659</v>
       </c>
       <c r="BP3">
-        <v>59319.68114855724</v>
+        <v>59319.68114855725</v>
       </c>
       <c r="BQ3">
-        <v>61261.21908086895</v>
+        <v>61261.21908086896</v>
       </c>
       <c r="BR3">
-        <v>63381.51795520164</v>
+        <v>63381.51795520165</v>
       </c>
       <c r="BS3">
         <v>65609.25891263926</v>
@@ -2637,10 +2637,10 @@
         <v>1624041.439607251</v>
       </c>
       <c r="E4">
-        <v>3082807.852041519</v>
+        <v>3082807.85204152</v>
       </c>
       <c r="F4">
-        <v>4356213.544599938</v>
+        <v>4356213.544599939</v>
       </c>
       <c r="G4">
         <v>5833233.495613215</v>
@@ -2694,7 +2694,7 @@
         <v>206191383.8899641</v>
       </c>
       <c r="X4">
-        <v>238613948.1513997</v>
+        <v>238613948.1513998</v>
       </c>
       <c r="Y4">
         <v>271124738.0920786</v>
@@ -2911,22 +2911,22 @@
         <v>5</v>
       </c>
       <c r="D5">
-        <v>2149532.838667813</v>
+        <v>2149532.838667815</v>
       </c>
       <c r="E5">
-        <v>3588867.259234717</v>
+        <v>3588867.259234719</v>
       </c>
       <c r="F5">
-        <v>4934060.409842861</v>
+        <v>4934060.409842864</v>
       </c>
       <c r="G5">
-        <v>6230224.160329678</v>
+        <v>6230224.160329681</v>
       </c>
       <c r="H5">
-        <v>7473558.413228918</v>
+        <v>7473558.413228921</v>
       </c>
       <c r="I5">
-        <v>9026489.507478934</v>
+        <v>9026489.507478936</v>
       </c>
       <c r="J5">
         <v>10733848.69677471</v>
@@ -2947,13 +2947,13 @@
         <v>18800938.30828663</v>
       </c>
       <c r="P5">
-        <v>35072014.43643483</v>
+        <v>35072014.43643484</v>
       </c>
       <c r="Q5">
-        <v>51356742.75929382</v>
+        <v>51356742.75929384</v>
       </c>
       <c r="R5">
-        <v>67659472.49614954</v>
+        <v>67659472.49614955</v>
       </c>
       <c r="S5">
         <v>121787564.5002082</v>
@@ -3001,43 +3001,43 @@
         <v>709830223.9865497</v>
       </c>
       <c r="AH5">
-        <v>715633442.8727216</v>
+        <v>715633442.8727214</v>
       </c>
       <c r="AI5">
-        <v>721822135.046116</v>
+        <v>721822135.0461159</v>
       </c>
       <c r="AJ5">
-        <v>728521975.3123192</v>
+        <v>728521975.312319</v>
       </c>
       <c r="AK5">
-        <v>736495556.5452865</v>
+        <v>736495556.5452864</v>
       </c>
       <c r="AL5">
-        <v>746065577.348398</v>
+        <v>746065577.3483979</v>
       </c>
       <c r="AM5">
-        <v>763590536.4593908</v>
+        <v>763590536.4593906</v>
       </c>
       <c r="AN5">
-        <v>783672237.3757401</v>
+        <v>783672237.3757399</v>
       </c>
       <c r="AO5">
-        <v>806683124.6879191</v>
+        <v>806683124.687919</v>
       </c>
       <c r="AP5">
-        <v>832955923.2536789</v>
+        <v>832955923.2536788</v>
       </c>
       <c r="AQ5">
-        <v>862747190.2357981</v>
+        <v>862747190.235798</v>
       </c>
       <c r="AR5">
-        <v>904401411.8842491</v>
+        <v>904401411.884249</v>
       </c>
       <c r="AS5">
-        <v>949704627.8695843</v>
+        <v>949704627.8695842</v>
       </c>
       <c r="AT5">
-        <v>998464934.7561886</v>
+        <v>998464934.7561885</v>
       </c>
       <c r="AU5">
         <v>1050294973.193714</v>
@@ -3055,7 +3055,7 @@
         <v>1281817000.308524</v>
       </c>
       <c r="AZ5">
-        <v>1340277127.211987</v>
+        <v>1340277127.211986</v>
       </c>
       <c r="BA5">
         <v>1397037763.995185</v>
@@ -3070,28 +3070,28 @@
         <v>1547310207.315971</v>
       </c>
       <c r="BE5">
-        <v>1591271911.786383</v>
+        <v>1591271911.786382</v>
       </c>
       <c r="BF5">
         <v>1632290379.617978</v>
       </c>
       <c r="BG5">
-        <v>1669981447.478947</v>
+        <v>1669981447.478946</v>
       </c>
       <c r="BH5">
-        <v>1705674492.321884</v>
+        <v>1705674492.321883</v>
       </c>
       <c r="BI5">
         <v>1740053022.690841</v>
       </c>
       <c r="BJ5">
-        <v>1773870134.295729</v>
+        <v>1773870134.295728</v>
       </c>
       <c r="BK5">
-        <v>1807891758.858148</v>
+        <v>1807891758.858147</v>
       </c>
       <c r="BL5">
-        <v>1842741875.290624</v>
+        <v>1842741875.290623</v>
       </c>
       <c r="BM5">
         <v>1879181814.959935</v>
@@ -3103,19 +3103,19 @@
         <v>1958953627.636074</v>
       </c>
       <c r="BP5">
-        <v>2003057206.435636</v>
+        <v>2003057206.435635</v>
       </c>
       <c r="BQ5">
-        <v>2050301853.256924</v>
+        <v>2050301853.256923</v>
       </c>
       <c r="BR5">
         <v>2100728456.488876</v>
       </c>
       <c r="BS5">
-        <v>2154271940.273745</v>
+        <v>2154271940.273744</v>
       </c>
       <c r="BT5">
-        <v>2210744633.053598</v>
+        <v>2210744633.053597</v>
       </c>
       <c r="BU5">
         <v>2269849234.028989</v>
@@ -3127,7 +3127,7 @@
         <v>2393885567.663242</v>
       </c>
       <c r="BX5">
-        <v>2458068109.047294</v>
+        <v>2458068109.047293</v>
       </c>
       <c r="BY5">
         <v>2522996103.510753</v>
@@ -3136,7 +3136,7 @@
         <v>2588149677.644354</v>
       </c>
       <c r="CA5">
-        <v>2652654510.56975</v>
+        <v>2652654510.569749</v>
       </c>
       <c r="CB5">
         <v>2716480281.884402</v>
@@ -3151,34 +3151,34 @@
         <v>2901014225.77475</v>
       </c>
       <c r="CF5">
-        <v>2959115216.139105</v>
+        <v>2959115216.139104</v>
       </c>
       <c r="CG5">
-        <v>3015910722.951667</v>
+        <v>3015910722.951666</v>
       </c>
       <c r="CH5">
-        <v>3071593887.15736</v>
+        <v>3071593887.157359</v>
       </c>
       <c r="CI5">
-        <v>3126441389.912724</v>
+        <v>3126441389.912723</v>
       </c>
       <c r="CJ5">
-        <v>3180793224.785701</v>
+        <v>3180793224.7857</v>
       </c>
       <c r="CK5">
-        <v>3233977559.933421</v>
+        <v>3233977559.93342</v>
       </c>
       <c r="CL5">
-        <v>3287444198.28598</v>
+        <v>3287444198.285979</v>
       </c>
       <c r="CM5">
-        <v>3341584483.842726</v>
+        <v>3341584483.842725</v>
       </c>
       <c r="CN5">
-        <v>3396762548.589299</v>
+        <v>3396762548.589298</v>
       </c>
       <c r="CO5">
-        <v>3453296976.953877</v>
+        <v>3453296976.953876</v>
       </c>
     </row>
   </sheetData>

--- a/Results/Baseline/Lifetime/Results_world_base_life_Max.xlsx
+++ b/Results/Baseline/Lifetime/Results_world_base_life_Max.xlsx
@@ -682,43 +682,43 @@
         <v>1072.34614200176</v>
       </c>
       <c r="E2">
-        <v>1397.685254309567</v>
+        <v>1397.685254309566</v>
       </c>
       <c r="F2">
-        <v>1396.951958427595</v>
+        <v>1396.951958427594</v>
       </c>
       <c r="G2">
-        <v>1327.455286693843</v>
+        <v>1327.455286693842</v>
       </c>
       <c r="H2">
-        <v>1780.404541681533</v>
+        <v>1780.404541681532</v>
       </c>
       <c r="I2">
         <v>1284.389711986763</v>
       </c>
       <c r="J2">
-        <v>2323.989100953484</v>
+        <v>2323.989100953482</v>
       </c>
       <c r="K2">
-        <v>2310.243148226153</v>
+        <v>2310.243148226151</v>
       </c>
       <c r="L2">
-        <v>2055.438324352377</v>
+        <v>2055.438324352376</v>
       </c>
       <c r="M2">
         <v>1894.032549968986</v>
       </c>
       <c r="N2">
-        <v>4051.463492310124</v>
+        <v>4051.463492310125</v>
       </c>
       <c r="O2">
-        <v>2455.800972009135</v>
+        <v>2455.800972009134</v>
       </c>
       <c r="P2">
-        <v>4919.771154177251</v>
+        <v>4919.771154177249</v>
       </c>
       <c r="Q2">
-        <v>5296.573220262242</v>
+        <v>5296.573220262241</v>
       </c>
       <c r="R2">
         <v>5677.360071701432</v>
@@ -727,7 +727,7 @@
         <v>12465.68951641684</v>
       </c>
       <c r="T2">
-        <v>13374.81086337049</v>
+        <v>13374.81086337048</v>
       </c>
       <c r="U2">
         <v>14277.7163768043</v>
@@ -736,58 +736,58 @@
         <v>15163.84289274288</v>
       </c>
       <c r="W2">
-        <v>16053.06116066001</v>
+        <v>16053.06116066</v>
       </c>
       <c r="X2">
-        <v>16089.8017916439</v>
+        <v>16089.80179164389</v>
       </c>
       <c r="Y2">
-        <v>16926.17246028509</v>
+        <v>16926.17246028508</v>
       </c>
       <c r="Z2">
-        <v>17784.78533968688</v>
+        <v>17784.78533968687</v>
       </c>
       <c r="AA2">
-        <v>18670.29483506626</v>
+        <v>18670.29483506624</v>
       </c>
       <c r="AB2">
-        <v>19566.18020860786</v>
+        <v>19566.18020860785</v>
       </c>
       <c r="AC2">
-        <v>8998.295952942441</v>
+        <v>8998.295952942437</v>
       </c>
       <c r="AD2">
-        <v>9258.132686001753</v>
+        <v>9258.132686001751</v>
       </c>
       <c r="AE2">
-        <v>9503.457343821749</v>
+        <v>9503.457343821743</v>
       </c>
       <c r="AF2">
-        <v>9744.186401024916</v>
+        <v>9744.186401024912</v>
       </c>
       <c r="AG2">
         <v>10063.46770775881</v>
       </c>
       <c r="AH2">
-        <v>6345.995269644422</v>
+        <v>6345.99526964442</v>
       </c>
       <c r="AI2">
-        <v>6476.063363376128</v>
+        <v>6476.063363376126</v>
       </c>
       <c r="AJ2">
-        <v>6582.364053147162</v>
+        <v>6582.364053147158</v>
       </c>
       <c r="AK2">
-        <v>6613.780985896197</v>
+        <v>6613.780985896195</v>
       </c>
       <c r="AL2">
-        <v>6861.475182634369</v>
+        <v>6861.475182634366</v>
       </c>
       <c r="AM2">
-        <v>9195.10453742151</v>
+        <v>9195.104537421506</v>
       </c>
       <c r="AN2">
-        <v>9843.210145294428</v>
+        <v>9843.210145294424</v>
       </c>
       <c r="AO2">
         <v>10688.29226280494</v>
@@ -799,46 +799,46 @@
         <v>13735.57809019433</v>
       </c>
       <c r="AR2">
-        <v>19485.41832425742</v>
+        <v>19485.41832425741</v>
       </c>
       <c r="AS2">
-        <v>21699.35303349723</v>
+        <v>21699.35303349722</v>
       </c>
       <c r="AT2">
-        <v>22946.60969016317</v>
+        <v>22946.60969016316</v>
       </c>
       <c r="AU2">
-        <v>23955.63455988834</v>
+        <v>23955.63455988832</v>
       </c>
       <c r="AV2">
-        <v>24808.43699639481</v>
+        <v>24808.4369963948</v>
       </c>
       <c r="AW2">
-        <v>26225.46740933181</v>
+        <v>26225.46740933179</v>
       </c>
       <c r="AX2">
-        <v>26897.28256713083</v>
+        <v>26897.28256713082</v>
       </c>
       <c r="AY2">
-        <v>27485.37319191379</v>
+        <v>27485.37319191378</v>
       </c>
       <c r="AZ2">
-        <v>27447.22792734292</v>
+        <v>27447.22792734291</v>
       </c>
       <c r="BA2">
-        <v>26083.03770245016</v>
+        <v>26083.03770245015</v>
       </c>
       <c r="BB2">
-        <v>22388.86582634752</v>
+        <v>22388.86582634751</v>
       </c>
       <c r="BC2">
-        <v>20352.96991733382</v>
+        <v>20352.96991733381</v>
       </c>
       <c r="BD2">
-        <v>20147.48583745673</v>
+        <v>20147.48583745672</v>
       </c>
       <c r="BE2">
-        <v>20039.24635547861</v>
+        <v>20039.2463554786</v>
       </c>
       <c r="BF2">
         <v>19496.61431374968</v>
@@ -850,103 +850,103 @@
         <v>17159.97899389863</v>
       </c>
       <c r="BI2">
-        <v>17247.48292204332</v>
+        <v>17247.48292204331</v>
       </c>
       <c r="BJ2">
-        <v>17616.37844571432</v>
+        <v>17616.37844571431</v>
       </c>
       <c r="BK2">
-        <v>18340.06056737954</v>
+        <v>18340.06056737953</v>
       </c>
       <c r="BL2">
         <v>19127.21252160658</v>
       </c>
       <c r="BM2">
-        <v>20357.04090970597</v>
+        <v>20357.04090970596</v>
       </c>
       <c r="BN2">
-        <v>21598.44054976346</v>
+        <v>21598.44054976345</v>
       </c>
       <c r="BO2">
-        <v>23333.07636500346</v>
+        <v>23333.07636500345</v>
       </c>
       <c r="BP2">
-        <v>25812.0883967281</v>
+        <v>25812.08839672809</v>
       </c>
       <c r="BQ2">
-        <v>28694.75379988317</v>
+        <v>28694.75379988316</v>
       </c>
       <c r="BR2">
-        <v>31326.82313060464</v>
+        <v>31326.82313060462</v>
       </c>
       <c r="BS2">
-        <v>32926.62167206262</v>
+        <v>32926.6216720626</v>
       </c>
       <c r="BT2">
-        <v>34103.14701390587</v>
+        <v>34103.14701390586</v>
       </c>
       <c r="BU2">
-        <v>35176.06782469113</v>
+        <v>35176.06782469112</v>
       </c>
       <c r="BV2">
-        <v>35954.12375776898</v>
+        <v>35954.12375776895</v>
       </c>
       <c r="BW2">
-        <v>36697.26556076232</v>
+        <v>36697.26556076229</v>
       </c>
       <c r="BX2">
-        <v>36950.67588560788</v>
+        <v>36950.67588560786</v>
       </c>
       <c r="BY2">
-        <v>36513.10013517814</v>
+        <v>36513.10013517812</v>
       </c>
       <c r="BZ2">
-        <v>35177.54651700277</v>
+        <v>35177.54651700276</v>
       </c>
       <c r="CA2">
-        <v>33028.30290193245</v>
+        <v>33028.30290193242</v>
       </c>
       <c r="CB2">
-        <v>31428.16050440895</v>
+        <v>31428.16050440893</v>
       </c>
       <c r="CC2">
-        <v>30723.26722114375</v>
+        <v>30723.26722114374</v>
       </c>
       <c r="CD2">
-        <v>30382.73529692134</v>
+        <v>30382.73529692132</v>
       </c>
       <c r="CE2">
-        <v>29848.61269538126</v>
+        <v>29848.61269538124</v>
       </c>
       <c r="CF2">
         <v>28861.66150330531</v>
       </c>
       <c r="CG2">
-        <v>28380.17950886414</v>
+        <v>28380.17950886413</v>
       </c>
       <c r="CH2">
-        <v>28449.72735601521</v>
+        <v>28449.7273560152</v>
       </c>
       <c r="CI2">
-        <v>28925.26437596316</v>
+        <v>28925.26437596315</v>
       </c>
       <c r="CJ2">
-        <v>29673.33627901712</v>
+        <v>29673.3362790171</v>
       </c>
       <c r="CK2">
-        <v>30253.79904328474</v>
+        <v>30253.79904328472</v>
       </c>
       <c r="CL2">
-        <v>31479.16568765524</v>
+        <v>31479.16568765522</v>
       </c>
       <c r="CM2">
-        <v>32996.68711702755</v>
+        <v>32996.68711702753</v>
       </c>
       <c r="CN2">
-        <v>34882.51756879493</v>
+        <v>34882.51756879491</v>
       </c>
       <c r="CO2">
-        <v>37170.63068216974</v>
+        <v>37170.63068216971</v>
       </c>
     </row>
     <row r="3" spans="1:93">
@@ -956,22 +956,22 @@
         <v>3</v>
       </c>
       <c r="D3">
-        <v>70.90938680416963</v>
+        <v>70.90938680416959</v>
       </c>
       <c r="E3">
-        <v>92.70199149801213</v>
+        <v>92.70199149801209</v>
       </c>
       <c r="F3">
-        <v>92.53448024201991</v>
+        <v>92.53448024201987</v>
       </c>
       <c r="G3">
-        <v>87.86573958004243</v>
+        <v>87.86573958004239</v>
       </c>
       <c r="H3">
-        <v>118.3854490968393</v>
+        <v>118.3854490968392</v>
       </c>
       <c r="I3">
-        <v>85.05947279762729</v>
+        <v>85.05947279762727</v>
       </c>
       <c r="J3">
         <v>154.7703236052446</v>
@@ -980,7 +980,7 @@
         <v>153.6948769020162</v>
       </c>
       <c r="L3">
-        <v>136.6265926968006</v>
+        <v>136.6265926968005</v>
       </c>
       <c r="M3">
         <v>125.7086422749633</v>
@@ -998,22 +998,22 @@
         <v>354.1252670552013</v>
       </c>
       <c r="R3">
-        <v>379.6674776417629</v>
+        <v>379.6674776417628</v>
       </c>
       <c r="S3">
         <v>835.4173564758443</v>
       </c>
       <c r="T3">
-        <v>896.4368108349711</v>
+        <v>896.4368108349709</v>
       </c>
       <c r="U3">
-        <v>957.0361844250511</v>
+        <v>957.0361844250509</v>
       </c>
       <c r="V3">
         <v>1016.5088400283</v>
       </c>
       <c r="W3">
-        <v>1076.190785283039</v>
+        <v>1076.190785283038</v>
       </c>
       <c r="X3">
         <v>1078.617271961058</v>
@@ -1031,7 +1031,7 @@
         <v>1311.967955689188</v>
       </c>
       <c r="AC3">
-        <v>602.3149694070003</v>
+        <v>602.3149694070001</v>
       </c>
       <c r="AD3">
         <v>619.755583128842</v>
@@ -1040,16 +1040,16 @@
         <v>636.2386093851218</v>
       </c>
       <c r="AF3">
-        <v>652.4300800265931</v>
+        <v>652.4300800265928</v>
       </c>
       <c r="AG3">
-        <v>673.9048874753472</v>
+        <v>673.9048874753471</v>
       </c>
       <c r="AH3">
-        <v>424.2809671222626</v>
+        <v>424.2809671222625</v>
       </c>
       <c r="AI3">
-        <v>433.0163862956691</v>
+        <v>433.016386295669</v>
       </c>
       <c r="AJ3">
         <v>440.1358614781333</v>
@@ -1058,22 +1058,22 @@
         <v>442.2188791960351</v>
       </c>
       <c r="AL3">
-        <v>458.9001423221138</v>
+        <v>458.9001423221137</v>
       </c>
       <c r="AM3">
         <v>615.7985381554349</v>
       </c>
       <c r="AN3">
-        <v>659.7449145150281</v>
+        <v>659.744914515028</v>
       </c>
       <c r="AO3">
-        <v>717.2167382223328</v>
+        <v>717.2167382223327</v>
       </c>
       <c r="AP3">
         <v>805.8798429402144</v>
       </c>
       <c r="AQ3">
-        <v>923.4888703410764</v>
+        <v>923.4888703410762</v>
       </c>
       <c r="AR3">
         <v>1310.919668673436</v>
@@ -1100,7 +1100,7 @@
         <v>1849.179271152214</v>
       </c>
       <c r="AZ3">
-        <v>1846.546966245474</v>
+        <v>1846.546966245473</v>
       </c>
       <c r="BA3">
         <v>1754.098937328899</v>
@@ -1109,16 +1109,16 @@
         <v>1504.258920908922</v>
       </c>
       <c r="BC3">
-        <v>1366.218714931678</v>
+        <v>1366.218714931677</v>
       </c>
       <c r="BD3">
-        <v>1352.322671381836</v>
+        <v>1352.322671381835</v>
       </c>
       <c r="BE3">
         <v>1345.09395277579</v>
       </c>
       <c r="BF3">
-        <v>1308.498478571183</v>
+        <v>1308.498478571182</v>
       </c>
       <c r="BG3">
         <v>1196.763607881019</v>
@@ -1139,13 +1139,13 @@
         <v>1285.789335673889</v>
       </c>
       <c r="BM3">
-        <v>1370.35485654341</v>
+        <v>1370.354856543409</v>
       </c>
       <c r="BN3">
         <v>1456.135342934719</v>
       </c>
       <c r="BO3">
-        <v>1575.314912456708</v>
+        <v>1575.314912456707</v>
       </c>
       <c r="BP3">
         <v>1744.765459000656</v>
@@ -1160,7 +1160,7 @@
         <v>2227.740957437609</v>
       </c>
       <c r="BT3">
-        <v>2305.528308925398</v>
+        <v>2305.528308925397</v>
       </c>
       <c r="BU3">
         <v>2375.838496456232</v>
@@ -1172,16 +1172,16 @@
         <v>2474.668197150198</v>
       </c>
       <c r="BX3">
-        <v>2490.121560379822</v>
+        <v>2490.121560379821</v>
       </c>
       <c r="BY3">
-        <v>2458.936419104676</v>
+        <v>2458.936419104675</v>
       </c>
       <c r="BZ3">
-        <v>2367.13829850817</v>
+        <v>2367.138298508169</v>
       </c>
       <c r="CA3">
-        <v>2220.66467105612</v>
+        <v>2220.664671056119</v>
       </c>
       <c r="CB3">
         <v>2111.646954170456</v>
@@ -1193,25 +1193,25 @@
         <v>2040.522359564514</v>
       </c>
       <c r="CE3">
-        <v>2004.434062906074</v>
+        <v>2004.434062906073</v>
       </c>
       <c r="CF3">
         <v>1937.883333759397</v>
       </c>
       <c r="CG3">
-        <v>1905.41468527345</v>
+        <v>1905.414685273449</v>
       </c>
       <c r="CH3">
         <v>1910.229775106864</v>
       </c>
       <c r="CI3">
-        <v>1942.594782706593</v>
+        <v>1942.594782706592</v>
       </c>
       <c r="CJ3">
         <v>1993.624058686413</v>
       </c>
       <c r="CK3">
-        <v>2033.96868449684</v>
+        <v>2033.968684496839</v>
       </c>
       <c r="CL3">
         <v>2118.485411960369</v>
@@ -1220,10 +1220,10 @@
         <v>2223.479692478661</v>
       </c>
       <c r="CN3">
-        <v>2353.574084998529</v>
+        <v>2353.574084998528</v>
       </c>
       <c r="CO3">
-        <v>2510.730794130118</v>
+        <v>2510.730794130117</v>
       </c>
     </row>
     <row r="4" spans="1:93">
@@ -1260,10 +1260,10 @@
         <v>1525630.425851982</v>
       </c>
       <c r="M4">
-        <v>2033476.625803666</v>
+        <v>2033476.625803667</v>
       </c>
       <c r="N4">
-        <v>1924310.356061746</v>
+        <v>1924310.356061745</v>
       </c>
       <c r="O4">
         <v>1897390.052219481</v>
@@ -1287,7 +1287,7 @@
         <v>31360827.46774747</v>
       </c>
       <c r="V4">
-        <v>31422667.20646908</v>
+        <v>31422667.20646907</v>
       </c>
       <c r="W4">
         <v>31495166.69915248</v>
@@ -1305,7 +1305,7 @@
         <v>32721940.03314049</v>
       </c>
       <c r="AB4">
-        <v>32832545.97942086</v>
+        <v>32832545.97942087</v>
       </c>
       <c r="AC4">
         <v>8863960.002202947</v>
@@ -1323,31 +1323,31 @@
         <v>9419009.912967468</v>
       </c>
       <c r="AH4">
-        <v>2597011.428135784</v>
+        <v>2597011.428135785</v>
       </c>
       <c r="AI4">
-        <v>2588733.997504368</v>
+        <v>2588733.997504369</v>
       </c>
       <c r="AJ4">
-        <v>2551444.154394191</v>
+        <v>2551444.154394192</v>
       </c>
       <c r="AK4">
-        <v>2761159.69760269</v>
+        <v>2761159.697602691</v>
       </c>
       <c r="AL4">
-        <v>3126098.521997116</v>
+        <v>3126098.521997117</v>
       </c>
       <c r="AM4">
-        <v>6763425.550828607</v>
+        <v>6763425.550828609</v>
       </c>
       <c r="AN4">
-        <v>7542016.320190701</v>
+        <v>7542016.320190702</v>
       </c>
       <c r="AO4">
         <v>8591331.071588177</v>
       </c>
       <c r="AP4">
-        <v>9790409.530849414</v>
+        <v>9790409.530849416</v>
       </c>
       <c r="AQ4">
         <v>11156478.50422436</v>
@@ -1392,7 +1392,7 @@
         <v>17323877.95918376</v>
       </c>
       <c r="BE4">
-        <v>16562110.63370144</v>
+        <v>16562110.63370145</v>
       </c>
       <c r="BF4">
         <v>15764678.42771831</v>
@@ -1401,13 +1401,13 @@
         <v>14553889.16221519</v>
       </c>
       <c r="BH4">
-        <v>14025588.2027741</v>
+        <v>14025588.20277411</v>
       </c>
       <c r="BI4">
         <v>13721956.90019798</v>
       </c>
       <c r="BJ4">
-        <v>13619557.95901697</v>
+        <v>13619557.95901698</v>
       </c>
       <c r="BK4">
         <v>13731352.72049022</v>
@@ -1416,10 +1416,10 @@
         <v>13967922.97572828</v>
       </c>
       <c r="BM4">
-        <v>14626551.20374458</v>
+        <v>14626551.20374459</v>
       </c>
       <c r="BN4">
-        <v>15525175.44898784</v>
+        <v>15525175.44898785</v>
       </c>
       <c r="BO4">
         <v>16668136.12028878</v>
@@ -1437,7 +1437,7 @@
         <v>21842319.80325198</v>
       </c>
       <c r="BT4">
-        <v>22574722.8418882</v>
+        <v>22574722.84188821</v>
       </c>
       <c r="BU4">
         <v>23188721.83601094</v>
@@ -1464,22 +1464,22 @@
         <v>21751570.16274977</v>
       </c>
       <c r="CC4">
-        <v>21435535.47480933</v>
+        <v>21435535.47480934</v>
       </c>
       <c r="CD4">
-        <v>21094036.84386012</v>
+        <v>21094036.84386013</v>
       </c>
       <c r="CE4">
         <v>20696152.23164376</v>
       </c>
       <c r="CF4">
-        <v>19909164.38221029</v>
+        <v>19909164.3822103</v>
       </c>
       <c r="CG4">
         <v>19529313.27669631</v>
       </c>
       <c r="CH4">
-        <v>19266245.37442393</v>
+        <v>19266245.37442394</v>
       </c>
       <c r="CI4">
         <v>19122392.91450506</v>
@@ -1491,13 +1491,13 @@
         <v>18620493.38879933</v>
       </c>
       <c r="CL4">
-        <v>18866810.42993059</v>
+        <v>18866810.4299306</v>
       </c>
       <c r="CM4">
-        <v>19417025.1136667</v>
+        <v>19417025.11366671</v>
       </c>
       <c r="CN4">
-        <v>20204333.09945565</v>
+        <v>20204333.09945566</v>
       </c>
       <c r="CO4">
         <v>21142801.02986485</v>
@@ -1510,10 +1510,10 @@
         <v>5</v>
       </c>
       <c r="D5">
-        <v>2149532.838667815</v>
+        <v>2149532.838667813</v>
       </c>
       <c r="E5">
-        <v>1439334.420566905</v>
+        <v>1439334.420566904</v>
       </c>
       <c r="F5">
         <v>1345193.150608144</v>
@@ -1522,7 +1522,7 @@
         <v>1296163.750486817</v>
       </c>
       <c r="H5">
-        <v>1243334.25289924</v>
+        <v>1243334.252899239</v>
       </c>
       <c r="I5">
         <v>1552931.094250015</v>
@@ -1531,7 +1531,7 @@
         <v>1707359.189295775</v>
       </c>
       <c r="K5">
-        <v>1482879.837384104</v>
+        <v>1482879.837384103</v>
       </c>
       <c r="L5">
         <v>1369014.57824604</v>
@@ -1540,25 +1540,25 @@
         <v>1528379.671378293</v>
       </c>
       <c r="N5">
-        <v>1600850.013738669</v>
+        <v>1600850.013738668</v>
       </c>
       <c r="O5">
         <v>2085965.510764814</v>
       </c>
       <c r="P5">
-        <v>16271076.12814821</v>
+        <v>16271076.1281482</v>
       </c>
       <c r="Q5">
         <v>16284728.322859</v>
       </c>
       <c r="R5">
-        <v>16302729.73685571</v>
+        <v>16302729.73685572</v>
       </c>
       <c r="S5">
         <v>54128092.00405867</v>
       </c>
       <c r="T5">
-        <v>54157873.25404421</v>
+        <v>54157873.25404422</v>
       </c>
       <c r="U5">
         <v>54195273.35674228</v>
@@ -1567,70 +1567,70 @@
         <v>54241700.96520635</v>
       </c>
       <c r="W5">
-        <v>54298865.72819312</v>
+        <v>54298865.72819311</v>
       </c>
       <c r="X5">
-        <v>57166731.88792382</v>
+        <v>57166731.88792384</v>
       </c>
       <c r="Y5">
-        <v>57252695.79967797</v>
+        <v>57252695.79967796</v>
       </c>
       <c r="Z5">
-        <v>57358507.91488565</v>
+        <v>57358507.91488566</v>
       </c>
       <c r="AA5">
-        <v>57489652.27887005</v>
+        <v>57489652.27887004</v>
       </c>
       <c r="AB5">
         <v>57653645.76019484</v>
       </c>
       <c r="AC5">
-        <v>16143022.9310991</v>
+        <v>16143022.93109911</v>
       </c>
       <c r="AD5">
         <v>16406950.6753278</v>
       </c>
       <c r="AE5">
-        <v>16745890.41105181</v>
+        <v>16745890.41105182</v>
       </c>
       <c r="AF5">
         <v>17183301.06508024</v>
       </c>
       <c r="AG5">
-        <v>17748547.45804428</v>
+        <v>17748547.45804429</v>
       </c>
       <c r="AH5">
-        <v>5803218.886171757</v>
+        <v>5803218.88617176</v>
       </c>
       <c r="AI5">
-        <v>6188692.173394443</v>
+        <v>6188692.173394446</v>
       </c>
       <c r="AJ5">
-        <v>6699840.266203161</v>
+        <v>6699840.266203165</v>
       </c>
       <c r="AK5">
-        <v>7973581.23296733</v>
+        <v>7973581.232967332</v>
       </c>
       <c r="AL5">
-        <v>9570020.803111423</v>
+        <v>9570020.803111428</v>
       </c>
       <c r="AM5">
-        <v>17524959.11099281</v>
+        <v>17524959.11099282</v>
       </c>
       <c r="AN5">
         <v>20081700.91634925</v>
       </c>
       <c r="AO5">
-        <v>23010887.31217914</v>
+        <v>23010887.31217915</v>
       </c>
       <c r="AP5">
-        <v>26272798.56575977</v>
+        <v>26272798.56575978</v>
       </c>
       <c r="AQ5">
         <v>29791266.98211916</v>
       </c>
       <c r="AR5">
-        <v>41654221.64845101</v>
+        <v>41654221.64845102</v>
       </c>
       <c r="AS5">
         <v>45303215.98533519</v>
@@ -1639,22 +1639,22 @@
         <v>48760306.88660434</v>
       </c>
       <c r="AU5">
-        <v>51830038.43752576</v>
+        <v>51830038.43752577</v>
       </c>
       <c r="AV5">
         <v>54322111.15952088</v>
       </c>
       <c r="AW5">
-        <v>58472692.37162459</v>
+        <v>58472692.3716246</v>
       </c>
       <c r="AX5">
-        <v>59368859.30156516</v>
+        <v>59368859.30156515</v>
       </c>
       <c r="AY5">
         <v>59358364.28209923</v>
       </c>
       <c r="AZ5">
-        <v>58460126.90346226</v>
+        <v>58460126.90346227</v>
       </c>
       <c r="BA5">
         <v>56760636.78319851</v>
@@ -1663,7 +1663,7 @@
         <v>53006671.89718781</v>
       </c>
       <c r="BC5">
-        <v>50177550.46085941</v>
+        <v>50177550.46085942</v>
       </c>
       <c r="BD5">
         <v>47088220.96273904</v>
@@ -1675,109 +1675,109 @@
         <v>41018467.83159539</v>
       </c>
       <c r="BG5">
-        <v>37691067.86096865</v>
+        <v>37691067.86096866</v>
       </c>
       <c r="BH5">
-        <v>35693044.84293726</v>
+        <v>35693044.84293727</v>
       </c>
       <c r="BI5">
-        <v>34378530.36895724</v>
+        <v>34378530.36895725</v>
       </c>
       <c r="BJ5">
-        <v>33817111.60488761</v>
+        <v>33817111.60488763</v>
       </c>
       <c r="BK5">
-        <v>34021624.56241866</v>
+        <v>34021624.56241867</v>
       </c>
       <c r="BL5">
-        <v>34850116.43247606</v>
+        <v>34850116.43247607</v>
       </c>
       <c r="BM5">
         <v>36439939.66931158</v>
       </c>
       <c r="BN5">
-        <v>38588371.48847585</v>
+        <v>38588371.48847587</v>
       </c>
       <c r="BO5">
         <v>41183441.18766326</v>
       </c>
       <c r="BP5">
-        <v>44103578.79956141</v>
+        <v>44103578.79956143</v>
       </c>
       <c r="BQ5">
-        <v>47244646.82128803</v>
+        <v>47244646.82128804</v>
       </c>
       <c r="BR5">
         <v>50426603.23195247</v>
       </c>
       <c r="BS5">
-        <v>53543483.78486806</v>
+        <v>53543483.78486807</v>
       </c>
       <c r="BT5">
-        <v>56472692.77985344</v>
+        <v>56472692.77985345</v>
       </c>
       <c r="BU5">
-        <v>59104600.9753915</v>
+        <v>59104600.97539151</v>
       </c>
       <c r="BV5">
-        <v>61127394.0899421</v>
+        <v>61127394.08994211</v>
       </c>
       <c r="BW5">
-        <v>62908939.54431102</v>
+        <v>62908939.54431103</v>
       </c>
       <c r="BX5">
-        <v>64182541.38405155</v>
+        <v>64182541.38405156</v>
       </c>
       <c r="BY5">
-        <v>64927994.46345956</v>
+        <v>64927994.46345957</v>
       </c>
       <c r="BZ5">
-        <v>65153574.13360139</v>
+        <v>65153574.1336014</v>
       </c>
       <c r="CA5">
-        <v>64504832.92539543</v>
+        <v>64504832.92539544</v>
       </c>
       <c r="CB5">
-        <v>63825771.31465251</v>
+        <v>63825771.31465252</v>
       </c>
       <c r="CC5">
-        <v>62809046.18047363</v>
+        <v>62809046.18047366</v>
       </c>
       <c r="CD5">
         <v>61554194.76183689</v>
       </c>
       <c r="CE5">
-        <v>60170702.94803711</v>
+        <v>60170702.94803713</v>
       </c>
       <c r="CF5">
-        <v>58100990.36435436</v>
+        <v>58100990.36435437</v>
       </c>
       <c r="CG5">
         <v>56795506.81256229</v>
       </c>
       <c r="CH5">
-        <v>55683164.20569236</v>
+        <v>55683164.20569238</v>
       </c>
       <c r="CI5">
-        <v>54847502.75536451</v>
+        <v>54847502.75536454</v>
       </c>
       <c r="CJ5">
-        <v>54351834.87297691</v>
+        <v>54351834.87297692</v>
       </c>
       <c r="CK5">
-        <v>53184335.14772035</v>
+        <v>53184335.14772037</v>
       </c>
       <c r="CL5">
-        <v>53466638.35255878</v>
+        <v>53466638.35255879</v>
       </c>
       <c r="CM5">
-        <v>54140285.55674623</v>
+        <v>54140285.55674624</v>
       </c>
       <c r="CN5">
-        <v>55178064.74657322</v>
+        <v>55178064.74657325</v>
       </c>
       <c r="CO5">
-        <v>56534428.36457776</v>
+        <v>56534428.36457778</v>
       </c>
     </row>
   </sheetData>
@@ -2083,226 +2083,226 @@
         <v>1072.34614200176</v>
       </c>
       <c r="E2">
-        <v>2470.031396311327</v>
+        <v>2470.031396311326</v>
       </c>
       <c r="F2">
-        <v>3866.983354738922</v>
+        <v>3866.98335473892</v>
       </c>
       <c r="G2">
-        <v>5194.438641432765</v>
+        <v>5194.438641432762</v>
       </c>
       <c r="H2">
-        <v>6974.843183114297</v>
+        <v>6974.843183114293</v>
       </c>
       <c r="I2">
-        <v>8259.23289510106</v>
+        <v>8259.232895101057</v>
       </c>
       <c r="J2">
         <v>10583.22199605454</v>
       </c>
       <c r="K2">
-        <v>12893.4651442807</v>
+        <v>12893.46514428069</v>
       </c>
       <c r="L2">
         <v>14948.90346863307</v>
       </c>
       <c r="M2">
-        <v>16842.93601860206</v>
+        <v>16842.93601860205</v>
       </c>
       <c r="N2">
         <v>20894.39951091218</v>
       </c>
       <c r="O2">
-        <v>23350.20048292132</v>
+        <v>23350.20048292131</v>
       </c>
       <c r="P2">
-        <v>28269.97163709857</v>
+        <v>28269.97163709856</v>
       </c>
       <c r="Q2">
-        <v>33566.54485736082</v>
+        <v>33566.5448573608</v>
       </c>
       <c r="R2">
-        <v>39243.90492906225</v>
+        <v>39243.90492906224</v>
       </c>
       <c r="S2">
-        <v>51709.5944454791</v>
+        <v>51709.59444547907</v>
       </c>
       <c r="T2">
-        <v>65084.40530884958</v>
+        <v>65084.40530884956</v>
       </c>
       <c r="U2">
-        <v>79362.12168565388</v>
+        <v>79362.12168565385</v>
       </c>
       <c r="V2">
-        <v>94525.96457839676</v>
+        <v>94525.96457839673</v>
       </c>
       <c r="W2">
-        <v>110579.0257390568</v>
+        <v>110579.0257390567</v>
       </c>
       <c r="X2">
-        <v>126668.8275307007</v>
+        <v>126668.8275307006</v>
       </c>
       <c r="Y2">
-        <v>143594.9999909858</v>
+        <v>143594.9999909857</v>
       </c>
       <c r="Z2">
         <v>161379.7853306726</v>
       </c>
       <c r="AA2">
-        <v>180050.0801657389</v>
+        <v>180050.0801657388</v>
       </c>
       <c r="AB2">
         <v>199616.2603743467</v>
       </c>
       <c r="AC2">
-        <v>208614.5563272892</v>
+        <v>208614.5563272891</v>
       </c>
       <c r="AD2">
         <v>217872.6890132909</v>
       </c>
       <c r="AE2">
-        <v>227376.1463571127</v>
+        <v>227376.1463571126</v>
       </c>
       <c r="AF2">
-        <v>237120.3327581376</v>
+        <v>237120.3327581375</v>
       </c>
       <c r="AG2">
-        <v>247183.8004658964</v>
+        <v>247183.8004658963</v>
       </c>
       <c r="AH2">
-        <v>253529.7957355409</v>
+        <v>253529.7957355407</v>
       </c>
       <c r="AI2">
-        <v>260005.859098917</v>
+        <v>260005.8590989168</v>
       </c>
       <c r="AJ2">
-        <v>266588.2231520641</v>
+        <v>266588.223152064</v>
       </c>
       <c r="AK2">
-        <v>273202.0041379603</v>
+        <v>273202.0041379602</v>
       </c>
       <c r="AL2">
-        <v>280063.4793205947</v>
+        <v>280063.4793205946</v>
       </c>
       <c r="AM2">
-        <v>289258.5838580162</v>
+        <v>289258.5838580161</v>
       </c>
       <c r="AN2">
-        <v>299101.7940033106</v>
+        <v>299101.7940033105</v>
       </c>
       <c r="AO2">
-        <v>309790.0862661155</v>
+        <v>309790.0862661154</v>
       </c>
       <c r="AP2">
-        <v>321787.2966071537</v>
+        <v>321787.2966071536</v>
       </c>
       <c r="AQ2">
-        <v>335522.874697348</v>
+        <v>335522.8746973479</v>
       </c>
       <c r="AR2">
-        <v>355008.2930216055</v>
+        <v>355008.2930216054</v>
       </c>
       <c r="AS2">
-        <v>376707.6460551027</v>
+        <v>376707.6460551026</v>
       </c>
       <c r="AT2">
-        <v>399654.2557452659</v>
+        <v>399654.2557452657</v>
       </c>
       <c r="AU2">
-        <v>423609.8903051542</v>
+        <v>423609.8903051541</v>
       </c>
       <c r="AV2">
-        <v>448418.327301549</v>
+        <v>448418.3273015489</v>
       </c>
       <c r="AW2">
-        <v>474643.7947108808</v>
+        <v>474643.7947108807</v>
       </c>
       <c r="AX2">
-        <v>501541.0772780117</v>
+        <v>501541.0772780115</v>
       </c>
       <c r="AY2">
-        <v>529026.4504699254</v>
+        <v>529026.4504699253</v>
       </c>
       <c r="AZ2">
-        <v>556473.6783972683</v>
+        <v>556473.6783972682</v>
       </c>
       <c r="BA2">
-        <v>582556.7160997185</v>
+        <v>582556.7160997184</v>
       </c>
       <c r="BB2">
-        <v>604945.581926066</v>
+        <v>604945.5819260658</v>
       </c>
       <c r="BC2">
-        <v>625298.5518433998</v>
+        <v>625298.5518433996</v>
       </c>
       <c r="BD2">
-        <v>645446.0376808565</v>
+        <v>645446.0376808564</v>
       </c>
       <c r="BE2">
-        <v>665485.2840363352</v>
+        <v>665485.2840363351</v>
       </c>
       <c r="BF2">
-        <v>684981.8983500849</v>
+        <v>684981.8983500848</v>
       </c>
       <c r="BG2">
-        <v>702820.5191419967</v>
+        <v>702820.5191419966</v>
       </c>
       <c r="BH2">
-        <v>719980.4981358954</v>
+        <v>719980.4981358952</v>
       </c>
       <c r="BI2">
-        <v>737227.9810579387</v>
+        <v>737227.9810579385</v>
       </c>
       <c r="BJ2">
-        <v>754844.359503653</v>
+        <v>754844.3595036529</v>
       </c>
       <c r="BK2">
-        <v>773184.4200710326</v>
+        <v>773184.4200710325</v>
       </c>
       <c r="BL2">
-        <v>792311.6325926392</v>
+        <v>792311.6325926391</v>
       </c>
       <c r="BM2">
-        <v>812668.6735023451</v>
+        <v>812668.673502345</v>
       </c>
       <c r="BN2">
-        <v>834267.1140521086</v>
+        <v>834267.1140521085</v>
       </c>
       <c r="BO2">
-        <v>857600.1904171121</v>
+        <v>857600.190417112</v>
       </c>
       <c r="BP2">
-        <v>883412.2788138401</v>
+        <v>883412.27881384</v>
       </c>
       <c r="BQ2">
-        <v>912107.0326137233</v>
+        <v>912107.0326137232</v>
       </c>
       <c r="BR2">
-        <v>943433.8557443279</v>
+        <v>943433.8557443278</v>
       </c>
       <c r="BS2">
-        <v>976360.4774163906</v>
+        <v>976360.4774163903</v>
       </c>
       <c r="BT2">
         <v>1010463.624430296</v>
       </c>
       <c r="BU2">
-        <v>1045639.692254988</v>
+        <v>1045639.692254987</v>
       </c>
       <c r="BV2">
-        <v>1081593.816012757</v>
+        <v>1081593.816012756</v>
       </c>
       <c r="BW2">
-        <v>1118291.081573519</v>
+        <v>1118291.081573518</v>
       </c>
       <c r="BX2">
-        <v>1155241.757459127</v>
+        <v>1155241.757459126</v>
       </c>
       <c r="BY2">
-        <v>1191754.857594305</v>
+        <v>1191754.857594304</v>
       </c>
       <c r="BZ2">
-        <v>1226932.404111308</v>
+        <v>1226932.404111307</v>
       </c>
       <c r="CA2">
         <v>1259960.70701324</v>
@@ -2311,43 +2311,43 @@
         <v>1291388.867517649</v>
       </c>
       <c r="CC2">
-        <v>1322112.134738793</v>
+        <v>1322112.134738792</v>
       </c>
       <c r="CD2">
         <v>1352494.870035714</v>
       </c>
       <c r="CE2">
-        <v>1382343.482731096</v>
+        <v>1382343.482731095</v>
       </c>
       <c r="CF2">
-        <v>1411205.144234401</v>
+        <v>1411205.1442344</v>
       </c>
       <c r="CG2">
-        <v>1439585.323743265</v>
+        <v>1439585.323743264</v>
       </c>
       <c r="CH2">
         <v>1468035.05109928</v>
       </c>
       <c r="CI2">
-        <v>1496960.315475244</v>
+        <v>1496960.315475243</v>
       </c>
       <c r="CJ2">
-        <v>1526633.651754261</v>
+        <v>1526633.65175426</v>
       </c>
       <c r="CK2">
         <v>1556887.450797545</v>
       </c>
       <c r="CL2">
-        <v>1588366.616485201</v>
+        <v>1588366.6164852</v>
       </c>
       <c r="CM2">
-        <v>1621363.303602228</v>
+        <v>1621363.303602227</v>
       </c>
       <c r="CN2">
-        <v>1656245.821171023</v>
+        <v>1656245.821171022</v>
       </c>
       <c r="CO2">
-        <v>1693416.451853193</v>
+        <v>1693416.451853192</v>
       </c>
     </row>
     <row r="3" spans="1:93">
@@ -2357,31 +2357,31 @@
         <v>3</v>
       </c>
       <c r="D3">
-        <v>70.90938680416963</v>
+        <v>70.90938680416959</v>
       </c>
       <c r="E3">
-        <v>163.6113783021818</v>
+        <v>163.6113783021817</v>
       </c>
       <c r="F3">
-        <v>256.1458585442017</v>
+        <v>256.1458585442015</v>
       </c>
       <c r="G3">
-        <v>344.0115981242441</v>
+        <v>344.0115981242439</v>
       </c>
       <c r="H3">
-        <v>462.3970472210834</v>
+        <v>462.3970472210831</v>
       </c>
       <c r="I3">
-        <v>547.4565200187108</v>
+        <v>547.4565200187104</v>
       </c>
       <c r="J3">
-        <v>702.2268436239553</v>
+        <v>702.226843623955</v>
       </c>
       <c r="K3">
-        <v>855.9217205259715</v>
+        <v>855.9217205259712</v>
       </c>
       <c r="L3">
-        <v>992.5483132227721</v>
+        <v>992.5483132227716</v>
       </c>
       <c r="M3">
         <v>1118.256955497735</v>
@@ -2390,7 +2390,7 @@
         <v>1388.777808993875</v>
       </c>
       <c r="O3">
-        <v>1552.265138426558</v>
+        <v>1552.265138426557</v>
       </c>
       <c r="P3">
         <v>1881.117457048832</v>
@@ -2399,28 +2399,28 @@
         <v>2235.242724104033</v>
       </c>
       <c r="R3">
-        <v>2614.910201745796</v>
+        <v>2614.910201745795</v>
       </c>
       <c r="S3">
-        <v>3450.327558221641</v>
+        <v>3450.32755822164</v>
       </c>
       <c r="T3">
-        <v>4346.764369056612</v>
+        <v>4346.764369056611</v>
       </c>
       <c r="U3">
-        <v>5303.800553481663</v>
+        <v>5303.800553481662</v>
       </c>
       <c r="V3">
-        <v>6320.309393509962</v>
+        <v>6320.309393509961</v>
       </c>
       <c r="W3">
-        <v>7396.500178793001</v>
+        <v>7396.500178793</v>
       </c>
       <c r="X3">
-        <v>8475.11745075406</v>
+        <v>8475.117450754058</v>
       </c>
       <c r="Y3">
-        <v>9609.873677294385</v>
+        <v>9609.873677294383</v>
       </c>
       <c r="Z3">
         <v>10802.265613292</v>
@@ -2429,10 +2429,10 @@
         <v>12054.09893442683</v>
       </c>
       <c r="AB3">
-        <v>13366.06689011602</v>
+        <v>13366.06689011601</v>
       </c>
       <c r="AC3">
-        <v>13968.38185952302</v>
+        <v>13968.38185952301</v>
       </c>
       <c r="AD3">
         <v>14588.13744265186</v>
@@ -2447,7 +2447,7 @@
         <v>16550.71101953892</v>
       </c>
       <c r="AH3">
-        <v>16974.99198666119</v>
+        <v>16974.99198666118</v>
       </c>
       <c r="AI3">
         <v>17408.00837295685</v>
@@ -2456,10 +2456,10 @@
         <v>17848.14423443499</v>
       </c>
       <c r="AK3">
-        <v>18290.36311363103</v>
+        <v>18290.36311363102</v>
       </c>
       <c r="AL3">
-        <v>18749.26325595314</v>
+        <v>18749.26325595313</v>
       </c>
       <c r="AM3">
         <v>19365.06179410857</v>
@@ -2474,7 +2474,7 @@
         <v>21547.90328978615</v>
       </c>
       <c r="AQ3">
-        <v>22471.39216012723</v>
+        <v>22471.39216012722</v>
       </c>
       <c r="AR3">
         <v>23782.31182880066</v>
@@ -2486,22 +2486,22 @@
         <v>26787.11395830835</v>
       </c>
       <c r="AU3">
-        <v>28399.0359804857</v>
+        <v>28399.03598048569</v>
       </c>
       <c r="AV3">
         <v>30068.2410317161</v>
       </c>
       <c r="AW3">
-        <v>31832.58874005513</v>
+        <v>31832.58874005512</v>
       </c>
       <c r="AX3">
-        <v>33642.10556038167</v>
+        <v>33642.10556038166</v>
       </c>
       <c r="AY3">
-        <v>35491.28483153389</v>
+        <v>35491.28483153388</v>
       </c>
       <c r="AZ3">
-        <v>37337.83179777936</v>
+        <v>37337.83179777935</v>
       </c>
       <c r="BA3">
         <v>39091.93073510825</v>
@@ -2510,16 +2510,16 @@
         <v>40596.18965601717</v>
       </c>
       <c r="BC3">
-        <v>41962.40837094885</v>
+        <v>41962.40837094884</v>
       </c>
       <c r="BD3">
         <v>43314.73104233068</v>
       </c>
       <c r="BE3">
-        <v>44659.82499510647</v>
+        <v>44659.82499510646</v>
       </c>
       <c r="BF3">
-        <v>45968.32347367766</v>
+        <v>45968.32347367765</v>
       </c>
       <c r="BG3">
         <v>47165.08708155867</v>
@@ -2528,34 +2528,34 @@
         <v>48316.13320383846</v>
       </c>
       <c r="BI3">
-        <v>49473.38243030135</v>
+        <v>49473.38243030134</v>
       </c>
       <c r="BJ3">
         <v>50655.71703160489</v>
       </c>
       <c r="BK3">
-        <v>51887.32124194787</v>
+        <v>51887.32124194786</v>
       </c>
       <c r="BL3">
-        <v>53173.11057762175</v>
+        <v>53173.11057762174</v>
       </c>
       <c r="BM3">
-        <v>54543.46543416516</v>
+        <v>54543.46543416515</v>
       </c>
       <c r="BN3">
         <v>55999.60077709988</v>
       </c>
       <c r="BO3">
-        <v>57574.91568955659</v>
+        <v>57574.91568955658</v>
       </c>
       <c r="BP3">
-        <v>59319.68114855725</v>
+        <v>59319.68114855724</v>
       </c>
       <c r="BQ3">
-        <v>61261.21908086896</v>
+        <v>61261.21908086895</v>
       </c>
       <c r="BR3">
-        <v>63381.51795520165</v>
+        <v>63381.51795520164</v>
       </c>
       <c r="BS3">
         <v>65609.25891263926</v>
@@ -2637,10 +2637,10 @@
         <v>1624041.439607251</v>
       </c>
       <c r="E4">
-        <v>3082807.85204152</v>
+        <v>3082807.852041519</v>
       </c>
       <c r="F4">
-        <v>4356213.544599939</v>
+        <v>4356213.544599938</v>
       </c>
       <c r="G4">
         <v>5833233.495613215</v>
@@ -2694,7 +2694,7 @@
         <v>206191383.8899641</v>
       </c>
       <c r="X4">
-        <v>238613948.1513998</v>
+        <v>238613948.1513997</v>
       </c>
       <c r="Y4">
         <v>271124738.0920786</v>
@@ -2911,22 +2911,22 @@
         <v>5</v>
       </c>
       <c r="D5">
-        <v>2149532.838667815</v>
+        <v>2149532.838667813</v>
       </c>
       <c r="E5">
-        <v>3588867.259234719</v>
+        <v>3588867.259234717</v>
       </c>
       <c r="F5">
-        <v>4934060.409842864</v>
+        <v>4934060.409842861</v>
       </c>
       <c r="G5">
-        <v>6230224.160329681</v>
+        <v>6230224.160329678</v>
       </c>
       <c r="H5">
-        <v>7473558.413228921</v>
+        <v>7473558.413228918</v>
       </c>
       <c r="I5">
-        <v>9026489.507478936</v>
+        <v>9026489.507478934</v>
       </c>
       <c r="J5">
         <v>10733848.69677471</v>
@@ -2947,13 +2947,13 @@
         <v>18800938.30828663</v>
       </c>
       <c r="P5">
-        <v>35072014.43643484</v>
+        <v>35072014.43643483</v>
       </c>
       <c r="Q5">
-        <v>51356742.75929384</v>
+        <v>51356742.75929382</v>
       </c>
       <c r="R5">
-        <v>67659472.49614955</v>
+        <v>67659472.49614954</v>
       </c>
       <c r="S5">
         <v>121787564.5002082</v>
@@ -3001,43 +3001,43 @@
         <v>709830223.9865497</v>
       </c>
       <c r="AH5">
-        <v>715633442.8727214</v>
+        <v>715633442.8727216</v>
       </c>
       <c r="AI5">
-        <v>721822135.0461159</v>
+        <v>721822135.046116</v>
       </c>
       <c r="AJ5">
-        <v>728521975.312319</v>
+        <v>728521975.3123192</v>
       </c>
       <c r="AK5">
-        <v>736495556.5452864</v>
+        <v>736495556.5452865</v>
       </c>
       <c r="AL5">
-        <v>746065577.3483979</v>
+        <v>746065577.348398</v>
       </c>
       <c r="AM5">
-        <v>763590536.4593906</v>
+        <v>763590536.4593908</v>
       </c>
       <c r="AN5">
-        <v>783672237.3757399</v>
+        <v>783672237.3757401</v>
       </c>
       <c r="AO5">
-        <v>806683124.687919</v>
+        <v>806683124.6879191</v>
       </c>
       <c r="AP5">
-        <v>832955923.2536788</v>
+        <v>832955923.2536789</v>
       </c>
       <c r="AQ5">
-        <v>862747190.235798</v>
+        <v>862747190.2357981</v>
       </c>
       <c r="AR5">
-        <v>904401411.884249</v>
+        <v>904401411.8842491</v>
       </c>
       <c r="AS5">
-        <v>949704627.8695842</v>
+        <v>949704627.8695843</v>
       </c>
       <c r="AT5">
-        <v>998464934.7561885</v>
+        <v>998464934.7561886</v>
       </c>
       <c r="AU5">
         <v>1050294973.193714</v>
@@ -3055,7 +3055,7 @@
         <v>1281817000.308524</v>
       </c>
       <c r="AZ5">
-        <v>1340277127.211986</v>
+        <v>1340277127.211987</v>
       </c>
       <c r="BA5">
         <v>1397037763.995185</v>
@@ -3070,28 +3070,28 @@
         <v>1547310207.315971</v>
       </c>
       <c r="BE5">
-        <v>1591271911.786382</v>
+        <v>1591271911.786383</v>
       </c>
       <c r="BF5">
         <v>1632290379.617978</v>
       </c>
       <c r="BG5">
-        <v>1669981447.478946</v>
+        <v>1669981447.478947</v>
       </c>
       <c r="BH5">
-        <v>1705674492.321883</v>
+        <v>1705674492.321884</v>
       </c>
       <c r="BI5">
         <v>1740053022.690841</v>
       </c>
       <c r="BJ5">
-        <v>1773870134.295728</v>
+        <v>1773870134.295729</v>
       </c>
       <c r="BK5">
-        <v>1807891758.858147</v>
+        <v>1807891758.858148</v>
       </c>
       <c r="BL5">
-        <v>1842741875.290623</v>
+        <v>1842741875.290624</v>
       </c>
       <c r="BM5">
         <v>1879181814.959935</v>
@@ -3103,19 +3103,19 @@
         <v>1958953627.636074</v>
       </c>
       <c r="BP5">
-        <v>2003057206.435635</v>
+        <v>2003057206.435636</v>
       </c>
       <c r="BQ5">
-        <v>2050301853.256923</v>
+        <v>2050301853.256924</v>
       </c>
       <c r="BR5">
         <v>2100728456.488876</v>
       </c>
       <c r="BS5">
-        <v>2154271940.273744</v>
+        <v>2154271940.273745</v>
       </c>
       <c r="BT5">
-        <v>2210744633.053597</v>
+        <v>2210744633.053598</v>
       </c>
       <c r="BU5">
         <v>2269849234.028989</v>
@@ -3127,7 +3127,7 @@
         <v>2393885567.663242</v>
       </c>
       <c r="BX5">
-        <v>2458068109.047293</v>
+        <v>2458068109.047294</v>
       </c>
       <c r="BY5">
         <v>2522996103.510753</v>
@@ -3136,7 +3136,7 @@
         <v>2588149677.644354</v>
       </c>
       <c r="CA5">
-        <v>2652654510.569749</v>
+        <v>2652654510.56975</v>
       </c>
       <c r="CB5">
         <v>2716480281.884402</v>
@@ -3151,34 +3151,34 @@
         <v>2901014225.77475</v>
       </c>
       <c r="CF5">
-        <v>2959115216.139104</v>
+        <v>2959115216.139105</v>
       </c>
       <c r="CG5">
-        <v>3015910722.951666</v>
+        <v>3015910722.951667</v>
       </c>
       <c r="CH5">
-        <v>3071593887.157359</v>
+        <v>3071593887.15736</v>
       </c>
       <c r="CI5">
-        <v>3126441389.912723</v>
+        <v>3126441389.912724</v>
       </c>
       <c r="CJ5">
-        <v>3180793224.7857</v>
+        <v>3180793224.785701</v>
       </c>
       <c r="CK5">
-        <v>3233977559.93342</v>
+        <v>3233977559.933421</v>
       </c>
       <c r="CL5">
-        <v>3287444198.285979</v>
+        <v>3287444198.28598</v>
       </c>
       <c r="CM5">
-        <v>3341584483.842725</v>
+        <v>3341584483.842726</v>
       </c>
       <c r="CN5">
-        <v>3396762548.589298</v>
+        <v>3396762548.589299</v>
       </c>
       <c r="CO5">
-        <v>3453296976.953876</v>
+        <v>3453296976.953877</v>
       </c>
     </row>
   </sheetData>
